--- a/Översikt TROLLHÄTTAN.xlsx
+++ b/Översikt TROLLHÄTTAN.xlsx
@@ -575,7 +575,7 @@
         <v>44529</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44963</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>44274</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>44685</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>44876.47261574074</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
         <v>44322.32700231481</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>44368</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44273.69288194444</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>44300.2812962963</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>44308</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>44309</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>44594.50368055556</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>44319</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>44280</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>44312.60563657407</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         <v>44286.76164351852</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>44473</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         <v>44572</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>44701.27262731481</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>44887.67539351852</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         <v>44601.65090277778</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>44789.37310185185</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
         <v>44677</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2011,14 +2011,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 23083-2021</t>
+          <t>A 34365-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44330</v>
+        <v>44379</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>5.6</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2068,14 +2068,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 34365-2021</t>
+          <t>A 23083-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44379</v>
+        <v>44330</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>5.6</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>44342.65056712963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2189,7 +2189,7 @@
         <v>44363.67822916667</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>44461</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2303,7 +2303,7 @@
         <v>44608.39469907407</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         <v>44622</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>44298.72625</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2467,14 +2467,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 25422-2021</t>
+          <t>A 38000-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44342.64869212963</v>
+        <v>44811.58396990741</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2524,14 +2524,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 38000-2022</t>
+          <t>A 25422-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44811.58396990741</v>
+        <v>44342.64869212963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>44686.73731481482</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>44757</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>44693</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>44466.83081018519</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         <v>44314</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>44524.54479166667</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>44298.63880787037</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         <v>44522.59743055556</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>44348</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3099,14 +3099,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 36191-2025</t>
+          <t>A 318-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45867.42372685186</v>
+        <v>44565.56469907407</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.9</v>
+        <v>8.6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3156,14 +3156,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 36192-2025</t>
+          <t>A 1295-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45867.42621527778</v>
+        <v>44572.68925925926</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3213,14 +3213,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 28884-2025</t>
+          <t>A 35463-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45820.62710648148</v>
+        <v>44798</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3270,14 +3270,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 318-2022</t>
+          <t>A 24127-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44565.56469907407</v>
+        <v>45456.63065972222</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3290,7 +3290,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>8.6</v>
+        <v>1.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3327,14 +3327,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 7558-2025</t>
+          <t>A 23984-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45705.58423611111</v>
+        <v>45456.34149305556</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3384,14 +3384,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 1295-2022</t>
+          <t>A 12264-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44572.68925925926</v>
+        <v>45378.46585648148</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3441,14 +3441,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 35463-2022</t>
+          <t>A 12266-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44798</v>
+        <v>45378.46766203704</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3498,14 +3498,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 53426-2022</t>
+          <t>A 6354-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44879</v>
+        <v>45699.3550462963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>13.2</v>
+        <v>19.3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3555,14 +3555,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 51381-2024</t>
+          <t>A 34356-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45604.39118055555</v>
+        <v>45139</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3.7</v>
+        <v>6.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3612,14 +3612,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 18821-2025</t>
+          <t>A 62294-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45764.37849537037</v>
+        <v>44923</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>6.9</v>
+        <v>0.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3669,14 +3669,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 37340-2025</t>
+          <t>A 7558-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45876.68804398148</v>
+        <v>45705.58423611111</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3726,14 +3726,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 62266-2022</t>
+          <t>A 3272-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44923.3334375</v>
+        <v>45679</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3783,14 +3783,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 39116-2022</t>
+          <t>A 3886-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44817.44609953704</v>
+        <v>45684.36366898148</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3802,8 +3802,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>3.3</v>
+        <v>0.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3840,14 +3845,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 13399-2024</t>
+          <t>A 39611-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45387.43239583333</v>
+        <v>44818.63516203704</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3859,8 +3864,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>4.9</v>
+        <v>1.3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3897,14 +3907,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 15648-2025</t>
+          <t>A 65254-2021</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45748.39800925926</v>
+        <v>44515</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3917,7 +3927,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.2</v>
+        <v>6.4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3954,14 +3964,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 35961-2021</t>
+          <t>A 18612-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44385</v>
+        <v>45763.4975</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3974,7 +3984,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4011,14 +4021,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 57918-2022</t>
+          <t>A 34909-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44900.37013888889</v>
+        <v>45141</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4031,7 +4041,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4068,14 +4078,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 41893-2022</t>
+          <t>A 65116-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44830</v>
+        <v>45287</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4087,13 +4097,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4130,14 +4135,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 24564-2025</t>
+          <t>A 28224-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45798.46134259259</v>
+        <v>45099</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4150,7 +4155,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.7</v>
+        <v>4.8</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4187,14 +4192,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 53227-2021</t>
+          <t>A 15704-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44468</v>
+        <v>45021</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4207,7 +4212,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4244,14 +4249,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 18597-2025</t>
+          <t>A 15181-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45763.48828703703</v>
+        <v>45016</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4264,7 +4269,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.5</v>
+        <v>4.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4301,14 +4306,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 18612-2025</t>
+          <t>A 24129-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45763.4975</v>
+        <v>45456.63239583333</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4321,7 +4326,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4358,14 +4363,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 10879-2021</t>
+          <t>A 29300-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44259</v>
+        <v>45483</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4378,7 +4383,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4415,14 +4420,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 10890-2021</t>
+          <t>A 16487-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44259</v>
+        <v>45029.58181712963</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4435,7 +4440,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3.4</v>
+        <v>0.9</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4472,14 +4477,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 21979-2025</t>
+          <t>A 11123-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45784.65008101852</v>
+        <v>45371.41443287037</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4492,7 +4497,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4529,14 +4534,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 7730-2023</t>
+          <t>A 15645-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44973.31143518518</v>
+        <v>45404.32452546297</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4549,7 +4554,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4586,14 +4591,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 17567-2021</t>
+          <t>A 34435-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44299.65976851852</v>
+        <v>45525.53689814815</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4606,7 +4611,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>6.2</v>
+        <v>2.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4643,14 +4648,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 370-2025</t>
+          <t>A 55033-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45661.54579861111</v>
+        <v>45237.35086805555</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4700,14 +4705,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 44910-2021</t>
+          <t>A 53401-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44438</v>
+        <v>44879.43978009259</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4720,7 +4725,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4757,14 +4762,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 33546-2022</t>
+          <t>A 46533-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44789.37229166667</v>
+        <v>45582.64207175926</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4777,7 +4782,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4814,14 +4819,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 11123-2024</t>
+          <t>A 24559-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45371.41443287037</v>
+        <v>45798.45791666667</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4834,7 +4839,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>8.199999999999999</v>
+        <v>6.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4871,14 +4876,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 10768-2024</t>
+          <t>A 37562-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45369.57269675926</v>
+        <v>45541.44416666667</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4891,7 +4896,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4928,14 +4933,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 10777-2024</t>
+          <t>A 27652-2022</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45369.59260416667</v>
+        <v>44743</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4948,7 +4953,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.9</v>
+        <v>9.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4985,14 +4990,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 30773-2024</t>
+          <t>A 37369-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45496.94711805556</v>
+        <v>45156.50247685185</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5005,7 +5010,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5042,14 +5047,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 53429-2022</t>
+          <t>A 7628-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44879</v>
+        <v>44607</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5062,7 +5067,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5099,14 +5104,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 63884-2025</t>
+          <t>A 57733-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>46020.58894675926</v>
+        <v>45246.71253472222</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5119,7 +5124,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5156,14 +5161,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 37658-2022</t>
+          <t>A 59879-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44810.44122685185</v>
+        <v>45640.716875</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5176,7 +5181,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5213,14 +5218,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 40682-2025</t>
+          <t>A 61805-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45896.85864583333</v>
+        <v>45646</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5233,7 +5238,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5270,14 +5275,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 68454-2021</t>
+          <t>A 15648-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44529.42045138889</v>
+        <v>45748.39800925926</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5290,7 +5295,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5327,14 +5332,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 57262-2025</t>
+          <t>A 49062-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45979.65866898148</v>
+        <v>45594</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5347,7 +5352,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3.9</v>
+        <v>1.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5384,14 +5389,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 57890-2025</t>
+          <t>A 24564-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45981.68027777778</v>
+        <v>45798.46134259259</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5404,7 +5409,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5441,14 +5446,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 49-2026</t>
+          <t>A 45519-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>46024.41849537037</v>
+        <v>45194.49783564815</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5461,7 +5466,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5498,14 +5503,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 60-2026</t>
+          <t>A 11991-2022</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>46024.44394675926</v>
+        <v>44635.69287037037</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5518,7 +5523,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5555,14 +5560,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 57886-2025</t>
+          <t>A 27201-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45981.67636574074</v>
+        <v>45812</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5575,7 +5580,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>8</v>
+        <v>1.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5612,14 +5617,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 57891-2025</t>
+          <t>A 4906-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45981.68199074074</v>
+        <v>45329.47921296296</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5632,7 +5637,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5669,14 +5674,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 62381-2023</t>
+          <t>A 21979-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45266</v>
+        <v>45784.65008101852</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5688,13 +5693,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G89" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5731,14 +5731,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 62378-2023</t>
+          <t>A 47902-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45266</v>
+        <v>45589</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5750,13 +5750,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5793,14 +5788,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 62382-2023</t>
+          <t>A 58330-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45266</v>
+        <v>44901.56349537037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5812,13 +5807,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5855,14 +5845,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 59252-2025</t>
+          <t>A 13119-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45988.65092592593</v>
+        <v>45002</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5875,7 +5865,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5912,14 +5902,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 34356-2023</t>
+          <t>A 25413-2021</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45139</v>
+        <v>44342.64425925926</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5932,7 +5922,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>6.7</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5969,14 +5959,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 1525-2026</t>
+          <t>A 40682-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>46034.36576388889</v>
+        <v>45896.85864583333</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5989,7 +5979,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6026,14 +6016,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 60103-2022</t>
+          <t>A 68454-2021</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44909.63206018518</v>
+        <v>44529.42045138889</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6046,7 +6036,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6083,14 +6073,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 3044-2022</t>
+          <t>A 57259-2022</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44582.3544675926</v>
+        <v>44895.82489583334</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6103,7 +6093,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6140,14 +6130,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 56116-2022</t>
+          <t>A 10777-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44889.66744212963</v>
+        <v>45369.59260416667</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6160,7 +6150,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6197,14 +6187,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 64784-2023</t>
+          <t>A 19820-2021</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45282</v>
+        <v>44312</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6217,7 +6207,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6254,14 +6244,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 36982-2024</t>
+          <t>A 29555-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45539.31283564815</v>
+        <v>45825.35525462963</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6274,7 +6264,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6311,14 +6301,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 45228-2025</t>
+          <t>A 62381-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45919.58493055555</v>
+        <v>45266</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6330,8 +6320,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G100" t="n">
-        <v>10.7</v>
+        <v>2.8</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6368,14 +6363,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 40864-2021</t>
+          <t>A 47507-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44421</v>
+        <v>45203.29027777778</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6388,7 +6383,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6425,14 +6420,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 60505-2025</t>
+          <t>A 45228-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45995.62716435185</v>
+        <v>45919.58493055555</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6445,7 +6440,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.5</v>
+        <v>10.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6482,14 +6477,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 7781-2023</t>
+          <t>A 30486-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44973.41172453704</v>
+        <v>45829.4681712963</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6502,7 +6497,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6539,14 +6534,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 37369-2023</t>
+          <t>A 2263-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45156.50247685185</v>
+        <v>45310.33078703703</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6558,8 +6553,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6596,14 +6596,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 66960-2021</t>
+          <t>A 23175-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44522</v>
+        <v>45075</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6653,14 +6653,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 73158-2021</t>
+          <t>A 31464-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44550.53336805556</v>
+        <v>45833</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6710,14 +6710,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 3256-2026</t>
+          <t>A 4307-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>46041.59181712963</v>
+        <v>45685.68771990741</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>8.1</v>
+        <v>1.1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6767,14 +6767,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 23175-2023</t>
+          <t>A 53227-2021</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45075</v>
+        <v>44468</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6824,14 +6824,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 854-2026</t>
+          <t>A 31698-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>46030</v>
+        <v>45834.40880787037</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6881,14 +6881,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 61535-2025</t>
+          <t>A 8273-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>46001</v>
+        <v>45352</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -6938,14 +6938,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 61539-2025</t>
+          <t>A 52688-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>46001</v>
+        <v>45610.39559027777</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -6995,14 +6995,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 11991-2022</t>
+          <t>A 44910-2021</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44635.69287037037</v>
+        <v>44438</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7052,14 +7052,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 3074-2023</t>
+          <t>A 46529-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44946</v>
+        <v>45582.63581018519</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>6.1</v>
+        <v>11.7</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7109,14 +7109,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 13119-2023</t>
+          <t>A 48788-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45002</v>
+        <v>45937.32173611111</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7166,14 +7166,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 47708-2025</t>
+          <t>A 48790-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45931</v>
+        <v>45937.3239699074</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>4.9</v>
+        <v>1.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7223,14 +7223,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 48790-2025</t>
+          <t>A 47708-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45937.3239699074</v>
+        <v>45931</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.7</v>
+        <v>4.9</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7280,14 +7280,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 48791-2025</t>
+          <t>A 48787-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45937.32559027777</v>
+        <v>45937.31791666667</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7337,14 +7337,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 48787-2025</t>
+          <t>A 48791-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45937.31791666667</v>
+        <v>45937.32559027777</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>3.6</v>
+        <v>1.7</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7394,14 +7394,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 48788-2025</t>
+          <t>A 131-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45937.32173611111</v>
+        <v>45294.42097222222</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7451,14 +7451,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 38941-2023</t>
+          <t>A 75-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45163</v>
+        <v>45659</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.7</v>
+        <v>5.4</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7508,14 +7508,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 17126-2022</t>
+          <t>A 68400-2021</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44677</v>
+        <v>44529</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7565,14 +7565,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 35372-2021</t>
+          <t>A 50209-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44384</v>
+        <v>45943</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7622,14 +7622,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 32527-2024</t>
+          <t>A 223-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45513.47659722222</v>
+        <v>45660.34912037037</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7641,13 +7641,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G123" t="n">
-        <v>8.699999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7684,14 +7679,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 5115-2026</t>
+          <t>A 54087-2021</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>46049.57565972222</v>
+        <v>44470</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7703,8 +7698,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G124" t="n">
-        <v>8.4</v>
+        <v>2.1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7741,14 +7741,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 50337-2025</t>
+          <t>A 35465-2022</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45944</v>
+        <v>44798</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7798,14 +7798,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 50209-2025</t>
+          <t>A 50337-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45943</v>
+        <v>45944</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7855,14 +7855,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 19048-2023</t>
+          <t>A 34671-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45047</v>
+        <v>45847</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7874,8 +7874,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G127" t="n">
-        <v>12.5</v>
+        <v>2.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7912,14 +7917,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 57733-2023</t>
+          <t>A 39116-2022</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45246.71253472222</v>
+        <v>44817.44609953704</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7932,7 +7937,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -7969,14 +7974,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 46533-2024</t>
+          <t>A 10640-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45582.64207175926</v>
+        <v>45721</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7989,7 +7994,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8026,14 +8031,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 53131-2022</t>
+          <t>A 13510-2022</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44876.47059027778</v>
+        <v>44648</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8046,7 +8051,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.8</v>
+        <v>17.6</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8083,14 +8088,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 7783-2023</t>
+          <t>A 62266-2022</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44973</v>
+        <v>44923.3334375</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8103,7 +8108,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8140,14 +8145,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 62915-2025</t>
+          <t>A 36191-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>46009.36930555556</v>
+        <v>45867.42372685186</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8160,7 +8165,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8197,14 +8202,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 11460-2024</t>
+          <t>A 36192-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45372.58478009259</v>
+        <v>45867.42621527778</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8217,7 +8222,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>5.3</v>
+        <v>0.4</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8254,14 +8259,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 62909-2025</t>
+          <t>A 28884-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>46009.36478009259</v>
+        <v>45820.62710648148</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8274,7 +8279,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8311,14 +8316,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 62299-2022</t>
+          <t>A 10767-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44923.44671296296</v>
+        <v>45369.57115740741</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8331,7 +8336,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8368,14 +8373,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 49781-2024</t>
+          <t>A 60103-2022</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45597.35331018519</v>
+        <v>44909.63206018518</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8388,7 +8393,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>5.7</v>
+        <v>1.1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8425,14 +8430,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 34909-2023</t>
+          <t>A 8099-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45141</v>
+        <v>45351.46194444445</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8445,7 +8450,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8482,14 +8487,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 62377-2023</t>
+          <t>A 37340-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45266</v>
+        <v>45876.68804398148</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8501,13 +8506,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G138" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8544,14 +8544,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 62380-2023</t>
+          <t>A 13515-2022</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45266</v>
+        <v>44648</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8563,13 +8563,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G139" t="n">
-        <v>0.9</v>
+        <v>3.3</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8606,14 +8601,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 55033-2023</t>
+          <t>A 54542-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45237.35086805555</v>
+        <v>45965.64857638889</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8626,7 +8621,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8663,14 +8658,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 6354-2025</t>
+          <t>A 54526-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45699.3550462963</v>
+        <v>45965.63171296296</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8683,7 +8678,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>19.3</v>
+        <v>4.5</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8720,14 +8715,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 21363-2023</t>
+          <t>A 4077-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45063.25231481482</v>
+        <v>45684.6493287037</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8740,7 +8735,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8777,14 +8772,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 16473-2023</t>
+          <t>A 51381-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45029</v>
+        <v>45604.39118055555</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8797,7 +8792,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>5.5</v>
+        <v>3.7</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8834,14 +8829,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 16475-2023</t>
+          <t>A 2402-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45029</v>
+        <v>45310.7224537037</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8854,7 +8849,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8891,14 +8886,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 40896-2022</t>
+          <t>A 73158-2021</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44825</v>
+        <v>44550.53336805556</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8911,7 +8906,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>11.3</v>
+        <v>1.3</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8948,14 +8943,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 15658-2025</t>
+          <t>A 13883-2022</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45748.42075231481</v>
+        <v>44650</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8968,7 +8963,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.6</v>
+        <v>6.1</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9005,14 +9000,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 34435-2024</t>
+          <t>A 18821-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45525.53689814815</v>
+        <v>45764.37849537037</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9025,7 +9020,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.9</v>
+        <v>6.9</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9062,14 +9057,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 15000-2023</t>
+          <t>A 56523-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45015.57863425926</v>
+        <v>45975.46405092593</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9082,7 +9077,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9119,14 +9114,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 65254-2021</t>
+          <t>A 63884-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44515</v>
+        <v>46020.58894675926</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9139,7 +9134,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>6.4</v>
+        <v>1.9</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9176,14 +9171,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 46364-2024</t>
+          <t>A 57262-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45582.3631712963</v>
+        <v>45979.65866898148</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9196,7 +9191,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.4</v>
+        <v>3.9</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9233,14 +9228,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 6251-2023</t>
+          <t>A 59625-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44965.32954861111</v>
+        <v>45254</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9253,7 +9248,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>15.4</v>
+        <v>3</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9290,14 +9285,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 54526-2025</t>
+          <t>A 57890-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45965.63171296296</v>
+        <v>45981.68027777778</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9310,7 +9305,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9347,14 +9342,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 54542-2025</t>
+          <t>A 57886-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45965.64857638889</v>
+        <v>45981.67636574074</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9367,7 +9362,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9404,14 +9399,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 24127-2024</t>
+          <t>A 57891-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45456.63065972222</v>
+        <v>45981.68199074074</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9424,7 +9419,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9461,14 +9456,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 42456-2024</t>
+          <t>A 15659-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45565.46021990741</v>
+        <v>45748.42236111111</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9481,7 +9476,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9518,14 +9513,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 19781-2025</t>
+          <t>A 49-2026</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45771.42873842592</v>
+        <v>46024.41849537037</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9538,7 +9533,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>6.1</v>
+        <v>2.7</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9575,14 +9570,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 23451-2023</t>
+          <t>A 16154-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45076</v>
+        <v>45406.58298611111</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9594,13 +9589,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G157" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9637,14 +9627,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 3886-2025</t>
+          <t>A 16155-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45684.36366898148</v>
+        <v>45406.58472222222</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9656,13 +9646,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G158" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9699,14 +9684,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 12967-2024</t>
+          <t>A 60-2026</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45385.50491898148</v>
+        <v>46024.44394675926</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9719,7 +9704,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9756,14 +9741,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 56523-2025</t>
+          <t>A 62377-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45975.46405092593</v>
+        <v>45266</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9775,8 +9760,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G160" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9813,14 +9803,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 41554-2024</t>
+          <t>A 62380-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45560</v>
+        <v>45266</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9832,8 +9822,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G161" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -9870,14 +9865,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 37371-2023</t>
+          <t>A 35969-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45156.51420138889</v>
+        <v>45533</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9890,7 +9885,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -9927,14 +9922,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 61046-2024</t>
+          <t>A 59252-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45645.47785879629</v>
+        <v>45988.65092592593</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9947,7 +9942,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -9984,14 +9979,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 35969-2024</t>
+          <t>A 1525-2026</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45533</v>
+        <v>46034.36576388889</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10004,7 +9999,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10041,14 +10036,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 7921-2024</t>
+          <t>A 41554-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45350</v>
+        <v>45560</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10061,7 +10056,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10098,14 +10093,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 19049-2021</t>
+          <t>A 30773-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44308</v>
+        <v>45496.94711805556</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10118,7 +10113,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10155,14 +10150,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 13515-2022</t>
+          <t>A 45983-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44648</v>
+        <v>45580.61104166666</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10175,7 +10170,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10212,14 +10207,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 2460-2022</t>
+          <t>A 32826-2022</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44579</v>
+        <v>44784</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10232,7 +10227,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>6.1</v>
+        <v>4</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10269,14 +10264,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 4307-2025</t>
+          <t>A 53426-2022</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45685.68771990741</v>
+        <v>44879</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10289,7 +10284,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.1</v>
+        <v>13.2</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10326,14 +10321,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 53193-2023</t>
+          <t>A 13220-2022</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45229</v>
+        <v>44644.57788194445</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10346,7 +10341,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10383,14 +10378,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 75-2025</t>
+          <t>A 19447-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45659</v>
+        <v>45770</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10403,7 +10398,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10440,14 +10435,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 3795-2024</t>
+          <t>A 60505-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45321.62364583334</v>
+        <v>45995.62716435185</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10460,7 +10455,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10497,14 +10492,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 39611-2022</t>
+          <t>A 14820-2021</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44818.63516203704</v>
+        <v>44280</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10516,13 +10511,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G173" t="n">
-        <v>1.3</v>
+        <v>6.4</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10559,14 +10549,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 29300-2024</t>
+          <t>A 64669-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45483</v>
+        <v>45281</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10579,7 +10569,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10616,14 +10606,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 47507-2023</t>
+          <t>A 62378-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45203.29027777778</v>
+        <v>45266</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10635,8 +10625,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G175" t="n">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10673,14 +10668,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 43374-2021</t>
+          <t>A 62382-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44432</v>
+        <v>45266</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10692,8 +10687,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G176" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10730,14 +10730,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 43604-2024</t>
+          <t>A 16473-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45569.44895833333</v>
+        <v>45029</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10750,7 +10750,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10787,14 +10787,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 7628-2022</t>
+          <t>A 16475-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44607</v>
+        <v>45029</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -10844,14 +10844,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 51605-2024</t>
+          <t>A 53131-2022</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45604.67737268518</v>
+        <v>44876.47059027778</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10864,7 +10864,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -10901,14 +10901,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 61884-2024</t>
+          <t>A 62379-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45652.65233796297</v>
+        <v>45266</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10920,8 +10920,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G180" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -10958,14 +10963,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 8099-2024</t>
+          <t>A 43374-2021</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45351.46194444445</v>
+        <v>44432</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10978,7 +10983,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11015,14 +11020,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 45521-2022</t>
+          <t>A 3256-2026</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44845.45263888889</v>
+        <v>46041.59181712963</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11035,7 +11040,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>4</v>
+        <v>8.1</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11072,14 +11077,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 28224-2023</t>
+          <t>A 854-2026</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45099</v>
+        <v>46030</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11092,7 +11097,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>4.8</v>
+        <v>1.8</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11129,14 +11134,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 5927-2022</t>
+          <t>A 61535-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44598.75418981481</v>
+        <v>46001</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11149,7 +11154,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>6.6</v>
+        <v>1.6</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11186,14 +11191,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 33587-2021</t>
+          <t>A 61539-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44378</v>
+        <v>46001</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11206,7 +11211,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11243,14 +11248,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 23984-2024</t>
+          <t>A 64784-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45456.34149305556</v>
+        <v>45282</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11263,7 +11268,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11300,14 +11305,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 24129-2024</t>
+          <t>A 18597-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45456.63239583333</v>
+        <v>45763.48828703703</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11320,7 +11325,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11357,14 +11362,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 35465-2022</t>
+          <t>A 3044-2022</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44798</v>
+        <v>44582.3544675926</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11377,7 +11382,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11414,14 +11419,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 65116-2023</t>
+          <t>A 15000-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45287</v>
+        <v>45015.57863425926</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11434,7 +11439,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.1</v>
+        <v>2.4</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11471,14 +11476,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 62379-2023</t>
+          <t>A 6251-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45266</v>
+        <v>44965.32954861111</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11490,13 +11495,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G190" t="n">
-        <v>0.7</v>
+        <v>15.4</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11533,14 +11533,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 59625-2023</t>
+          <t>A 10879-2021</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45254</v>
+        <v>44259</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11553,7 +11553,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11590,14 +11590,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 19447-2025</t>
+          <t>A 10890-2021</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45770</v>
+        <v>44259</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11610,7 +11610,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>4.9</v>
+        <v>3.4</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11647,14 +11647,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 131-2024</t>
+          <t>A 17567-2021</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45294.42097222222</v>
+        <v>44299.65976851852</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11667,7 +11667,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>7.5</v>
+        <v>6.2</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11704,14 +11704,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 54087-2021</t>
+          <t>A 51605-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44470</v>
+        <v>45604.67737268518</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11723,13 +11723,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G194" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11766,14 +11761,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 62683-2023</t>
+          <t>A 5115-2026</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45271.48655092593</v>
+        <v>46049.57565972222</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11786,7 +11781,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>5.3</v>
+        <v>8.4</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11823,14 +11818,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 27652-2022</t>
+          <t>A 19781-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44743</v>
+        <v>45771.42873842592</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11843,7 +11838,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>9.1</v>
+        <v>6.1</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -11880,14 +11875,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 45983-2024</t>
+          <t>A 62909-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45580.61104166666</v>
+        <v>46009.36478009259</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11900,7 +11895,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -11937,14 +11932,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 5242-2022</t>
+          <t>A 62915-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44594.51598379629</v>
+        <v>46009.36930555556</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11957,7 +11952,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>8.800000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -11994,14 +11989,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 46529-2024</t>
+          <t>A 23451-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45582.63581018519</v>
+        <v>45076</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12013,8 +12008,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G199" t="n">
-        <v>11.7</v>
+        <v>0.6</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12051,14 +12051,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 16154-2024</t>
+          <t>A 35372-2021</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45406.58298611111</v>
+        <v>44384</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12108,14 +12108,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 16155-2024</t>
+          <t>A 60498-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45406.58472222222</v>
+        <v>45643.66039351852</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12165,14 +12165,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 57259-2022</t>
+          <t>A 5927-2022</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44895.82489583334</v>
+        <v>44598.75418981481</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>2</v>
+        <v>6.6</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12222,14 +12222,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 223-2025</t>
+          <t>A 41893-2022</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45660.34912037037</v>
+        <v>44830</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12241,8 +12241,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G203" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12279,14 +12284,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 59879-2024</t>
+          <t>A 7783-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45640.716875</v>
+        <v>44973</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12299,7 +12304,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12336,14 +12341,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 32826-2022</t>
+          <t>A 5242-2022</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44784</v>
+        <v>44594.51598379629</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12356,7 +12361,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12393,14 +12398,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 58330-2022</t>
+          <t>A 57918-2022</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44901.56349537037</v>
+        <v>44900.37013888889</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12413,7 +12418,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12450,14 +12455,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 15704-2023</t>
+          <t>A 2460-2022</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45021</v>
+        <v>44579</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12470,7 +12475,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>5</v>
+        <v>6.1</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12507,14 +12512,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 30796-2024</t>
+          <t>A 7781-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45497.36230324074</v>
+        <v>44973.41172453704</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12527,7 +12532,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>3.7</v>
+        <v>0.5</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12564,14 +12569,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 16152-2024</t>
+          <t>A 7921-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45406.57743055555</v>
+        <v>45350</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12584,7 +12589,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12621,14 +12626,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 4906-2024</t>
+          <t>A 45521-2022</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45329.47921296296</v>
+        <v>44845.45263888889</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12641,7 +12646,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12678,14 +12683,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 13883-2022</t>
+          <t>A 17126-2022</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44650</v>
+        <v>44677</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12698,7 +12703,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>6.1</v>
+        <v>2.4</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12735,14 +12740,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 53401-2022</t>
+          <t>A 56116-2022</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44879.43978009259</v>
+        <v>44889.66744212963</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12755,7 +12760,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12792,14 +12797,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 15181-2023</t>
+          <t>A 40896-2022</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45016</v>
+        <v>44825</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12812,7 +12817,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>4.9</v>
+        <v>11.3</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -12849,14 +12854,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 19820-2021</t>
+          <t>A 12329-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>44312</v>
+        <v>45378.67270833333</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12869,7 +12874,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -12906,14 +12911,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 61443-2022</t>
+          <t>A 37371-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44909</v>
+        <v>45156.51420138889</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12926,7 +12931,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -12963,14 +12968,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 855-2023</t>
+          <t>A 3074-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44931.60407407407</v>
+        <v>44946</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12983,7 +12988,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>3.1</v>
+        <v>6.1</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13020,14 +13025,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 47755-2022</t>
+          <t>A 7730-2023</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>44854.67653935185</v>
+        <v>44973.31143518518</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13040,7 +13045,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13077,14 +13082,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 9821-2022</t>
+          <t>A 10494-2022</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44620.44008101852</v>
+        <v>44623.64945601852</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13097,7 +13102,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2.5</v>
+        <v>13.3</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13134,14 +13139,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 14820-2021</t>
+          <t>A 46364-2024</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44280</v>
+        <v>45582.3631712963</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13154,7 +13159,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>6.4</v>
+        <v>1.4</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13191,14 +13196,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 13220-2022</t>
+          <t>A 19049-2021</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>44644.57788194445</v>
+        <v>44308</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13211,7 +13216,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13248,14 +13253,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 68400-2021</t>
+          <t>A 32527-2024</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44529</v>
+        <v>45513.47659722222</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13267,8 +13272,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G221" t="n">
-        <v>2.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13305,14 +13315,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 25514-2022</t>
+          <t>A 35961-2021</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44732.58395833334</v>
+        <v>44385</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13325,7 +13335,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13362,14 +13372,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 10494-2022</t>
+          <t>A 33546-2022</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44623.64945601852</v>
+        <v>44789.37229166667</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13382,7 +13392,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>13.3</v>
+        <v>0.5</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13419,14 +13429,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 52688-2024</t>
+          <t>A 13131-2024</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45610.39559027777</v>
+        <v>45386</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13438,8 +13448,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G224" t="n">
-        <v>1.4</v>
+        <v>5.9</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13476,14 +13491,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 47902-2024</t>
+          <t>A 9821-2022</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45589</v>
+        <v>44620.44008101852</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13496,7 +13511,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13533,14 +13548,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 32541-2024</t>
+          <t>A 38941-2023</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45513.49285879629</v>
+        <v>45163</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13552,13 +13567,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G226" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13595,14 +13605,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 2263-2024</t>
+          <t>A 13399-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45310.33078703703</v>
+        <v>45387.43239583333</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13614,13 +13624,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G227" t="n">
-        <v>0.6</v>
+        <v>4.9</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13657,14 +13662,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 37305-2022</t>
+          <t>A 49781-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>44808.94498842592</v>
+        <v>45597.35331018519</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13677,7 +13682,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>9.9</v>
+        <v>5.7</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13714,14 +13719,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 60498-2024</t>
+          <t>A 43604-2024</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45643.66039351852</v>
+        <v>45569.44895833333</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13734,7 +13739,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13771,14 +13776,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 3272-2025</t>
+          <t>A 61046-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45679</v>
+        <v>45645.47785879629</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13791,7 +13796,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -13828,14 +13833,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 37562-2024</t>
+          <t>A 61799-2024</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45541.44416666667</v>
+        <v>45646</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13848,7 +13853,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>4.2</v>
+        <v>0.9</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -13885,14 +13890,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 15659-2025</t>
+          <t>A 3795-2024</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45748.42236111111</v>
+        <v>45321.62364583334</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13905,7 +13910,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>0.3</v>
+        <v>1.4</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -13942,14 +13947,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 13131-2024</t>
+          <t>A 42456-2024</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45386</v>
+        <v>45565.46021990741</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13961,13 +13966,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G233" t="n">
-        <v>5.9</v>
+        <v>0.5</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14004,14 +14004,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 2404-2025</t>
+          <t>A 30796-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45674.35633101852</v>
+        <v>45497.36230324074</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14024,7 +14024,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>9.9</v>
+        <v>3.7</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14061,14 +14061,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 19773-2025</t>
+          <t>A 16152-2024</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45771</v>
+        <v>45406.57743055555</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14081,7 +14081,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14118,14 +14118,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 61799-2024</t>
+          <t>A 62683-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45646</v>
+        <v>45271.48655092593</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14138,7 +14138,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>0.9</v>
+        <v>5.3</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14175,14 +14175,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 8273-2024</t>
+          <t>A 61443-2022</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45352</v>
+        <v>44909</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14195,7 +14195,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14232,14 +14232,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 2402-2024</t>
+          <t>A 47755-2022</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45310.7224537037</v>
+        <v>44854.67653935185</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14252,7 +14252,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14289,14 +14289,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 3399-2024</t>
+          <t>A 10768-2024</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45318.60454861111</v>
+        <v>45369.57269675926</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14309,7 +14309,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14346,14 +14346,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 10767-2024</t>
+          <t>A 62299-2022</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45369.57115740741</v>
+        <v>44923.44671296296</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14366,7 +14366,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14403,14 +14403,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 24432-2022</t>
+          <t>A 11460-2024</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>44726</v>
+        <v>45372.58478009259</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14423,7 +14423,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.3</v>
+        <v>5.3</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14460,14 +14460,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 16487-2023</t>
+          <t>A 32541-2024</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45029.58181712963</v>
+        <v>45513.49285879629</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14479,8 +14479,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G242" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14517,14 +14522,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 64669-2023</t>
+          <t>A 55303-2022</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45281</v>
+        <v>44887</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14537,7 +14542,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14574,14 +14579,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 55303-2022</t>
+          <t>A 19048-2023</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>44887</v>
+        <v>45047</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14594,7 +14599,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>1.5</v>
+        <v>12.5</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14631,14 +14636,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 25413-2021</t>
+          <t>A 36982-2024</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>44342.64425925926</v>
+        <v>45539.31283564815</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14651,7 +14656,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14688,14 +14693,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 12329-2024</t>
+          <t>A 855-2023</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45378.67270833333</v>
+        <v>44931.60407407407</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14708,7 +14713,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>0.8</v>
+        <v>3.1</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -14745,14 +14750,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 4077-2025</t>
+          <t>A 21363-2023</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45684.6493287037</v>
+        <v>45063.25231481482</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14765,7 +14770,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -14802,14 +14807,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 62294-2022</t>
+          <t>A 61884-2024</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>44923</v>
+        <v>45652.65233796297</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14822,7 +14827,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -14859,14 +14864,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 4632-2024</t>
+          <t>A 370-2025</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45328.40832175926</v>
+        <v>45661.54579861111</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14879,7 +14884,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -14916,14 +14921,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 61805-2024</t>
+          <t>A 33587-2021</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45646</v>
+        <v>44378</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14936,7 +14941,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -14973,14 +14978,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 12264-2024</t>
+          <t>A 19773-2025</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45378.46585648148</v>
+        <v>45771</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -14993,7 +14998,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15030,14 +15035,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 12266-2024</t>
+          <t>A 2404-2025</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45378.46766203704</v>
+        <v>45674.35633101852</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15050,7 +15055,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>0.5</v>
+        <v>9.9</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15087,14 +15092,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 44708-2023</t>
+          <t>A 3399-2024</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45190.32966435186</v>
+        <v>45318.60454861111</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15107,7 +15112,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>3.6</v>
+        <v>1</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15144,14 +15149,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 20955-2025</t>
+          <t>A 53429-2022</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45777.44401620371</v>
+        <v>44879</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15164,7 +15169,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>1.2</v>
+        <v>4.2</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15201,14 +15206,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 6402-2021</t>
+          <t>A 44708-2023</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>44235</v>
+        <v>45190.32966435186</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15221,7 +15226,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15258,14 +15263,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 22016-2025</t>
+          <t>A 25514-2022</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45784.78254629629</v>
+        <v>44732.58395833334</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15278,7 +15283,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15315,14 +15320,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 32537-2024</t>
+          <t>A 12967-2024</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45513</v>
+        <v>45385.50491898148</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15334,13 +15339,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F257" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G257" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15377,14 +15377,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 8869-2025</t>
+          <t>A 24432-2022</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45713.369375</v>
+        <v>44726</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15434,14 +15434,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 37801-2024</t>
+          <t>A 37658-2022</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45543</v>
+        <v>44810.44122685185</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15491,14 +15491,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 24559-2025</t>
+          <t>A 15658-2025</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45798.45791666667</v>
+        <v>45748.42075231481</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>6.5</v>
+        <v>0.6</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15548,14 +15548,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 11837-2025</t>
+          <t>A 66960-2021</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45728.36346064815</v>
+        <v>44522</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15605,14 +15605,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 15645-2024</t>
+          <t>A 40864-2021</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45404.32452546297</v>
+        <v>44421</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -15662,14 +15662,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 45519-2023</t>
+          <t>A 37305-2022</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45194.49783564815</v>
+        <v>44808.94498842592</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>4.5</v>
+        <v>9.9</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -15719,14 +15719,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 49062-2024</t>
+          <t>A 4632-2024</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45594</v>
+        <v>45328.40832175926</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -15776,14 +15776,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 27201-2025</t>
+          <t>A 53193-2023</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45812</v>
+        <v>45229</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -15833,14 +15833,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 29555-2025</t>
+          <t>A 20955-2025</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45825.35525462963</v>
+        <v>45777.44401620371</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15853,7 +15853,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>4.3</v>
+        <v>1.2</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -15890,14 +15890,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 30486-2025</t>
+          <t>A 22016-2025</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45829.4681712963</v>
+        <v>45784.78254629629</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -15910,7 +15910,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -15947,14 +15947,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 31464-2025</t>
+          <t>A 6402-2021</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45833</v>
+        <v>44235</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16004,14 +16004,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 31698-2025</t>
+          <t>A 32537-2024</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45834.40880787037</v>
+        <v>45513</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16023,8 +16023,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G269" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16061,14 +16066,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 34671-2025</t>
+          <t>A 8869-2025</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45847</v>
+        <v>45713.369375</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16080,13 +16085,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F270" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G270" t="n">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16123,14 +16123,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 13510-2022</t>
+          <t>A 37801-2024</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>44648</v>
+        <v>45543</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16143,7 +16143,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>17.6</v>
+        <v>2</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16180,14 +16180,14 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 10640-2025</t>
+          <t>A 11837-2025</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45721</v>
+        <v>45728.36346064815</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16200,7 +16200,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>

--- a/Översikt TROLLHÄTTAN.xlsx
+++ b/Översikt TROLLHÄTTAN.xlsx
@@ -575,7 +575,7 @@
         <v>44529</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44963</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>44274</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>44685</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>44876.47261574074</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
         <v>44322.32700231481</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>44368</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44273.69288194444</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>44300.2812962963</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>44308</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>44309</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>44594.50368055556</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>44319</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>44280</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>44312.60563657407</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         <v>44286.76164351852</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>44473</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         <v>44572</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>44701.27262731481</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>44887.67539351852</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         <v>44601.65090277778</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>44789.37310185185</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
         <v>44677</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>44379</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>44330</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>44342.65056712963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2189,7 +2189,7 @@
         <v>44363.67822916667</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>44461</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2303,7 +2303,7 @@
         <v>44608.39469907407</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         <v>44622</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>44298.72625</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>44811.58396990741</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>44342.64869212963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>44686.73731481482</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>44757</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>44693</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>44466.83081018519</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         <v>44314</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>44524.54479166667</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>44298.63880787037</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         <v>44522.59743055556</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>44348</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>44565.56469907407</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>44572.68925925926</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>44798</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>45456.63065972222</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         <v>45456.34149305556</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>45378.46585648148</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>45378.46766203704</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>45699.3550462963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>45139</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>44923</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         <v>45705.58423611111</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>45679</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         <v>45684.36366898148</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>44818.63516203704</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>44515</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>45763.4975</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>45141</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>45287</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>45099</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4199,7 +4199,7 @@
         <v>45021</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>45016</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         <v>45456.63239583333</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         <v>45483</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>45029.58181712963</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>45371.41443287037</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>45404.32452546297</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>45525.53689814815</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>45237.35086805555</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>44879.43978009259</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>45582.64207175926</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>45798.45791666667</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>45541.44416666667</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>44743</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>45156.50247685185</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>44607</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>45246.71253472222</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         <v>45640.716875</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>45646</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>45748.39800925926</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>45594</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>45798.46134259259</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>45194.49783564815</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>44635.69287037037</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>45812</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>45329.47921296296</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>45784.65008101852</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>45589</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>44901.56349537037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>45002</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>44342.64425925926</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>45896.85864583333</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>44529.42045138889</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>44895.82489583334</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>45369.59260416667</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44312</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>45825.35525462963</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>45266</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>45203.29027777778</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         <v>45919.58493055555</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6484,7 +6484,7 @@
         <v>45829.4681712963</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6541,7 +6541,7 @@
         <v>45310.33078703703</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>45075</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>45833</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>45685.68771990741</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>44468</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>45834.40880787037</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>45352</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>45610.39559027777</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>44438</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>45582.63581018519</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>45937.32173611111</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>45937.3239699074</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>45931</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>45937.31791666667</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>45937.32559027777</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>45294.42097222222</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>45659</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7515,7 +7515,7 @@
         <v>44529</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>45943</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7629,7 +7629,7 @@
         <v>45660.34912037037</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7686,7 +7686,7 @@
         <v>44470</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>44798</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>45944</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>45847</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>44817.44609953704</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>45721</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>44648</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>44923.3334375</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>45867.42372685186</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8209,7 +8209,7 @@
         <v>45867.42621527778</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>45820.62710648148</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>45369.57115740741</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>44909.63206018518</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>45351.46194444445</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>45876.68804398148</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>44648</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>45965.64857638889</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>45965.63171296296</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>45684.6493287037</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>45604.39118055555</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>45310.7224537037</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>44550.53336805556</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>44650</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>45764.37849537037</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>45975.46405092593</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>46020.58894675926</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>45979.65866898148</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>45254</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>45981.68027777778</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>45981.67636574074</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>45981.68199074074</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>45748.42236111111</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>46024.41849537037</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>45406.58298611111</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>45406.58472222222</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>46024.44394675926</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>45266</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>45266</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         <v>45533</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>45988.65092592593</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>46034.36576388889</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10043,7 +10043,7 @@
         <v>45560</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10100,7 +10100,7 @@
         <v>45496.94711805556</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>45580.61104166666</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>44784</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>44879</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>44644.57788194445</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>45770</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>45995.62716435185</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44280</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>45281</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>45266</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>45266</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10737,7 +10737,7 @@
         <v>45029</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10794,7 +10794,7 @@
         <v>45029</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10851,7 +10851,7 @@
         <v>44876.47059027778</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10908,7 +10908,7 @@
         <v>45266</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>44432</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>46041.59181712963</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>46030</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>46001</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>46001</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         <v>45282</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         <v>45763.48828703703</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>44582.3544675926</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         <v>45015.57863425926</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         <v>44965.32954861111</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         <v>44259</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>44259</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>44299.65976851852</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11711,7 +11711,7 @@
         <v>45604.67737268518</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11768,7 +11768,7 @@
         <v>46049.57565972222</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11825,7 +11825,7 @@
         <v>45771.42873842592</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11882,7 +11882,7 @@
         <v>46009.36478009259</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11939,7 +11939,7 @@
         <v>46009.36930555556</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11996,7 +11996,7 @@
         <v>45076</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12058,7 +12058,7 @@
         <v>44384</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         <v>45643.66039351852</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12172,7 +12172,7 @@
         <v>44598.75418981481</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12229,7 +12229,7 @@
         <v>44830</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12291,7 +12291,7 @@
         <v>44973</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12348,7 +12348,7 @@
         <v>44594.51598379629</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12405,7 +12405,7 @@
         <v>44900.37013888889</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12462,7 +12462,7 @@
         <v>44579</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12519,7 +12519,7 @@
         <v>44973.41172453704</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12576,7 +12576,7 @@
         <v>45350</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12633,7 +12633,7 @@
         <v>44845.45263888889</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12690,7 +12690,7 @@
         <v>44677</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12747,7 +12747,7 @@
         <v>44889.66744212963</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12804,7 +12804,7 @@
         <v>44825</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12861,7 +12861,7 @@
         <v>45378.67270833333</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>45156.51420138889</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12975,7 +12975,7 @@
         <v>44946</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13032,7 +13032,7 @@
         <v>44973.31143518518</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13089,7 +13089,7 @@
         <v>44623.64945601852</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13146,7 +13146,7 @@
         <v>45582.3631712963</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13203,7 +13203,7 @@
         <v>44308</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13260,7 +13260,7 @@
         <v>45513.47659722222</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>44385</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>44789.37229166667</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>45386</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44620.44008101852</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>45163</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>45387.43239583333</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>45597.35331018519</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>45569.44895833333</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13783,7 +13783,7 @@
         <v>45645.47785879629</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>45646</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13897,7 +13897,7 @@
         <v>45321.62364583334</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13954,7 +13954,7 @@
         <v>45565.46021990741</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14011,7 +14011,7 @@
         <v>45497.36230324074</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14068,7 +14068,7 @@
         <v>45406.57743055555</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14125,7 +14125,7 @@
         <v>45271.48655092593</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14182,7 +14182,7 @@
         <v>44909</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14239,7 +14239,7 @@
         <v>44854.67653935185</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14296,7 +14296,7 @@
         <v>45369.57269675926</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14353,7 +14353,7 @@
         <v>44923.44671296296</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         <v>45372.58478009259</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         <v>45513.49285879629</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
         <v>44887</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14586,7 +14586,7 @@
         <v>45047</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14643,7 +14643,7 @@
         <v>45539.31283564815</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14700,7 +14700,7 @@
         <v>44931.60407407407</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14757,7 +14757,7 @@
         <v>45063.25231481482</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14814,7 +14814,7 @@
         <v>45652.65233796297</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14871,7 +14871,7 @@
         <v>45661.54579861111</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14928,7 +14928,7 @@
         <v>44378</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         <v>45771</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>45674.35633101852</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15099,7 +15099,7 @@
         <v>45318.60454861111</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15156,7 +15156,7 @@
         <v>44879</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15213,7 +15213,7 @@
         <v>45190.32966435186</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>44732.58395833334</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>45385.50491898148</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>44726</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15441,7 +15441,7 @@
         <v>44810.44122685185</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15498,7 +15498,7 @@
         <v>45748.42075231481</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15555,7 +15555,7 @@
         <v>44522</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15612,7 +15612,7 @@
         <v>44421</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         <v>44808.94498842592</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15726,7 +15726,7 @@
         <v>45328.40832175926</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15783,7 +15783,7 @@
         <v>45229</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15840,7 +15840,7 @@
         <v>45777.44401620371</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15897,7 +15897,7 @@
         <v>45784.78254629629</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -15954,7 +15954,7 @@
         <v>44235</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16011,7 +16011,7 @@
         <v>45513</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16073,7 +16073,7 @@
         <v>45713.369375</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16130,7 +16130,7 @@
         <v>45543</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16187,7 +16187,7 @@
         <v>45728.36346064815</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>

--- a/Översikt TROLLHÄTTAN.xlsx
+++ b/Översikt TROLLHÄTTAN.xlsx
@@ -575,7 +575,7 @@
         <v>44529</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44963</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>44274</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>44685</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>44876.47261574074</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
         <v>44322.32700231481</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>44368</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44273.69288194444</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>44300.2812962963</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>44308</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>44309</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>44594.50368055556</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>44319</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>44280</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>44312.60563657407</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         <v>44286.76164351852</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>44473</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         <v>44572</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>44701.27262731481</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>44887.67539351852</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         <v>44601.65090277778</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>44789.37310185185</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
         <v>44677</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>44379</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>44330</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>44342.65056712963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2189,7 +2189,7 @@
         <v>44363.67822916667</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>44461</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2303,7 +2303,7 @@
         <v>44608.39469907407</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         <v>44622</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>44298.72625</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>44811.58396990741</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>44342.64869212963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>44686.73731481482</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>44757</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>44693</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>44466.83081018519</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         <v>44314</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>44524.54479166667</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>44298.63880787037</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         <v>44522.59743055556</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>44348</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>44565.56469907407</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>44572.68925925926</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>44798</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>45456.63065972222</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         <v>45456.34149305556</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>45378.46585648148</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>45378.46766203704</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>45699.3550462963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>45139</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>44923</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         <v>45705.58423611111</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>45679</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         <v>45684.36366898148</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>44818.63516203704</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>44515</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>45763.4975</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>45141</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>45287</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>45099</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4199,7 +4199,7 @@
         <v>45021</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>45016</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         <v>45456.63239583333</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         <v>45483</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>45029.58181712963</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>45371.41443287037</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>45404.32452546297</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>45525.53689814815</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>45237.35086805555</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>44879.43978009259</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>45582.64207175926</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>45798.45791666667</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>45541.44416666667</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>44743</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>45156.50247685185</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>44607</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>45246.71253472222</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         <v>45640.716875</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>45646</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>45748.39800925926</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>45594</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>45798.46134259259</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>45194.49783564815</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>44635.69287037037</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>45812</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>45329.47921296296</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>45784.65008101852</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>45589</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>44901.56349537037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>45002</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>44342.64425925926</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>45896.85864583333</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>44529.42045138889</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>44895.82489583334</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>45369.59260416667</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44312</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>45825.35525462963</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>45266</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>45203.29027777778</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         <v>45919.58493055555</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6484,7 +6484,7 @@
         <v>45829.4681712963</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6541,7 +6541,7 @@
         <v>45310.33078703703</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>45075</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>45833</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>45685.68771990741</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>44468</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>45834.40880787037</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>45352</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>45610.39559027777</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>44438</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>45582.63581018519</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>45937.32173611111</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>45937.3239699074</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>45931</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>45937.31791666667</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>45937.32559027777</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>45294.42097222222</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>45659</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7515,7 +7515,7 @@
         <v>44529</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>45943</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7629,7 +7629,7 @@
         <v>45660.34912037037</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7686,7 +7686,7 @@
         <v>44470</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>44798</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>45944</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>45847</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>44817.44609953704</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>45721</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>44648</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>44923.3334375</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>45867.42372685186</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8209,7 +8209,7 @@
         <v>45867.42621527778</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>45820.62710648148</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>45369.57115740741</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>44909.63206018518</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>45351.46194444445</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>45876.68804398148</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>44648</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>45965.64857638889</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>45965.63171296296</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>45684.6493287037</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>45604.39118055555</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>45310.7224537037</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>44550.53336805556</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>44650</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>45764.37849537037</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>45975.46405092593</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>46020.58894675926</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>45979.65866898148</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>45254</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>45981.68027777778</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>45981.67636574074</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>45981.68199074074</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>45748.42236111111</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>46024.41849537037</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>45406.58298611111</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>45406.58472222222</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>46024.44394675926</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>45266</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>45266</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         <v>45533</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>45988.65092592593</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>46034.36576388889</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10043,7 +10043,7 @@
         <v>45560</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10100,7 +10100,7 @@
         <v>45496.94711805556</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>45580.61104166666</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>44784</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>44879</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>44644.57788194445</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>45770</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>45995.62716435185</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44280</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>45281</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>45266</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>45266</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10737,7 +10737,7 @@
         <v>45029</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10794,7 +10794,7 @@
         <v>45029</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10851,7 +10851,7 @@
         <v>44876.47059027778</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10908,7 +10908,7 @@
         <v>45266</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>44432</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>46041.59181712963</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>46030</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>46001</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>46001</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         <v>45282</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         <v>45763.48828703703</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>44582.3544675926</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         <v>45015.57863425926</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         <v>44965.32954861111</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         <v>44259</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>44259</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>44299.65976851852</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11711,7 +11711,7 @@
         <v>45604.67737268518</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11768,7 +11768,7 @@
         <v>46049.57565972222</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11825,7 +11825,7 @@
         <v>45771.42873842592</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11882,7 +11882,7 @@
         <v>46009.36478009259</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11939,7 +11939,7 @@
         <v>46009.36930555556</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11996,7 +11996,7 @@
         <v>45076</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12058,7 +12058,7 @@
         <v>44384</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         <v>45643.66039351852</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12172,7 +12172,7 @@
         <v>44598.75418981481</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12229,7 +12229,7 @@
         <v>44830</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12291,7 +12291,7 @@
         <v>44973</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12348,7 +12348,7 @@
         <v>44594.51598379629</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12405,7 +12405,7 @@
         <v>44900.37013888889</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12462,7 +12462,7 @@
         <v>44579</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12519,7 +12519,7 @@
         <v>44973.41172453704</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12576,7 +12576,7 @@
         <v>45350</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12633,7 +12633,7 @@
         <v>44845.45263888889</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12690,7 +12690,7 @@
         <v>44677</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12747,7 +12747,7 @@
         <v>44889.66744212963</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12804,7 +12804,7 @@
         <v>44825</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12861,7 +12861,7 @@
         <v>45378.67270833333</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>45156.51420138889</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12975,7 +12975,7 @@
         <v>44946</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13032,7 +13032,7 @@
         <v>44973.31143518518</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13089,7 +13089,7 @@
         <v>44623.64945601852</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13146,7 +13146,7 @@
         <v>45582.3631712963</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13203,7 +13203,7 @@
         <v>44308</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13260,7 +13260,7 @@
         <v>45513.47659722222</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>44385</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>44789.37229166667</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>45386</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44620.44008101852</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>45163</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>45387.43239583333</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>45597.35331018519</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>45569.44895833333</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13783,7 +13783,7 @@
         <v>45645.47785879629</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>45646</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13897,7 +13897,7 @@
         <v>45321.62364583334</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13954,7 +13954,7 @@
         <v>45565.46021990741</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14011,7 +14011,7 @@
         <v>45497.36230324074</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14068,7 +14068,7 @@
         <v>45406.57743055555</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14125,7 +14125,7 @@
         <v>45271.48655092593</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14182,7 +14182,7 @@
         <v>44909</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14239,7 +14239,7 @@
         <v>44854.67653935185</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14296,7 +14296,7 @@
         <v>45369.57269675926</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14353,7 +14353,7 @@
         <v>44923.44671296296</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         <v>45372.58478009259</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         <v>45513.49285879629</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
         <v>44887</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14586,7 +14586,7 @@
         <v>45047</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14643,7 +14643,7 @@
         <v>45539.31283564815</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14700,7 +14700,7 @@
         <v>44931.60407407407</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14757,7 +14757,7 @@
         <v>45063.25231481482</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14814,7 +14814,7 @@
         <v>45652.65233796297</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14871,7 +14871,7 @@
         <v>45661.54579861111</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14928,7 +14928,7 @@
         <v>44378</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         <v>45771</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>45674.35633101852</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15099,7 +15099,7 @@
         <v>45318.60454861111</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15156,7 +15156,7 @@
         <v>44879</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15213,7 +15213,7 @@
         <v>45190.32966435186</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>44732.58395833334</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>45385.50491898148</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>44726</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15441,7 +15441,7 @@
         <v>44810.44122685185</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15498,7 +15498,7 @@
         <v>45748.42075231481</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15555,7 +15555,7 @@
         <v>44522</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15612,7 +15612,7 @@
         <v>44421</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         <v>44808.94498842592</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15726,7 +15726,7 @@
         <v>45328.40832175926</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15783,7 +15783,7 @@
         <v>45229</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15840,7 +15840,7 @@
         <v>45777.44401620371</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15897,7 +15897,7 @@
         <v>45784.78254629629</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -15954,7 +15954,7 @@
         <v>44235</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16011,7 +16011,7 @@
         <v>45513</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16073,7 +16073,7 @@
         <v>45713.369375</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16130,7 +16130,7 @@
         <v>45543</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16187,7 +16187,7 @@
         <v>45728.36346064815</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>

--- a/Översikt TROLLHÄTTAN.xlsx
+++ b/Översikt TROLLHÄTTAN.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z272"/>
+  <dimension ref="A1:Z273"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44529</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44963</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>44274</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>44685</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>44876.47261574074</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
         <v>44322.32700231481</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>44368</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44273.69288194444</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>44300.2812962963</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>44308</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>44309</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>44594.50368055556</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>44319</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>44280</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>44312.60563657407</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         <v>44286.76164351852</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>44473</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         <v>44572</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>44701.27262731481</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>44887.67539351852</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         <v>44601.65090277778</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>44789.37310185185</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
         <v>44677</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>44379</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>44330</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>44342.65056712963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2189,7 +2189,7 @@
         <v>44363.67822916667</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>44461</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2303,7 +2303,7 @@
         <v>44608.39469907407</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         <v>44622</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>44298.72625</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2467,14 +2467,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 38000-2022</t>
+          <t>A 25422-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44811.58396990741</v>
+        <v>44342.64869212963</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2524,14 +2524,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 25422-2021</t>
+          <t>A 38000-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44342.64869212963</v>
+        <v>44811.58396990741</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>44686.73731481482</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>44757</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>44693</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>44466.83081018519</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         <v>44314</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>44524.54479166667</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>44298.63880787037</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         <v>44522.59743055556</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>44348</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>44565.56469907407</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>44572.68925925926</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>44798</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3270,14 +3270,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 24127-2024</t>
+          <t>A 35961-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45456.63065972222</v>
+        <v>44385</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3290,7 +3290,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3327,14 +3327,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 23984-2024</t>
+          <t>A 13399-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45456.34149305556</v>
+        <v>45387.43239583333</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.3</v>
+        <v>4.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3384,14 +3384,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 12264-2024</t>
+          <t>A 10879-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45378.46585648148</v>
+        <v>44259</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3441,14 +3441,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 12266-2024</t>
+          <t>A 10890-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45378.46766203704</v>
+        <v>44259</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.5</v>
+        <v>3.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3498,14 +3498,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 6354-2025</t>
+          <t>A 33546-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45699.3550462963</v>
+        <v>44789.37229166667</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>19.3</v>
+        <v>0.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3555,14 +3555,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 34356-2023</t>
+          <t>A 11123-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45139</v>
+        <v>45371.41443287037</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>6.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3612,14 +3612,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 62294-2022</t>
+          <t>A 53429-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44923</v>
+        <v>44879</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.6</v>
+        <v>4.2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3669,14 +3669,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 7558-2025</t>
+          <t>A 10768-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45705.58423611111</v>
+        <v>45369.57269675926</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3726,14 +3726,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 3272-2025</t>
+          <t>A 10777-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45679</v>
+        <v>45369.59260416667</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3783,14 +3783,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 3886-2025</t>
+          <t>A 37658-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45684.36366898148</v>
+        <v>44810.44122685185</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3802,13 +3802,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3845,14 +3840,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 39611-2022</t>
+          <t>A 30773-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44818.63516203704</v>
+        <v>45496.94711805556</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3864,13 +3859,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3907,14 +3897,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 65254-2021</t>
+          <t>A 62378-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44515</v>
+        <v>45266</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3926,8 +3916,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>6.4</v>
+        <v>2.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3964,14 +3959,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 18612-2025</t>
+          <t>A 62382-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45763.4975</v>
+        <v>45266</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3983,8 +3978,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4021,14 +4021,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 34909-2023</t>
+          <t>A 34356-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45141</v>
+        <v>45139</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>6.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4078,14 +4078,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 65116-2023</t>
+          <t>A 60103-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45287</v>
+        <v>44909.63206018518</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4098,7 +4098,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.1</v>
+        <v>1.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4135,14 +4135,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 28224-2023</t>
+          <t>A 3044-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45099</v>
+        <v>44582.3544675926</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4155,7 +4155,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>4.8</v>
+        <v>1.3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4192,14 +4192,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 15704-2023</t>
+          <t>A 64784-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45021</v>
+        <v>45282</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4212,7 +4212,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4249,14 +4249,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 15181-2023</t>
+          <t>A 36982-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45016</v>
+        <v>45539.31283564815</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4269,7 +4269,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>4.9</v>
+        <v>3.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4306,14 +4306,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 24129-2024</t>
+          <t>A 40864-2021</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45456.63239583333</v>
+        <v>44421</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4363,14 +4363,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 29300-2024</t>
+          <t>A 56116-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45483</v>
+        <v>44889.66744212963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4383,7 +4383,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4420,14 +4420,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 16487-2023</t>
+          <t>A 37369-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45029.58181712963</v>
+        <v>45156.50247685185</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4440,7 +4440,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4477,14 +4477,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 11123-2024</t>
+          <t>A 66960-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45371.41443287037</v>
+        <v>44522</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4497,7 +4497,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>8.199999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4534,14 +4534,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 15645-2024</t>
+          <t>A 3074-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45404.32452546297</v>
+        <v>44946</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4554,7 +4554,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.2</v>
+        <v>6.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4591,14 +4591,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 34435-2024</t>
+          <t>A 11991-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45525.53689814815</v>
+        <v>44635.69287037037</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4611,7 +4611,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4648,14 +4648,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 55033-2023</t>
+          <t>A 13119-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45237.35086805555</v>
+        <v>45002</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4668,7 +4668,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4705,14 +4705,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 53401-2022</t>
+          <t>A 17126-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44879.43978009259</v>
+        <v>44677</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4762,14 +4762,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 46533-2024</t>
+          <t>A 35372-2021</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45582.64207175926</v>
+        <v>44384</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4782,7 +4782,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4819,14 +4819,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 24559-2025</t>
+          <t>A 32527-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45798.45791666667</v>
+        <v>45513.47659722222</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4838,8 +4838,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>6.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4876,14 +4881,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 37562-2024</t>
+          <t>A 19048-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45541.44416666667</v>
+        <v>45047</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4896,7 +4901,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>4.2</v>
+        <v>12.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4933,14 +4938,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 27652-2022</t>
+          <t>A 29555-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44743</v>
+        <v>45825.35525462963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4953,7 +4958,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>9.1</v>
+        <v>4.3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4990,14 +4995,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 37369-2023</t>
+          <t>A 57733-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45156.50247685185</v>
+        <v>45246.71253472222</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5010,7 +5015,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5047,14 +5052,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 7628-2022</t>
+          <t>A 46533-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44607</v>
+        <v>45582.64207175926</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5067,7 +5072,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5104,14 +5109,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 57733-2023</t>
+          <t>A 53131-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45246.71253472222</v>
+        <v>44876.47059027778</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5124,7 +5129,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5161,14 +5166,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 59879-2024</t>
+          <t>A 51381-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45640.716875</v>
+        <v>45604.39118055555</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5181,7 +5186,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.8</v>
+        <v>3.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5218,14 +5223,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 61805-2024</t>
+          <t>A 18821-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45646</v>
+        <v>45764.37849537037</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5238,7 +5243,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.8</v>
+        <v>6.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5275,14 +5280,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 15648-2025</t>
+          <t>A 7783-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45748.39800925926</v>
+        <v>44973</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5295,7 +5300,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5332,14 +5337,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 49062-2024</t>
+          <t>A 11460-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45594</v>
+        <v>45372.58478009259</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5352,7 +5357,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.6</v>
+        <v>5.3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5389,14 +5394,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 24564-2025</t>
+          <t>A 30486-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45798.46134259259</v>
+        <v>45829.4681712963</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5409,7 +5414,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5446,14 +5451,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 45519-2023</t>
+          <t>A 62299-2022</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45194.49783564815</v>
+        <v>44923.44671296296</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5466,7 +5471,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5503,14 +5508,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 11991-2022</t>
+          <t>A 49781-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44635.69287037037</v>
+        <v>45597.35331018519</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5523,7 +5528,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.6</v>
+        <v>5.7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5560,14 +5565,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 27201-2025</t>
+          <t>A 31464-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45812</v>
+        <v>45833</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5580,7 +5585,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5617,14 +5622,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 4906-2024</t>
+          <t>A 34909-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45329.47921296296</v>
+        <v>45141</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5637,7 +5642,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5674,14 +5679,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 21979-2025</t>
+          <t>A 15648-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45784.65008101852</v>
+        <v>45748.39800925926</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5694,7 +5699,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5731,14 +5736,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 47902-2024</t>
+          <t>A 62377-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45589</v>
+        <v>45266</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5750,8 +5755,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5788,14 +5798,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 58330-2022</t>
+          <t>A 62380-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44901.56349537037</v>
+        <v>45266</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5807,8 +5817,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5845,14 +5860,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 13119-2023</t>
+          <t>A 55033-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45002</v>
+        <v>45237.35086805555</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5865,7 +5880,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5902,14 +5917,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 25413-2021</t>
+          <t>A 6354-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44342.64425925926</v>
+        <v>45699.3550462963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5922,7 +5937,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>19.3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5959,14 +5974,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 40682-2025</t>
+          <t>A 31698-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45896.85864583333</v>
+        <v>45834.40880787037</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6016,14 +6031,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 68454-2021</t>
+          <t>A 24564-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44529.42045138889</v>
+        <v>45798.46134259259</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6036,7 +6051,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6073,14 +6088,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 57259-2022</t>
+          <t>A 21979-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44895.82489583334</v>
+        <v>45784.65008101852</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6093,7 +6108,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6130,14 +6145,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 10777-2024</t>
+          <t>A 21363-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45369.59260416667</v>
+        <v>45063.25231481482</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6150,7 +6165,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.9</v>
+        <v>4.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6187,14 +6202,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 19820-2021</t>
+          <t>A 40896-2022</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44312</v>
+        <v>44825</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6207,7 +6222,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.9</v>
+        <v>11.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6244,14 +6259,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 29555-2025</t>
+          <t>A 15658-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45825.35525462963</v>
+        <v>45748.42075231481</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6264,7 +6279,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>4.3</v>
+        <v>0.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6301,14 +6316,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 62381-2023</t>
+          <t>A 15000-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45266</v>
+        <v>45015.57863425926</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6320,13 +6335,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G100" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6363,14 +6373,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 47507-2023</t>
+          <t>A 65254-2021</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45203.29027777778</v>
+        <v>44515</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6383,7 +6393,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.8</v>
+        <v>6.4</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6420,14 +6430,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 45228-2025</t>
+          <t>A 46364-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45919.58493055555</v>
+        <v>45582.3631712963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6440,7 +6450,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>10.7</v>
+        <v>1.4</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6477,14 +6487,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 30486-2025</t>
+          <t>A 6251-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45829.4681712963</v>
+        <v>44965.32954861111</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6497,7 +6507,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.2</v>
+        <v>15.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6534,14 +6544,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 2263-2024</t>
+          <t>A 40682-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45310.33078703703</v>
+        <v>45896.85864583333</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6553,13 +6563,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6596,14 +6601,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 23175-2023</t>
+          <t>A 34671-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45075</v>
+        <v>45847</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6615,8 +6620,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G105" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6653,14 +6663,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 31464-2025</t>
+          <t>A 24127-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45833</v>
+        <v>45456.63065972222</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6673,7 +6683,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6710,14 +6720,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 4307-2025</t>
+          <t>A 23451-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45685.68771990741</v>
+        <v>45076</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6729,8 +6739,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G107" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6767,14 +6782,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 53227-2021</t>
+          <t>A 3886-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44468</v>
+        <v>45684.36366898148</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6786,8 +6801,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6824,14 +6844,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 31698-2025</t>
+          <t>A 13510-2022</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45834.40880787037</v>
+        <v>44648</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6844,7 +6864,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>17.6</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6881,14 +6901,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 8273-2024</t>
+          <t>A 10640-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45352</v>
+        <v>45721</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6901,7 +6921,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -6938,14 +6958,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 52688-2024</t>
+          <t>A 62381-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45610.39559027777</v>
+        <v>45266</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6957,8 +6977,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G111" t="n">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -6995,14 +7020,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 44910-2021</t>
+          <t>A 36191-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44438</v>
+        <v>45867.42372685186</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7015,7 +7040,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7052,14 +7077,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 46529-2024</t>
+          <t>A 36192-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45582.63581018519</v>
+        <v>45867.42621527778</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7072,7 +7097,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>11.7</v>
+        <v>0.4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7109,14 +7134,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 48788-2025</t>
+          <t>A 28884-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45937.32173611111</v>
+        <v>45820.62710648148</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7129,7 +7154,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7166,14 +7191,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 48790-2025</t>
+          <t>A 41554-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45937.3239699074</v>
+        <v>45560</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7223,14 +7248,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 47708-2025</t>
+          <t>A 61046-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45931</v>
+        <v>45645.47785879629</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7243,7 +7268,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>4.9</v>
+        <v>2.3</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7280,14 +7305,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 48787-2025</t>
+          <t>A 37340-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45937.31791666667</v>
+        <v>45876.68804398148</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7300,7 +7325,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7337,14 +7362,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 48791-2025</t>
+          <t>A 45228-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45937.32559027777</v>
+        <v>45919.58493055555</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7357,7 +7382,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.7</v>
+        <v>10.7</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7394,14 +7419,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 131-2024</t>
+          <t>A 4307-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45294.42097222222</v>
+        <v>45685.68771990741</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7414,7 +7439,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>7.5</v>
+        <v>1.1</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7451,14 +7476,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 75-2025</t>
+          <t>A 53193-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45659</v>
+        <v>45229</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7471,7 +7496,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>5.4</v>
+        <v>0.7</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7508,14 +7533,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 68400-2021</t>
+          <t>A 39611-2022</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44529</v>
+        <v>44818.63516203704</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7527,8 +7552,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7565,14 +7595,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 50209-2025</t>
+          <t>A 29300-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45943</v>
+        <v>45483</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7585,7 +7615,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7622,14 +7652,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 223-2025</t>
+          <t>A 43374-2021</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45660.34912037037</v>
+        <v>44432</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7642,7 +7672,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7679,14 +7709,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 54087-2021</t>
+          <t>A 7628-2022</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44470</v>
+        <v>44607</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7696,11 +7726,6 @@
       <c r="E124" t="inlineStr">
         <is>
           <t>TROLLHÄTTAN</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
         </is>
       </c>
       <c r="G124" t="n">
@@ -7741,14 +7766,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 35465-2022</t>
+          <t>A 7558-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44798</v>
+        <v>45705.58423611111</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7761,7 +7786,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7798,14 +7823,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 50337-2025</t>
+          <t>A 53426-2022</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45944</v>
+        <v>44879</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7818,7 +7843,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>3</v>
+        <v>13.2</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7855,14 +7880,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 34671-2025</t>
+          <t>A 62266-2022</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45847</v>
+        <v>44923.3334375</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7874,13 +7899,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7924,7 +7944,7 @@
         <v>44817.44609953704</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7974,14 +7994,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 10640-2025</t>
+          <t>A 47708-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45721</v>
+        <v>45931</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7994,7 +8014,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>3.1</v>
+        <v>4.9</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8031,14 +8051,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 13510-2022</t>
+          <t>A 48790-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44648</v>
+        <v>45937.3239699074</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8051,7 +8071,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>17.6</v>
+        <v>1.7</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8088,14 +8108,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 62266-2022</t>
+          <t>A 48791-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44923.3334375</v>
+        <v>45937.32559027777</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8108,7 +8128,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8145,14 +8165,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 36191-2025</t>
+          <t>A 57918-2022</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45867.42372685186</v>
+        <v>44900.37013888889</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8165,7 +8185,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.9</v>
+        <v>3.2</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8202,14 +8222,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 36192-2025</t>
+          <t>A 48787-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45867.42621527778</v>
+        <v>45937.31791666667</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8222,7 +8242,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.4</v>
+        <v>3.6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8259,14 +8279,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 28884-2025</t>
+          <t>A 41893-2022</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45820.62710648148</v>
+        <v>44830</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8278,8 +8298,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G134" t="n">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8316,14 +8341,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 10767-2024</t>
+          <t>A 48788-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45369.57115740741</v>
+        <v>45937.32173611111</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8336,7 +8361,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8373,14 +8398,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 60103-2022</t>
+          <t>A 53227-2021</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44909.63206018518</v>
+        <v>44468</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8393,7 +8418,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8430,14 +8455,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 8099-2024</t>
+          <t>A 50337-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45351.46194444445</v>
+        <v>45944</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8450,7 +8475,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8487,14 +8512,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 37340-2025</t>
+          <t>A 18597-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45876.68804398148</v>
+        <v>45763.48828703703</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8544,14 +8569,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 13515-2022</t>
+          <t>A 18612-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44648</v>
+        <v>45763.4975</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8564,7 +8589,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8601,14 +8626,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 54542-2025</t>
+          <t>A 50209-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45965.64857638889</v>
+        <v>45943</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8621,7 +8646,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8658,14 +8683,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 54526-2025</t>
+          <t>A 7730-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45965.63171296296</v>
+        <v>44973.31143518518</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8678,7 +8703,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>4.5</v>
+        <v>1.3</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8715,14 +8740,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 4077-2025</t>
+          <t>A 17567-2021</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45684.6493287037</v>
+        <v>44299.65976851852</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8735,7 +8760,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.5</v>
+        <v>6.2</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8772,14 +8797,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 51381-2024</t>
+          <t>A 370-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45604.39118055555</v>
+        <v>45661.54579861111</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8792,7 +8817,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>3.7</v>
+        <v>1.3</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8829,14 +8854,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 2402-2024</t>
+          <t>A 44910-2021</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45310.7224537037</v>
+        <v>44438</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8849,7 +8874,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.3</v>
+        <v>1.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8886,14 +8911,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 73158-2021</t>
+          <t>A 68454-2021</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44550.53336805556</v>
+        <v>44529.42045138889</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8906,7 +8931,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8943,14 +8968,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 13883-2022</t>
+          <t>A 7781-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44650</v>
+        <v>44973.41172453704</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8963,7 +8988,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>6.1</v>
+        <v>0.5</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9000,14 +9025,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 18821-2025</t>
+          <t>A 73158-2021</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45764.37849537037</v>
+        <v>44550.53336805556</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9020,7 +9045,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>6.9</v>
+        <v>1.3</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9057,14 +9082,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 56523-2025</t>
+          <t>A 23175-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45975.46405092593</v>
+        <v>45075</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9077,7 +9102,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9114,14 +9139,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 63884-2025</t>
+          <t>A 54526-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>46020.58894675926</v>
+        <v>45965.63171296296</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9134,7 +9159,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.9</v>
+        <v>4.5</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9171,14 +9196,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 57262-2025</t>
+          <t>A 54542-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45979.65866898148</v>
+        <v>45965.64857638889</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9191,7 +9216,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9228,14 +9253,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 59625-2023</t>
+          <t>A 38941-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45254</v>
+        <v>45163</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9248,7 +9273,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9285,14 +9310,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 57890-2025</t>
+          <t>A 16473-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45981.68027777778</v>
+        <v>45029</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9305,7 +9330,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9342,14 +9367,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 57886-2025</t>
+          <t>A 16475-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45981.67636574074</v>
+        <v>45029</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9362,7 +9387,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>8</v>
+        <v>1.1</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9399,14 +9424,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 57891-2025</t>
+          <t>A 34435-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45981.68199074074</v>
+        <v>45525.53689814815</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9419,7 +9444,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9456,14 +9481,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 15659-2025</t>
+          <t>A 42456-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45748.42236111111</v>
+        <v>45565.46021990741</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9476,7 +9501,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9513,14 +9538,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 49-2026</t>
+          <t>A 19781-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>46024.41849537037</v>
+        <v>45771.42873842592</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9533,7 +9558,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2.7</v>
+        <v>6.1</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9570,14 +9595,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 16154-2024</t>
+          <t>A 12967-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45406.58298611111</v>
+        <v>45385.50491898148</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9590,7 +9615,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9627,14 +9652,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 16155-2024</t>
+          <t>A 56523-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45406.58472222222</v>
+        <v>45975.46405092593</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9647,7 +9672,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9684,14 +9709,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 60-2026</t>
+          <t>A 37371-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>46024.44394675926</v>
+        <v>45156.51420138889</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9704,7 +9729,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9741,14 +9766,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 62377-2023</t>
+          <t>A 57262-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45266</v>
+        <v>45979.65866898148</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9760,13 +9785,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G160" t="n">
-        <v>0.8</v>
+        <v>3.9</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9803,14 +9823,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 62380-2023</t>
+          <t>A 35969-2024</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45266</v>
+        <v>45533</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9822,13 +9842,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G161" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -9865,14 +9880,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 35969-2024</t>
+          <t>A 57890-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45533</v>
+        <v>45981.68027777778</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9885,7 +9900,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -9922,14 +9937,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 59252-2025</t>
+          <t>A 49-2026</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45988.65092592593</v>
+        <v>46024.41849537037</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9942,7 +9957,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -9979,14 +9994,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 1525-2026</t>
+          <t>A 60-2026</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>46034.36576388889</v>
+        <v>46024.44394675926</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9999,7 +10014,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10036,14 +10051,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 41554-2024</t>
+          <t>A 57886-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45560</v>
+        <v>45981.67636574074</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10056,7 +10071,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.7</v>
+        <v>8</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10093,14 +10108,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 30773-2024</t>
+          <t>A 57891-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45496.94711805556</v>
+        <v>45981.68199074074</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10113,7 +10128,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10150,14 +10165,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 45983-2024</t>
+          <t>A 7921-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45580.61104166666</v>
+        <v>45350</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10170,7 +10185,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10207,14 +10222,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 32826-2022</t>
+          <t>A 19049-2021</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44784</v>
+        <v>44308</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10227,7 +10242,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10264,14 +10279,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 53426-2022</t>
+          <t>A 59252-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44879</v>
+        <v>45988.65092592593</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10284,7 +10299,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>13.2</v>
+        <v>3.6</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10321,14 +10336,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 13220-2022</t>
+          <t>A 1525-2026</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44644.57788194445</v>
+        <v>46034.36576388889</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10341,7 +10356,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10378,14 +10393,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 19447-2025</t>
+          <t>A 13515-2022</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45770</v>
+        <v>44648</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10398,7 +10413,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>4.9</v>
+        <v>3.3</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10435,14 +10450,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 60505-2025</t>
+          <t>A 2460-2022</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45995.62716435185</v>
+        <v>44579</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10455,7 +10470,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2.5</v>
+        <v>6.1</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10492,14 +10507,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 14820-2021</t>
+          <t>A 75-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44280</v>
+        <v>45659</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10512,7 +10527,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>6.4</v>
+        <v>5.4</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10549,14 +10564,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 64669-2023</t>
+          <t>A 3795-2024</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45281</v>
+        <v>45321.62364583334</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10569,7 +10584,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10606,14 +10621,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 62378-2023</t>
+          <t>A 47507-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45266</v>
+        <v>45203.29027777778</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10625,13 +10640,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G175" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10668,14 +10678,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 62382-2023</t>
+          <t>A 43604-2024</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45266</v>
+        <v>45569.44895833333</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10687,13 +10697,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G176" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10730,14 +10735,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 16473-2023</t>
+          <t>A 60505-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45029</v>
+        <v>45995.62716435185</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10750,7 +10755,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10787,14 +10792,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 16475-2023</t>
+          <t>A 51605-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45029</v>
+        <v>45604.67737268518</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10807,7 +10812,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -10844,14 +10849,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 53131-2022</t>
+          <t>A 61884-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44876.47059027778</v>
+        <v>45652.65233796297</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10864,7 +10869,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -10901,14 +10906,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 62379-2023</t>
+          <t>A 3256-2026</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45266</v>
+        <v>46041.59181712963</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10920,13 +10925,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G180" t="n">
-        <v>0.7</v>
+        <v>8.1</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -10963,14 +10963,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 43374-2021</t>
+          <t>A 8099-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44432</v>
+        <v>45351.46194444445</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10983,7 +10983,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11020,14 +11020,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 3256-2026</t>
+          <t>A 45521-2022</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>46041.59181712963</v>
+        <v>44845.45263888889</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11040,7 +11040,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>8.1</v>
+        <v>4</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11077,14 +11077,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 854-2026</t>
+          <t>A 28224-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>46030</v>
+        <v>45099</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11097,7 +11097,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.8</v>
+        <v>4.8</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11134,14 +11134,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 61535-2025</t>
+          <t>A 854-2026</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>46001</v>
+        <v>46030</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11154,7 +11154,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11191,14 +11191,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 61539-2025</t>
+          <t>A 61535-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
         <v>46001</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11248,14 +11248,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 64784-2023</t>
+          <t>A 61539-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45282</v>
+        <v>46001</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11305,14 +11305,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 18597-2025</t>
+          <t>A 5927-2022</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45763.48828703703</v>
+        <v>44598.75418981481</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.5</v>
+        <v>6.6</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11362,14 +11362,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 3044-2022</t>
+          <t>A 33587-2021</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44582.3544675926</v>
+        <v>44378</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11419,14 +11419,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 15000-2023</t>
+          <t>A 23984-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45015.57863425926</v>
+        <v>45456.34149305556</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11439,7 +11439,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11476,14 +11476,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 6251-2023</t>
+          <t>A 24129-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44965.32954861111</v>
+        <v>45456.63239583333</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>15.4</v>
+        <v>1.7</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11533,14 +11533,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 10879-2021</t>
+          <t>A 5115-2026</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44259</v>
+        <v>46049.57565972222</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11553,7 +11553,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>2.2</v>
+        <v>8.4</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11590,14 +11590,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 10890-2021</t>
+          <t>A 35465-2022</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44259</v>
+        <v>44798</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11610,7 +11610,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>3.4</v>
+        <v>1.1</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11647,14 +11647,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 17567-2021</t>
+          <t>A 65116-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44299.65976851852</v>
+        <v>45287</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11667,7 +11667,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>6.2</v>
+        <v>0.1</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11704,14 +11704,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 51605-2024</t>
+          <t>A 62379-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45604.67737268518</v>
+        <v>45266</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11723,8 +11723,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G194" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11761,14 +11766,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 5115-2026</t>
+          <t>A 59625-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>46049.57565972222</v>
+        <v>45254</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11781,7 +11786,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>8.4</v>
+        <v>3</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11818,14 +11823,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 19781-2025</t>
+          <t>A 62915-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45771.42873842592</v>
+        <v>46009.36930555556</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11838,7 +11843,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>6.1</v>
+        <v>1.9</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -11882,7 +11887,7 @@
         <v>46009.36478009259</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11932,14 +11937,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 62915-2025</t>
+          <t>A 19447-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>46009.36930555556</v>
+        <v>45770</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11952,7 +11957,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1.9</v>
+        <v>4.9</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -11989,14 +11994,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 23451-2023</t>
+          <t>A 131-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45076</v>
+        <v>45294.42097222222</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12008,13 +12013,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G199" t="n">
-        <v>0.6</v>
+        <v>7.5</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12051,14 +12051,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 35372-2021</t>
+          <t>A 54087-2021</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44384</v>
+        <v>44470</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12070,8 +12070,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G200" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12108,14 +12113,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 60498-2024</t>
+          <t>A 62683-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45643.66039351852</v>
+        <v>45271.48655092593</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12128,7 +12133,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.1</v>
+        <v>5.3</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12165,14 +12170,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 5927-2022</t>
+          <t>A 27652-2022</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44598.75418981481</v>
+        <v>44743</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12185,7 +12190,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>6.6</v>
+        <v>9.1</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12222,14 +12227,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 41893-2022</t>
+          <t>A 45983-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44830</v>
+        <v>45580.61104166666</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12241,13 +12246,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G203" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12284,14 +12284,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 7783-2023</t>
+          <t>A 5242-2022</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44973</v>
+        <v>44594.51598379629</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12304,7 +12304,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12341,14 +12341,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 5242-2022</t>
+          <t>A 46529-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44594.51598379629</v>
+        <v>45582.63581018519</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12361,7 +12361,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>8.800000000000001</v>
+        <v>11.7</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12398,14 +12398,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 57918-2022</t>
+          <t>A 7655-2026</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44900.37013888889</v>
+        <v>46062.38829861111</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12418,7 +12418,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12455,14 +12455,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 2460-2022</t>
+          <t>A 16154-2024</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44579</v>
+        <v>45406.58298611111</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>6.1</v>
+        <v>0.8</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12512,14 +12512,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 7781-2023</t>
+          <t>A 16155-2024</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44973.41172453704</v>
+        <v>45406.58472222222</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12532,7 +12532,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12569,14 +12569,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 7921-2024</t>
+          <t>A 57259-2022</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45350</v>
+        <v>44895.82489583334</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12589,7 +12589,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12626,14 +12626,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 45521-2022</t>
+          <t>A 223-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44845.45263888889</v>
+        <v>45660.34912037037</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12683,14 +12683,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 17126-2022</t>
+          <t>A 59879-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44677</v>
+        <v>45640.716875</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12740,14 +12740,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 56116-2022</t>
+          <t>A 7659-2026</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44889.66744212963</v>
+        <v>46062.39302083333</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12797,14 +12797,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 40896-2022</t>
+          <t>A 63884-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44825</v>
+        <v>46020.58894675926</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>11.3</v>
+        <v>1.9</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -12854,14 +12854,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 12329-2024</t>
+          <t>A 32826-2022</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45378.67270833333</v>
+        <v>44784</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -12911,14 +12911,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 37371-2023</t>
+          <t>A 58330-2022</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45156.51420138889</v>
+        <v>44901.56349537037</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12968,14 +12968,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 3074-2023</t>
+          <t>A 15704-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44946</v>
+        <v>45021</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>6.1</v>
+        <v>5</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13025,14 +13025,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 7730-2023</t>
+          <t>A 30796-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>44973.31143518518</v>
+        <v>45497.36230324074</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.3</v>
+        <v>3.7</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13082,14 +13082,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 10494-2022</t>
+          <t>A 16152-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44623.64945601852</v>
+        <v>45406.57743055555</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>13.3</v>
+        <v>0.8</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13139,14 +13139,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 46364-2024</t>
+          <t>A 4906-2024</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45582.3631712963</v>
+        <v>45329.47921296296</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13196,14 +13196,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 19049-2021</t>
+          <t>A 13883-2022</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>44308</v>
+        <v>44650</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.4</v>
+        <v>6.1</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13253,14 +13253,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 32527-2024</t>
+          <t>A 53401-2022</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45513.47659722222</v>
+        <v>44879.43978009259</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13272,13 +13272,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G221" t="n">
-        <v>8.699999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13315,14 +13310,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 35961-2021</t>
+          <t>A 15181-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44385</v>
+        <v>45016</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13335,7 +13330,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>3</v>
+        <v>4.9</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13372,14 +13367,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 33546-2022</t>
+          <t>A 19820-2021</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44789.37229166667</v>
+        <v>44312</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13392,7 +13387,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13429,14 +13424,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 13131-2024</t>
+          <t>A 61443-2022</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45386</v>
+        <v>44909</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13448,13 +13443,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G224" t="n">
-        <v>5.9</v>
+        <v>3.2</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13491,14 +13481,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 9821-2022</t>
+          <t>A 855-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44620.44008101852</v>
+        <v>44931.60407407407</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13511,7 +13501,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13548,14 +13538,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 38941-2023</t>
+          <t>A 47755-2022</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45163</v>
+        <v>44854.67653935185</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13568,7 +13558,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13605,14 +13595,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 13399-2024</t>
+          <t>A 9821-2022</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45387.43239583333</v>
+        <v>44620.44008101852</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13625,7 +13615,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>4.9</v>
+        <v>2.5</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13662,14 +13652,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 49781-2024</t>
+          <t>A 14820-2021</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45597.35331018519</v>
+        <v>44280</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13682,7 +13672,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13719,14 +13709,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 43604-2024</t>
+          <t>A 13220-2022</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45569.44895833333</v>
+        <v>44644.57788194445</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13739,7 +13729,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13776,14 +13766,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 61046-2024</t>
+          <t>A 68400-2021</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45645.47785879629</v>
+        <v>44529</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13796,7 +13786,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -13833,14 +13823,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 61799-2024</t>
+          <t>A 25514-2022</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45646</v>
+        <v>44732.58395833334</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13853,7 +13843,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -13890,14 +13880,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 3795-2024</t>
+          <t>A 10494-2022</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45321.62364583334</v>
+        <v>44623.64945601852</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13910,7 +13900,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.4</v>
+        <v>13.3</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -13947,14 +13937,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 42456-2024</t>
+          <t>A 52688-2024</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45565.46021990741</v>
+        <v>45610.39559027777</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13967,7 +13957,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14004,14 +13994,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 30796-2024</t>
+          <t>A 47902-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45497.36230324074</v>
+        <v>45589</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14024,7 +14014,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>3.7</v>
+        <v>1.8</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14061,14 +14051,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 16152-2024</t>
+          <t>A 32541-2024</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45406.57743055555</v>
+        <v>45513.49285879629</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14080,8 +14070,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G235" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14118,14 +14113,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 62683-2023</t>
+          <t>A 2263-2024</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45271.48655092593</v>
+        <v>45310.33078703703</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14137,8 +14132,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G236" t="n">
-        <v>5.3</v>
+        <v>0.6</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14175,14 +14175,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 61443-2022</t>
+          <t>A 37305-2022</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>44909</v>
+        <v>44808.94498842592</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14195,7 +14195,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>3.2</v>
+        <v>9.9</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14232,14 +14232,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 47755-2022</t>
+          <t>A 60498-2024</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>44854.67653935185</v>
+        <v>45643.66039351852</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14252,7 +14252,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14289,14 +14289,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 10768-2024</t>
+          <t>A 3272-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45369.57269675926</v>
+        <v>45679</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14309,7 +14309,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14346,14 +14346,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 62299-2022</t>
+          <t>A 37562-2024</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>44923.44671296296</v>
+        <v>45541.44416666667</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14366,7 +14366,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>0.5</v>
+        <v>4.2</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14403,14 +14403,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 11460-2024</t>
+          <t>A 15659-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45372.58478009259</v>
+        <v>45748.42236111111</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14423,7 +14423,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>5.3</v>
+        <v>0.3</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14460,14 +14460,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 32541-2024</t>
+          <t>A 13131-2024</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45513.49285879629</v>
+        <v>45386</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14481,11 +14481,11 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G242" t="n">
-        <v>0.5</v>
+        <v>5.9</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14522,14 +14522,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 55303-2022</t>
+          <t>A 2404-2025</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>44887</v>
+        <v>45674.35633101852</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14542,7 +14542,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>1.5</v>
+        <v>9.9</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14579,14 +14579,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 19048-2023</t>
+          <t>A 19773-2025</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45047</v>
+        <v>45771</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>12.5</v>
+        <v>1.3</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14636,14 +14636,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 36982-2024</t>
+          <t>A 61799-2024</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45539.31283564815</v>
+        <v>45646</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>3.4</v>
+        <v>0.9</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14693,14 +14693,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 855-2023</t>
+          <t>A 8273-2024</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>44931.60407407407</v>
+        <v>45352</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -14750,14 +14750,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 21363-2023</t>
+          <t>A 2402-2024</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45063.25231481482</v>
+        <v>45310.7224537037</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14770,7 +14770,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>4.2</v>
+        <v>0.3</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -14807,14 +14807,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 61884-2024</t>
+          <t>A 3399-2024</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45652.65233796297</v>
+        <v>45318.60454861111</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -14864,14 +14864,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 370-2025</t>
+          <t>A 10767-2024</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45661.54579861111</v>
+        <v>45369.57115740741</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14884,7 +14884,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -14921,14 +14921,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 33587-2021</t>
+          <t>A 24432-2022</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>44378</v>
+        <v>44726</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14941,7 +14941,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -14978,14 +14978,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 19773-2025</t>
+          <t>A 16487-2023</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45771</v>
+        <v>45029.58181712963</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15035,14 +15035,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 2404-2025</t>
+          <t>A 64669-2023</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45674.35633101852</v>
+        <v>45281</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>9.9</v>
+        <v>1.1</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15092,14 +15092,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 3399-2024</t>
+          <t>A 55303-2022</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45318.60454861111</v>
+        <v>44887</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15149,14 +15149,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 53429-2022</t>
+          <t>A 25413-2021</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>44879</v>
+        <v>44342.64425925926</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15206,14 +15206,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 44708-2023</t>
+          <t>A 12329-2024</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45190.32966435186</v>
+        <v>45378.67270833333</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>3.6</v>
+        <v>0.8</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15263,14 +15263,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 25514-2022</t>
+          <t>A 4077-2025</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>44732.58395833334</v>
+        <v>45684.6493287037</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15320,14 +15320,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 12967-2024</t>
+          <t>A 62294-2022</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45385.50491898148</v>
+        <v>44923</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15377,14 +15377,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 24432-2022</t>
+          <t>A 4632-2024</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>44726</v>
+        <v>45328.40832175926</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15434,14 +15434,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 37658-2022</t>
+          <t>A 61805-2024</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>44810.44122685185</v>
+        <v>45646</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15491,14 +15491,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 15658-2025</t>
+          <t>A 12264-2024</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45748.42075231481</v>
+        <v>45378.46585648148</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15548,14 +15548,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 66960-2021</t>
+          <t>A 12266-2024</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>44522</v>
+        <v>45378.46766203704</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15605,14 +15605,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 40864-2021</t>
+          <t>A 44708-2023</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>44421</v>
+        <v>45190.32966435186</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -15662,14 +15662,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 37305-2022</t>
+          <t>A 20955-2025</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>44808.94498842592</v>
+        <v>45777.44401620371</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>9.9</v>
+        <v>1.2</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -15719,14 +15719,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 4632-2024</t>
+          <t>A 22016-2025</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45328.40832175926</v>
+        <v>45784.78254629629</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -15776,14 +15776,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 53193-2023</t>
+          <t>A 32537-2024</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45229</v>
+        <v>45513</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15795,8 +15795,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G265" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -15833,14 +15838,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 20955-2025</t>
+          <t>A 8869-2025</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45777.44401620371</v>
+        <v>45713.369375</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15853,7 +15858,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -15890,14 +15895,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 22016-2025</t>
+          <t>A 37801-2024</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45784.78254629629</v>
+        <v>45543</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -15910,7 +15915,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -15947,14 +15952,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 6402-2021</t>
+          <t>A 24559-2025</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>44235</v>
+        <v>45798.45791666667</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -15967,7 +15972,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>1.7</v>
+        <v>6.5</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16004,14 +16009,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 32537-2024</t>
+          <t>A 11837-2025</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45513</v>
+        <v>45728.36346064815</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16023,13 +16028,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F269" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G269" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16066,14 +16066,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 8869-2025</t>
+          <t>A 15645-2024</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45713.369375</v>
+        <v>45404.32452546297</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16086,7 +16086,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16123,14 +16123,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 37801-2024</t>
+          <t>A 45519-2023</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45543</v>
+        <v>45194.49783564815</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16143,7 +16143,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16177,17 +16177,17 @@
       </c>
       <c r="R271" s="2" t="inlineStr"/>
     </row>
-    <row r="272">
+    <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 11837-2025</t>
+          <t>A 49062-2024</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45728.36346064815</v>
+        <v>45594</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16200,7 +16200,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16233,6 +16233,63 @@
         <v>0</v>
       </c>
       <c r="R272" s="2" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>A 27201-2025</t>
+        </is>
+      </c>
+      <c r="B273" s="1" t="n">
+        <v>45812</v>
+      </c>
+      <c r="C273" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>TROLLHÄTTAN</t>
+        </is>
+      </c>
+      <c r="G273" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="n">
+        <v>0</v>
+      </c>
+      <c r="J273" t="n">
+        <v>0</v>
+      </c>
+      <c r="K273" t="n">
+        <v>0</v>
+      </c>
+      <c r="L273" t="n">
+        <v>0</v>
+      </c>
+      <c r="M273" t="n">
+        <v>0</v>
+      </c>
+      <c r="N273" t="n">
+        <v>0</v>
+      </c>
+      <c r="O273" t="n">
+        <v>0</v>
+      </c>
+      <c r="P273" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q273" t="n">
+        <v>0</v>
+      </c>
+      <c r="R273" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt TROLLHÄTTAN.xlsx
+++ b/Översikt TROLLHÄTTAN.xlsx
@@ -575,7 +575,7 @@
         <v>44529</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44963</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>44274</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>44685</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>44876.47261574074</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
         <v>44322.32700231481</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>44368</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44273.69288194444</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>44300.2812962963</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>44308</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>44309</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>44594.50368055556</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>44319</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>44280</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>44312.60563657407</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         <v>44286.76164351852</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>44473</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         <v>44572</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>44701.27262731481</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>44887.67539351852</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         <v>44601.65090277778</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>44789.37310185185</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
         <v>44677</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2011,14 +2011,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 34365-2021</t>
+          <t>A 23083-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44379</v>
+        <v>44330</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>5.6</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2068,14 +2068,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 23083-2021</t>
+          <t>A 34365-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44330</v>
+        <v>44379</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>5.6</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>44342.65056712963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2189,7 +2189,7 @@
         <v>44363.67822916667</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>44461</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2303,7 +2303,7 @@
         <v>44608.39469907407</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         <v>44622</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>44298.72625</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>44342.64869212963</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>44811.58396990741</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>44686.73731481482</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>44757</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>44693</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>44466.83081018519</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         <v>44314</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>44524.54479166667</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>44298.63880787037</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         <v>44522.59743055556</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>44348</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>44565.56469907407</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>44572.68925925926</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>44798</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3270,14 +3270,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 35961-2021</t>
+          <t>A 24127-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44385</v>
+        <v>45456.63065972222</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3290,7 +3290,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3327,14 +3327,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 13399-2024</t>
+          <t>A 23984-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45387.43239583333</v>
+        <v>45456.34149305556</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>4.9</v>
+        <v>1.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3384,14 +3384,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 10879-2021</t>
+          <t>A 7558-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44259</v>
+        <v>45705.58423611111</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3441,14 +3441,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 10890-2021</t>
+          <t>A 62294-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44259</v>
+        <v>44923</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3.4</v>
+        <v>0.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3498,14 +3498,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 33546-2022</t>
+          <t>A 12264-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44789.37229166667</v>
+        <v>45378.46585648148</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3555,14 +3555,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 11123-2024</t>
+          <t>A 12266-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45371.41443287037</v>
+        <v>45378.46766203704</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>8.199999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3612,14 +3612,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 53429-2022</t>
+          <t>A 19773-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44879</v>
+        <v>45771</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>4.2</v>
+        <v>1.3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3669,14 +3669,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 10768-2024</t>
+          <t>A 6354-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45369.57269675926</v>
+        <v>45699.3550462963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.7</v>
+        <v>19.3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3726,14 +3726,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 10777-2024</t>
+          <t>A 34356-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45369.59260416667</v>
+        <v>45139</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.9</v>
+        <v>6.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3783,14 +3783,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 37658-2022</t>
+          <t>A 2404-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44810.44122685185</v>
+        <v>45674.35633101852</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.3</v>
+        <v>9.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3840,14 +3840,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 30773-2024</t>
+          <t>A 3399-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45496.94711805556</v>
+        <v>45318.60454861111</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3897,14 +3897,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 62378-2023</t>
+          <t>A 40682-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45266</v>
+        <v>45896.85864583333</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3916,13 +3916,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3959,14 +3954,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 62382-2023</t>
+          <t>A 3886-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45266</v>
+        <v>45684.36366898148</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3980,11 +3975,11 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4021,14 +4016,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 34356-2023</t>
+          <t>A 3272-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45139</v>
+        <v>45679</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4041,7 +4036,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>6.7</v>
+        <v>2.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4078,14 +4073,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 60103-2022</t>
+          <t>A 53429-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44909.63206018518</v>
+        <v>44879</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4098,7 +4093,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.1</v>
+        <v>4.2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4135,14 +4130,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 3044-2022</t>
+          <t>A 44708-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44582.3544675926</v>
+        <v>45190.32966435186</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4155,7 +4150,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4192,14 +4187,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 64784-2023</t>
+          <t>A 25514-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45282</v>
+        <v>44732.58395833334</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4212,7 +4207,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4249,14 +4244,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 36982-2024</t>
+          <t>A 15648-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45539.31283564815</v>
+        <v>45748.39800925926</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4269,7 +4264,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4306,14 +4301,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 40864-2021</t>
+          <t>A 12967-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44421</v>
+        <v>45385.50491898148</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4326,7 +4321,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4363,14 +4358,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 56116-2022</t>
+          <t>A 24432-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44889.66744212963</v>
+        <v>44726</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4383,7 +4378,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4420,14 +4415,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 37369-2023</t>
+          <t>A 18612-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45156.50247685185</v>
+        <v>45763.4975</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4440,7 +4435,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4477,14 +4472,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 66960-2021</t>
+          <t>A 65254-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44522</v>
+        <v>44515</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4497,7 +4492,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.2</v>
+        <v>6.4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4534,14 +4529,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 3074-2023</t>
+          <t>A 24564-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44946</v>
+        <v>45798.46134259259</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4554,7 +4549,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>6.1</v>
+        <v>2.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4591,14 +4586,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 11991-2022</t>
+          <t>A 39611-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44635.69287037037</v>
+        <v>44818.63516203704</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4610,8 +4605,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4648,14 +4648,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 13119-2023</t>
+          <t>A 21979-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45002</v>
+        <v>45784.65008101852</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4668,7 +4668,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4705,14 +4705,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 17126-2022</t>
+          <t>A 37658-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44677</v>
+        <v>44810.44122685185</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4762,14 +4762,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 35372-2021</t>
+          <t>A 34909-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44384</v>
+        <v>45141</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4782,7 +4782,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4819,14 +4819,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 32527-2024</t>
+          <t>A 15658-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45513.47659722222</v>
+        <v>45748.42075231481</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4838,13 +4838,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>8.699999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4881,14 +4876,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 19048-2023</t>
+          <t>A 66960-2021</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45047</v>
+        <v>44522</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4901,7 +4896,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>12.5</v>
+        <v>1.2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4938,14 +4933,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 29555-2025</t>
+          <t>A 40864-2021</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45825.35525462963</v>
+        <v>44421</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4958,7 +4953,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>4.3</v>
+        <v>2.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4995,14 +4990,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 57733-2023</t>
+          <t>A 65116-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45246.71253472222</v>
+        <v>45287</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5015,7 +5010,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.8</v>
+        <v>0.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5052,14 +5047,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 46533-2024</t>
+          <t>A 37305-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45582.64207175926</v>
+        <v>44808.94498842592</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5072,7 +5067,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.8</v>
+        <v>9.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5109,14 +5104,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 53131-2022</t>
+          <t>A 4632-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44876.47059027778</v>
+        <v>45328.40832175926</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5129,7 +5124,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5166,14 +5161,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 51381-2024</t>
+          <t>A 28224-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45604.39118055555</v>
+        <v>45099</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5186,7 +5181,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.7</v>
+        <v>4.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5223,14 +5218,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 18821-2025</t>
+          <t>A 15704-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45764.37849537037</v>
+        <v>45021</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5243,7 +5238,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>6.9</v>
+        <v>5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5280,14 +5275,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 7783-2023</t>
+          <t>A 15181-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44973</v>
+        <v>45016</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5300,7 +5295,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.2</v>
+        <v>4.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5337,14 +5332,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 11460-2024</t>
+          <t>A 53193-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45372.58478009259</v>
+        <v>45229</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5357,7 +5352,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>5.3</v>
+        <v>0.7</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5394,14 +5389,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 30486-2025</t>
+          <t>A 24129-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45829.4681712963</v>
+        <v>45456.63239583333</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5414,7 +5409,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5451,14 +5446,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 62299-2022</t>
+          <t>A 20955-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44923.44671296296</v>
+        <v>45777.44401620371</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5471,7 +5466,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5508,14 +5503,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 49781-2024</t>
+          <t>A 62381-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45597.35331018519</v>
+        <v>45266</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5527,8 +5522,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G86" t="n">
-        <v>5.7</v>
+        <v>2.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5565,14 +5565,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 31464-2025</t>
+          <t>A 29300-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45833</v>
+        <v>45483</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5585,7 +5585,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5622,14 +5622,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 34909-2023</t>
+          <t>A 22016-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45141</v>
+        <v>45784.78254629629</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5679,14 +5679,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 15648-2025</t>
+          <t>A 16487-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45748.39800925926</v>
+        <v>45029.58181712963</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5736,14 +5736,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 62377-2023</t>
+          <t>A 11123-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45266</v>
+        <v>45371.41443287037</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5755,13 +5755,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>0.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5798,14 +5793,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 62380-2023</t>
+          <t>A 34435-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45266</v>
+        <v>45525.53689814815</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5817,13 +5812,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5860,14 +5850,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 55033-2023</t>
+          <t>A 32537-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45237.35086805555</v>
+        <v>45513</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5879,8 +5869,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5917,14 +5912,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 6354-2025</t>
+          <t>A 8869-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45699.3550462963</v>
+        <v>45713.369375</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5937,7 +5932,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>19.3</v>
+        <v>4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5974,14 +5969,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 31698-2025</t>
+          <t>A 55033-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45834.40880787037</v>
+        <v>45237.35086805555</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5994,7 +5989,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6031,14 +6026,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 24564-2025</t>
+          <t>A 53401-2022</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45798.46134259259</v>
+        <v>44879.43978009259</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6051,7 +6046,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6088,14 +6083,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 21979-2025</t>
+          <t>A 46533-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45784.65008101852</v>
+        <v>45582.64207175926</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6108,7 +6103,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6145,14 +6140,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 21363-2023</t>
+          <t>A 37562-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45063.25231481482</v>
+        <v>45541.44416666667</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6202,14 +6197,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 40896-2022</t>
+          <t>A 27652-2022</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44825</v>
+        <v>44743</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6222,7 +6217,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>11.3</v>
+        <v>9.1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6259,14 +6254,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 15658-2025</t>
+          <t>A 37369-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45748.42075231481</v>
+        <v>45156.50247685185</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6279,7 +6274,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6316,14 +6311,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 15000-2023</t>
+          <t>A 37801-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45015.57863425926</v>
+        <v>45543</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6336,7 +6331,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6373,14 +6368,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 65254-2021</t>
+          <t>A 7628-2022</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44515</v>
+        <v>44607</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6393,7 +6388,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>6.4</v>
+        <v>2.1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6430,14 +6425,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 46364-2024</t>
+          <t>A 57733-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45582.3631712963</v>
+        <v>45246.71253472222</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6450,7 +6445,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6487,14 +6482,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 6251-2023</t>
+          <t>A 11837-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44965.32954861111</v>
+        <v>45728.36346064815</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6507,7 +6502,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>15.4</v>
+        <v>1.8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6544,14 +6539,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 40682-2025</t>
+          <t>A 45228-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45896.85864583333</v>
+        <v>45919.58493055555</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6564,7 +6559,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>10.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6601,14 +6596,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 34671-2025</t>
+          <t>A 15645-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45847</v>
+        <v>45404.32452546297</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6620,13 +6615,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6663,14 +6653,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 24127-2024</t>
+          <t>A 59879-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45456.63065972222</v>
+        <v>45640.716875</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6683,7 +6673,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6720,14 +6710,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 23451-2023</t>
+          <t>A 61805-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45076</v>
+        <v>45646</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6739,13 +6729,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6782,14 +6767,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 3886-2025</t>
+          <t>A 24559-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45684.36366898148</v>
+        <v>45798.45791666667</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6801,13 +6786,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>0.6</v>
+        <v>6.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6844,14 +6824,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 13510-2022</t>
+          <t>A 11991-2022</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44648</v>
+        <v>44635.69287037037</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6864,7 +6844,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>17.6</v>
+        <v>0.6</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6901,14 +6881,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 10640-2025</t>
+          <t>A 4906-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45721</v>
+        <v>45329.47921296296</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6921,7 +6901,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -6958,14 +6938,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 62381-2023</t>
+          <t>A 47902-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45266</v>
+        <v>45589</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6977,13 +6957,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G111" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7020,14 +6995,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 36191-2025</t>
+          <t>A 58330-2022</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45867.42372685186</v>
+        <v>44901.56349537037</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7040,7 +7015,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7077,14 +7052,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 36192-2025</t>
+          <t>A 13119-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45867.42621527778</v>
+        <v>45002</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7097,7 +7072,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.4</v>
+        <v>2.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7134,14 +7109,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 28884-2025</t>
+          <t>A 25413-2021</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45820.62710648148</v>
+        <v>44342.64425925926</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7154,7 +7129,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7191,14 +7166,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 41554-2024</t>
+          <t>A 68454-2021</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45560</v>
+        <v>44529.42045138889</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7211,7 +7186,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7248,14 +7223,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 61046-2024</t>
+          <t>A 49062-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45645.47785879629</v>
+        <v>45594</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7268,7 +7243,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7305,14 +7280,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 37340-2025</t>
+          <t>A 45519-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45876.68804398148</v>
+        <v>45194.49783564815</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7325,7 +7300,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7362,14 +7337,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 45228-2025</t>
+          <t>A 57259-2022</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45919.58493055555</v>
+        <v>44895.82489583334</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7382,7 +7357,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>10.7</v>
+        <v>2</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7419,14 +7394,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 4307-2025</t>
+          <t>A 27201-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45685.68771990741</v>
+        <v>45812</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7476,14 +7451,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 53193-2023</t>
+          <t>A 10777-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45229</v>
+        <v>45369.59260416667</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7496,7 +7471,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7533,14 +7508,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 39611-2022</t>
+          <t>A 19820-2021</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44818.63516203704</v>
+        <v>44312</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7552,13 +7527,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G121" t="n">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7595,14 +7565,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 29300-2024</t>
+          <t>A 29555-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45483</v>
+        <v>45825.35525462963</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7615,7 +7585,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.8</v>
+        <v>4.3</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7652,14 +7622,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 43374-2021</t>
+          <t>A 47507-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44432</v>
+        <v>45203.29027777778</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7672,7 +7642,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7709,14 +7679,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 7628-2022</t>
+          <t>A 2263-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44607</v>
+        <v>45310.33078703703</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7728,8 +7698,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G124" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7766,14 +7741,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 7558-2025</t>
+          <t>A 23175-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45705.58423611111</v>
+        <v>45075</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7786,7 +7761,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7823,14 +7798,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 53426-2022</t>
+          <t>A 30486-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44879</v>
+        <v>45829.4681712963</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7843,7 +7818,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>13.2</v>
+        <v>1.2</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7880,14 +7855,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 62266-2022</t>
+          <t>A 31464-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44923.3334375</v>
+        <v>45833</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7900,7 +7875,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7937,14 +7912,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 39116-2022</t>
+          <t>A 4307-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44817.44609953704</v>
+        <v>45685.68771990741</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7957,7 +7932,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>3.3</v>
+        <v>1.1</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -7994,14 +7969,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 47708-2025</t>
+          <t>A 31698-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45931</v>
+        <v>45834.40880787037</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8014,7 +7989,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>4.9</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8051,14 +8026,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 48790-2025</t>
+          <t>A 53227-2021</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45937.3239699074</v>
+        <v>44468</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8071,7 +8046,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8108,14 +8083,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 48791-2025</t>
+          <t>A 8273-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45937.32559027777</v>
+        <v>45352</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8128,7 +8103,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8165,14 +8140,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 57918-2022</t>
+          <t>A 48788-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44900.37013888889</v>
+        <v>45937.32173611111</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8185,7 +8160,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8222,14 +8197,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 48787-2025</t>
+          <t>A 52688-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45937.31791666667</v>
+        <v>45610.39559027777</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8242,7 +8217,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8279,14 +8254,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 41893-2022</t>
+          <t>A 48790-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44830</v>
+        <v>45937.3239699074</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8298,13 +8273,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G134" t="n">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8341,14 +8311,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 48788-2025</t>
+          <t>A 44910-2021</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45937.32173611111</v>
+        <v>44438</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8361,7 +8331,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8398,14 +8368,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 53227-2021</t>
+          <t>A 47708-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44468</v>
+        <v>45931</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8418,7 +8388,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.1</v>
+        <v>4.9</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8455,14 +8425,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 50337-2025</t>
+          <t>A 48787-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45944</v>
+        <v>45937.31791666667</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8475,7 +8445,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8512,14 +8482,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 18597-2025</t>
+          <t>A 48791-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45763.48828703703</v>
+        <v>45937.32559027777</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8532,7 +8502,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8569,14 +8539,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 18612-2025</t>
+          <t>A 46529-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45763.4975</v>
+        <v>45582.63581018519</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8589,7 +8559,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.5</v>
+        <v>11.7</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8626,14 +8596,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 50209-2025</t>
+          <t>A 34671-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45943</v>
+        <v>45847</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8645,8 +8615,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G140" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8683,14 +8658,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 7730-2023</t>
+          <t>A 131-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44973.31143518518</v>
+        <v>45294.42097222222</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8703,7 +8678,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.3</v>
+        <v>7.5</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8740,14 +8715,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 17567-2021</t>
+          <t>A 75-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44299.65976851852</v>
+        <v>45659</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8760,7 +8735,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>6.2</v>
+        <v>5.4</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8797,14 +8772,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 370-2025</t>
+          <t>A 68400-2021</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45661.54579861111</v>
+        <v>44529</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8817,7 +8792,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8854,14 +8829,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 44910-2021</t>
+          <t>A 223-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44438</v>
+        <v>45660.34912037037</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8874,7 +8849,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8911,14 +8886,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 68454-2021</t>
+          <t>A 10640-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44529.42045138889</v>
+        <v>45721</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8931,7 +8906,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8968,14 +8943,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 7781-2023</t>
+          <t>A 13510-2022</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44973.41172453704</v>
+        <v>44648</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8988,7 +8963,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.5</v>
+        <v>17.6</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9025,14 +9000,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 73158-2021</t>
+          <t>A 54087-2021</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44550.53336805556</v>
+        <v>44470</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9044,8 +9019,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G147" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9082,14 +9062,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 23175-2023</t>
+          <t>A 50209-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45075</v>
+        <v>45943</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9102,7 +9082,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9139,14 +9119,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 54526-2025</t>
+          <t>A 35465-2022</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45965.63171296296</v>
+        <v>44798</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9159,7 +9139,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>4.5</v>
+        <v>1.1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9196,14 +9176,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 54542-2025</t>
+          <t>A 39116-2022</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45965.64857638889</v>
+        <v>44817.44609953704</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9216,7 +9196,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9253,14 +9233,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 38941-2023</t>
+          <t>A 36191-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45163</v>
+        <v>45867.42372685186</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9273,7 +9253,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9310,14 +9290,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 16473-2023</t>
+          <t>A 36192-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45029</v>
+        <v>45867.42621527778</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9330,7 +9310,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>5.5</v>
+        <v>0.4</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9367,14 +9347,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 16475-2023</t>
+          <t>A 28884-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45029</v>
+        <v>45820.62710648148</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9387,7 +9367,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.1</v>
+        <v>3.3</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9424,14 +9404,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 34435-2024</t>
+          <t>A 50337-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45525.53689814815</v>
+        <v>45944</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9444,7 +9424,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9481,14 +9461,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 42456-2024</t>
+          <t>A 62266-2022</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45565.46021990741</v>
+        <v>44923.3334375</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9501,7 +9481,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9538,14 +9518,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 19781-2025</t>
+          <t>A 10767-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45771.42873842592</v>
+        <v>45369.57115740741</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9558,7 +9538,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>6.1</v>
+        <v>1.5</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9595,14 +9575,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 12967-2024</t>
+          <t>A 37340-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45385.50491898148</v>
+        <v>45876.68804398148</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9615,7 +9595,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9652,14 +9632,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 56523-2025</t>
+          <t>A 60103-2022</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45975.46405092593</v>
+        <v>44909.63206018518</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9672,7 +9652,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9709,14 +9689,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 37371-2023</t>
+          <t>A 51381-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45156.51420138889</v>
+        <v>45604.39118055555</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9729,7 +9709,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.1</v>
+        <v>3.7</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9766,14 +9746,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 57262-2025</t>
+          <t>A 8099-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45979.65866898148</v>
+        <v>45351.46194444445</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9786,7 +9766,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>3.9</v>
+        <v>1.3</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9823,14 +9803,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 35969-2024</t>
+          <t>A 18821-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45533</v>
+        <v>45764.37849537037</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9843,7 +9823,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.3</v>
+        <v>6.9</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -9880,14 +9860,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 57890-2025</t>
+          <t>A 13515-2022</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45981.68027777778</v>
+        <v>44648</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9900,7 +9880,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -9937,14 +9917,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 49-2026</t>
+          <t>A 4077-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>46024.41849537037</v>
+        <v>45684.6493287037</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9957,7 +9937,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -9994,14 +9974,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 60-2026</t>
+          <t>A 2402-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>46024.44394675926</v>
+        <v>45310.7224537037</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10014,7 +9994,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10051,14 +10031,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 57886-2025</t>
+          <t>A 73158-2021</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45981.67636574074</v>
+        <v>44550.53336805556</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10071,7 +10051,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>8</v>
+        <v>1.3</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10108,14 +10088,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 57891-2025</t>
+          <t>A 13883-2022</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45981.68199074074</v>
+        <v>44650</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10128,7 +10108,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0.8</v>
+        <v>6.1</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10165,14 +10145,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 7921-2024</t>
+          <t>A 54542-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45350</v>
+        <v>45965.64857638889</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10185,7 +10165,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10222,14 +10202,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 19049-2021</t>
+          <t>A 54526-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44308</v>
+        <v>45965.63171296296</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10242,7 +10222,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10279,14 +10259,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 59252-2025</t>
+          <t>A 59625-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45988.65092592593</v>
+        <v>45254</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10299,7 +10279,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10336,14 +10316,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 1525-2026</t>
+          <t>A 15659-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>46034.36576388889</v>
+        <v>45748.42236111111</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10356,7 +10336,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.4</v>
+        <v>0.3</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10393,14 +10373,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 13515-2022</t>
+          <t>A 56523-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44648</v>
+        <v>45975.46405092593</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10413,7 +10393,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>3.3</v>
+        <v>1.9</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10450,14 +10430,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 2460-2022</t>
+          <t>A 57262-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44579</v>
+        <v>45979.65866898148</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10470,7 +10450,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>6.1</v>
+        <v>3.9</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10507,14 +10487,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 75-2025</t>
+          <t>A 16154-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45659</v>
+        <v>45406.58298611111</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10527,7 +10507,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>5.4</v>
+        <v>0.8</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10564,14 +10544,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 3795-2024</t>
+          <t>A 16155-2024</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45321.62364583334</v>
+        <v>45406.58472222222</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10584,7 +10564,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10621,14 +10601,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 47507-2023</t>
+          <t>A 62377-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45203.29027777778</v>
+        <v>45266</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10640,8 +10620,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G175" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10678,14 +10663,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 43604-2024</t>
+          <t>A 62380-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45569.44895833333</v>
+        <v>45266</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10697,8 +10682,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G176" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10735,14 +10725,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 60505-2025</t>
+          <t>A 57890-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45995.62716435185</v>
+        <v>45981.68027777778</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10755,7 +10745,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10792,14 +10782,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 51605-2024</t>
+          <t>A 57886-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45604.67737268518</v>
+        <v>45981.67636574074</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10812,7 +10802,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -10849,14 +10839,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 61884-2024</t>
+          <t>A 57891-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45652.65233796297</v>
+        <v>45981.68199074074</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10869,7 +10859,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -10906,14 +10896,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 3256-2026</t>
+          <t>A 35969-2024</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>46041.59181712963</v>
+        <v>45533</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10926,7 +10916,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>8.1</v>
+        <v>1.3</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -10963,14 +10953,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 8099-2024</t>
+          <t>A 49-2026</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45351.46194444445</v>
+        <v>46024.41849537037</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10983,7 +10973,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11020,14 +11010,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 45521-2022</t>
+          <t>A 60-2026</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44845.45263888889</v>
+        <v>46024.44394675926</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11040,7 +11030,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11077,14 +11067,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 28224-2023</t>
+          <t>A 41554-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45099</v>
+        <v>45560</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11097,7 +11087,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>4.8</v>
+        <v>1.7</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11134,14 +11124,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 854-2026</t>
+          <t>A 30773-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>46030</v>
+        <v>45496.94711805556</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11154,7 +11144,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11191,14 +11181,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 61535-2025</t>
+          <t>A 59252-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>46001</v>
+        <v>45988.65092592593</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11211,7 +11201,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11248,14 +11238,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 61539-2025</t>
+          <t>A 45983-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>46001</v>
+        <v>45580.61104166666</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11268,7 +11258,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11305,14 +11295,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 5927-2022</t>
+          <t>A 1525-2026</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44598.75418981481</v>
+        <v>46034.36576388889</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11325,7 +11315,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>6.6</v>
+        <v>1.4</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11362,14 +11352,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 33587-2021</t>
+          <t>A 32826-2022</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44378</v>
+        <v>44784</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11382,7 +11372,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11419,14 +11409,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 23984-2024</t>
+          <t>A 53426-2022</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45456.34149305556</v>
+        <v>44879</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11439,7 +11429,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.3</v>
+        <v>13.2</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11476,14 +11466,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 24129-2024</t>
+          <t>A 13220-2022</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45456.63239583333</v>
+        <v>44644.57788194445</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11496,7 +11486,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11533,14 +11523,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 5115-2026</t>
+          <t>A 19447-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>46049.57565972222</v>
+        <v>45770</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11553,7 +11543,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>8.4</v>
+        <v>4.9</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11590,14 +11580,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 35465-2022</t>
+          <t>A 14820-2021</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44798</v>
+        <v>44280</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11610,7 +11600,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.1</v>
+        <v>6.4</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11647,14 +11637,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 65116-2023</t>
+          <t>A 64669-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45287</v>
+        <v>45281</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11667,7 +11657,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>0.1</v>
+        <v>1.1</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11704,14 +11694,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 62379-2023</t>
+          <t>A 62378-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
         <v>45266</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11729,7 +11719,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11766,14 +11756,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 59625-2023</t>
+          <t>A 62382-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45254</v>
+        <v>45266</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11785,8 +11775,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G195" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11823,14 +11818,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 62915-2025</t>
+          <t>A 16473-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>46009.36930555556</v>
+        <v>45029</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11843,7 +11838,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.9</v>
+        <v>5.5</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -11880,14 +11875,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 62909-2025</t>
+          <t>A 16475-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>46009.36478009259</v>
+        <v>45029</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11900,7 +11895,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>4.1</v>
+        <v>1.1</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -11937,14 +11932,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 19447-2025</t>
+          <t>A 53131-2022</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45770</v>
+        <v>44876.47059027778</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11957,7 +11952,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>4.9</v>
+        <v>1.8</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -11994,14 +11989,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 131-2024</t>
+          <t>A 60505-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45294.42097222222</v>
+        <v>45995.62716435185</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12014,7 +12009,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12051,14 +12046,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 54087-2021</t>
+          <t>A 62379-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44470</v>
+        <v>45266</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12072,11 +12067,11 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12113,14 +12108,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 62683-2023</t>
+          <t>A 43374-2021</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45271.48655092593</v>
+        <v>44432</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12133,7 +12128,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>5.3</v>
+        <v>1.1</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12170,14 +12165,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 27652-2022</t>
+          <t>A 64784-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44743</v>
+        <v>45282</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12190,7 +12185,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>9.1</v>
+        <v>2.2</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12227,14 +12222,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 45983-2024</t>
+          <t>A 3256-2026</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45580.61104166666</v>
+        <v>46041.59181712963</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12247,7 +12242,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2.8</v>
+        <v>8.1</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12284,14 +12279,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 5242-2022</t>
+          <t>A 854-2026</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44594.51598379629</v>
+        <v>46030</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12304,7 +12299,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>8.800000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12341,14 +12336,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 46529-2024</t>
+          <t>A 61535-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45582.63581018519</v>
+        <v>46001</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12361,7 +12356,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>11.7</v>
+        <v>1.6</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12398,14 +12393,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 7655-2026</t>
+          <t>A 61539-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>46062.38829861111</v>
+        <v>46001</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12418,7 +12413,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12455,14 +12450,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 16154-2024</t>
+          <t>A 18597-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45406.58298611111</v>
+        <v>45763.48828703703</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12475,7 +12470,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12512,14 +12507,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 16155-2024</t>
+          <t>A 3044-2022</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45406.58472222222</v>
+        <v>44582.3544675926</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12532,7 +12527,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12569,14 +12564,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 57259-2022</t>
+          <t>A 15000-2023</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44895.82489583334</v>
+        <v>45015.57863425926</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12589,7 +12584,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12626,14 +12621,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 223-2025</t>
+          <t>A 6251-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45660.34912037037</v>
+        <v>44965.32954861111</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12646,7 +12641,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.5</v>
+        <v>15.4</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12683,14 +12678,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 59879-2024</t>
+          <t>A 10879-2021</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45640.716875</v>
+        <v>44259</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12703,7 +12698,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12740,14 +12735,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 7659-2026</t>
+          <t>A 10890-2021</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>46062.39302083333</v>
+        <v>44259</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12760,7 +12755,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>0.9</v>
+        <v>3.4</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12797,14 +12792,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 63884-2025</t>
+          <t>A 17567-2021</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>46020.58894675926</v>
+        <v>44299.65976851852</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12817,7 +12812,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.9</v>
+        <v>6.2</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -12854,14 +12849,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 32826-2022</t>
+          <t>A 51605-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>44784</v>
+        <v>45604.67737268518</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12874,7 +12869,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -12911,14 +12906,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 58330-2022</t>
+          <t>A 19781-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44901.56349537037</v>
+        <v>45771.42873842592</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12931,7 +12926,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>2.1</v>
+        <v>6.1</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -12968,14 +12963,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 15704-2023</t>
+          <t>A 23451-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45021</v>
+        <v>45076</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12987,8 +12982,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G216" t="n">
-        <v>5</v>
+        <v>0.6</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13025,14 +13025,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 30796-2024</t>
+          <t>A 5115-2026</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45497.36230324074</v>
+        <v>46049.57565972222</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>3.7</v>
+        <v>8.4</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13082,14 +13082,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 16152-2024</t>
+          <t>A 62909-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45406.57743055555</v>
+        <v>46009.36478009259</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0.8</v>
+        <v>4.1</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13139,14 +13139,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 4906-2024</t>
+          <t>A 35372-2021</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45329.47921296296</v>
+        <v>44384</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13196,14 +13196,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 13883-2022</t>
+          <t>A 62915-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>44650</v>
+        <v>46009.36930555556</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>6.1</v>
+        <v>1.9</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13253,14 +13253,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 53401-2022</t>
+          <t>A 60498-2024</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44879.43978009259</v>
+        <v>45643.66039351852</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13310,14 +13310,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 15181-2023</t>
+          <t>A 5927-2022</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45016</v>
+        <v>44598.75418981481</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13330,7 +13330,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>4.9</v>
+        <v>6.6</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13367,14 +13367,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 19820-2021</t>
+          <t>A 41893-2022</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44312</v>
+        <v>44830</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13386,8 +13386,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G223" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13424,14 +13429,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 61443-2022</t>
+          <t>A 7783-2023</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44909</v>
+        <v>44973</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13444,7 +13449,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13481,14 +13486,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 855-2023</t>
+          <t>A 5242-2022</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44931.60407407407</v>
+        <v>44594.51598379629</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13501,7 +13506,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>3.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13538,14 +13543,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 47755-2022</t>
+          <t>A 57918-2022</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44854.67653935185</v>
+        <v>44900.37013888889</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13558,7 +13563,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13595,14 +13600,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 9821-2022</t>
+          <t>A 2460-2022</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>44620.44008101852</v>
+        <v>44579</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13615,7 +13620,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>2.5</v>
+        <v>6.1</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13652,14 +13657,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 14820-2021</t>
+          <t>A 7781-2023</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>44280</v>
+        <v>44973.41172453704</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13672,7 +13677,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>6.4</v>
+        <v>0.5</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13709,14 +13714,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 13220-2022</t>
+          <t>A 7921-2024</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44644.57788194445</v>
+        <v>45350</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13729,7 +13734,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13766,14 +13771,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 68400-2021</t>
+          <t>A 45521-2022</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44529</v>
+        <v>44845.45263888889</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13786,7 +13791,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -13823,14 +13828,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 25514-2022</t>
+          <t>A 17126-2022</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44732.58395833334</v>
+        <v>44677</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13843,7 +13848,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -13880,14 +13885,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 10494-2022</t>
+          <t>A 56116-2022</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44623.64945601852</v>
+        <v>44889.66744212963</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13900,7 +13905,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>13.3</v>
+        <v>2.2</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -13937,14 +13942,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 52688-2024</t>
+          <t>A 40896-2022</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45610.39559027777</v>
+        <v>44825</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13957,7 +13962,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.4</v>
+        <v>11.3</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -13994,14 +13999,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 47902-2024</t>
+          <t>A 12329-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45589</v>
+        <v>45378.67270833333</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14014,7 +14019,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14051,14 +14056,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 32541-2024</t>
+          <t>A 37371-2023</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45513.49285879629</v>
+        <v>45156.51420138889</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14070,13 +14075,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G235" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14113,14 +14113,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 2263-2024</t>
+          <t>A 3074-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45310.33078703703</v>
+        <v>44946</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14132,13 +14132,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G236" t="n">
-        <v>0.6</v>
+        <v>6.1</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14175,14 +14170,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 37305-2022</t>
+          <t>A 7730-2023</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>44808.94498842592</v>
+        <v>44973.31143518518</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14195,7 +14190,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>9.9</v>
+        <v>1.3</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14232,14 +14227,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 60498-2024</t>
+          <t>A 10494-2022</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45643.66039351852</v>
+        <v>44623.64945601852</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14252,7 +14247,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>1.1</v>
+        <v>13.3</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14289,14 +14284,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 3272-2025</t>
+          <t>A 7655-2026</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45679</v>
+        <v>46062.38829861111</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14309,7 +14304,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14346,14 +14341,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 37562-2024</t>
+          <t>A 46364-2024</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45541.44416666667</v>
+        <v>45582.3631712963</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14366,7 +14361,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14403,14 +14398,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 15659-2025</t>
+          <t>A 19049-2021</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45748.42236111111</v>
+        <v>44308</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14423,7 +14418,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>0.3</v>
+        <v>1.4</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14460,14 +14455,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 13131-2024</t>
+          <t>A 32527-2024</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45386</v>
+        <v>45513.47659722222</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14481,11 +14476,11 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G242" t="n">
-        <v>5.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14522,14 +14517,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 2404-2025</t>
+          <t>A 7659-2026</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45674.35633101852</v>
+        <v>46062.39302083333</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14542,7 +14537,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>9.9</v>
+        <v>0.9</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14579,14 +14574,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 19773-2025</t>
+          <t>A 63884-2025</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45771</v>
+        <v>46020.58894675926</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14599,7 +14594,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14636,14 +14631,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 61799-2024</t>
+          <t>A 35961-2021</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45646</v>
+        <v>44385</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14656,7 +14651,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14693,14 +14688,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 8273-2024</t>
+          <t>A 33546-2022</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45352</v>
+        <v>44789.37229166667</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14713,7 +14708,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -14750,14 +14745,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 2402-2024</t>
+          <t>A 13131-2024</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45310.7224537037</v>
+        <v>45386</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14769,8 +14764,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G247" t="n">
-        <v>0.3</v>
+        <v>5.9</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -14807,14 +14807,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 3399-2024</t>
+          <t>A 9821-2022</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45318.60454861111</v>
+        <v>44620.44008101852</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -14864,14 +14864,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 10767-2024</t>
+          <t>A 38941-2023</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45369.57115740741</v>
+        <v>45163</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14884,7 +14884,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -14921,14 +14921,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 24432-2022</t>
+          <t>A 13399-2024</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>44726</v>
+        <v>45387.43239583333</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14941,7 +14941,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>1.3</v>
+        <v>4.9</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -14978,14 +14978,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 16487-2023</t>
+          <t>A 49781-2024</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45029.58181712963</v>
+        <v>45597.35331018519</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>0.9</v>
+        <v>5.7</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15035,14 +15035,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 64669-2023</t>
+          <t>A 43604-2024</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45281</v>
+        <v>45569.44895833333</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15092,14 +15092,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 55303-2022</t>
+          <t>A 61046-2024</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>44887</v>
+        <v>45645.47785879629</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15149,14 +15149,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 25413-2021</t>
+          <t>A 61799-2024</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>44342.64425925926</v>
+        <v>45646</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15206,14 +15206,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 12329-2024</t>
+          <t>A 3795-2024</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45378.67270833333</v>
+        <v>45321.62364583334</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15263,14 +15263,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 4077-2025</t>
+          <t>A 42456-2024</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45684.6493287037</v>
+        <v>45565.46021990741</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15320,14 +15320,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 62294-2022</t>
+          <t>A 30796-2024</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>44923</v>
+        <v>45497.36230324074</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>0.6</v>
+        <v>3.7</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15377,14 +15377,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 4632-2024</t>
+          <t>A 16152-2024</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45328.40832175926</v>
+        <v>45406.57743055555</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15434,14 +15434,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 61805-2024</t>
+          <t>A 62683-2023</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45646</v>
+        <v>45271.48655092593</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>0.8</v>
+        <v>5.3</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15491,14 +15491,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 12264-2024</t>
+          <t>A 61443-2022</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45378.46585648148</v>
+        <v>44909</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15548,14 +15548,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 12266-2024</t>
+          <t>A 47755-2022</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45378.46766203704</v>
+        <v>44854.67653935185</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15605,14 +15605,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 44708-2023</t>
+          <t>A 10768-2024</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45190.32966435186</v>
+        <v>45369.57269675926</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -15662,14 +15662,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 20955-2025</t>
+          <t>A 62299-2022</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45777.44401620371</v>
+        <v>44923.44671296296</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -15719,14 +15719,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 22016-2025</t>
+          <t>A 11460-2024</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45784.78254629629</v>
+        <v>45372.58478009259</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>2.1</v>
+        <v>5.3</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -15776,14 +15776,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 32537-2024</t>
+          <t>A 32541-2024</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45513</v>
+        <v>45513.49285879629</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15801,7 +15801,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -15838,14 +15838,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 8869-2025</t>
+          <t>A 55303-2022</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45713.369375</v>
+        <v>44887</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15858,7 +15858,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -15895,14 +15895,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 37801-2024</t>
+          <t>A 19048-2023</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45543</v>
+        <v>45047</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -15915,7 +15915,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>2</v>
+        <v>12.5</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -15952,14 +15952,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 24559-2025</t>
+          <t>A 36982-2024</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45798.45791666667</v>
+        <v>45539.31283564815</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -15972,7 +15972,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16009,14 +16009,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 11837-2025</t>
+          <t>A 855-2023</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45728.36346064815</v>
+        <v>44931.60407407407</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16066,14 +16066,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 15645-2024</t>
+          <t>A 21363-2023</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45404.32452546297</v>
+        <v>45063.25231481482</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16086,7 +16086,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16123,14 +16123,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 45519-2023</t>
+          <t>A 61884-2024</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45194.49783564815</v>
+        <v>45652.65233796297</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16143,7 +16143,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16180,14 +16180,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 49062-2024</t>
+          <t>A 370-2025</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45594</v>
+        <v>45661.54579861111</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16200,7 +16200,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16237,14 +16237,14 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 27201-2025</t>
+          <t>A 33587-2021</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45812</v>
+        <v>44378</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16257,7 +16257,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>

--- a/Översikt TROLLHÄTTAN.xlsx
+++ b/Översikt TROLLHÄTTAN.xlsx
@@ -575,7 +575,7 @@
         <v>44529</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44963</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>44274</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>44685</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>44876.47261574074</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
         <v>44322.32700231481</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>44368</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44273.69288194444</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>44300.2812962963</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1208,14 +1208,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 19167-2021</t>
+          <t>A 19355-2021</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44308</v>
+        <v>44309</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1265,14 +1265,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 19355-2021</t>
+          <t>A 5234-2022</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44309</v>
+        <v>44594.50368055556</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1322,14 +1322,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 5234-2022</t>
+          <t>A 19167-2021</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44594.50368055556</v>
+        <v>44308</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1386,7 +1386,7 @@
         <v>44319</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>44280</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>44312.60563657407</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         <v>44286.76164351852</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>44473</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         <v>44572</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>44701.27262731481</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>44887.67539351852</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         <v>44601.65090277778</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>44789.37310185185</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1954,14 +1954,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 17194-2022</t>
+          <t>A 30157-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44677</v>
+        <v>44757</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.9</v>
+        <v>4.3</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2011,14 +2011,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 23083-2021</t>
+          <t>A 17343-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44330</v>
+        <v>44298.72625</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2068,14 +2068,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 34365-2021</t>
+          <t>A 17194-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44379</v>
+        <v>44677</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>5.6</v>
+        <v>2.9</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2125,14 +2125,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 25427-2021</t>
+          <t>A 23083-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44342.65056712963</v>
+        <v>44330</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2182,14 +2182,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 30220-2021</t>
+          <t>A 25422-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44363.67822916667</v>
+        <v>44342.64869212963</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2239,14 +2239,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 51172-2021</t>
+          <t>A 34365-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44461</v>
+        <v>44379</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>7.7</v>
+        <v>5.6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2296,14 +2296,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 7747-2022</t>
+          <t>A 25427-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44608.39469907407</v>
+        <v>44342.65056712963</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2353,14 +2353,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 10150-2022</t>
+          <t>A 38000-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44622</v>
+        <v>44811.58396990741</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2410,14 +2410,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 17343-2021</t>
+          <t>A 30220-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44298.72625</v>
+        <v>44363.67822916667</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2467,14 +2467,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 25422-2021</t>
+          <t>A 7747-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44342.64869212963</v>
+        <v>44608.39469907407</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2524,14 +2524,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 38000-2022</t>
+          <t>A 19577-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44811.58396990741</v>
+        <v>44693</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2588,7 +2588,7 @@
         <v>44686.73731481482</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2638,14 +2638,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 30157-2022</t>
+          <t>A 17322-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44757</v>
+        <v>44298.63880787037</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4.3</v>
+        <v>5.3</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2695,14 +2695,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 19577-2022</t>
+          <t>A 67535-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44693</v>
+        <v>44524.54479166667</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2714,8 +2714,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G37" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2752,14 +2757,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 52687-2021</t>
+          <t>A 51172-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44466.83081018519</v>
+        <v>44461</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2772,7 +2777,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.6</v>
+        <v>7.7</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2809,14 +2814,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 20173-2021</t>
+          <t>A 66971-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44314</v>
+        <v>44522.59743055556</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2829,7 +2834,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>4.2</v>
+        <v>0.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2866,14 +2871,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 67535-2021</t>
+          <t>A 52687-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44524.54479166667</v>
+        <v>44466.83081018519</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2885,13 +2890,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G40" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2928,14 +2928,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 17322-2021</t>
+          <t>A 20173-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44298.63880787037</v>
+        <v>44314</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>5.3</v>
+        <v>4.2</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2985,14 +2985,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 66971-2021</t>
+          <t>A 26628-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44522.59743055556</v>
+        <v>44348</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3042,14 +3042,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 26628-2021</t>
+          <t>A 318-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44348</v>
+        <v>44565.56469907407</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>9.300000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3099,14 +3099,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 318-2022</t>
+          <t>A 34356-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44565.56469907407</v>
+        <v>45139</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>8.6</v>
+        <v>6.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3163,7 +3163,7 @@
         <v>44572.68925925926</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>44798</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3270,14 +3270,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 24127-2024</t>
+          <t>A 18597-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45456.63065972222</v>
+        <v>45763.48828703703</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3290,7 +3290,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3327,14 +3327,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 23984-2024</t>
+          <t>A 18612-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45456.34149305556</v>
+        <v>45763.4975</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3384,14 +3384,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 7558-2025</t>
+          <t>A 60103-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45705.58423611111</v>
+        <v>44909.63206018518</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3441,14 +3441,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 62294-2022</t>
+          <t>A 3044-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44923</v>
+        <v>44582.3544675926</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3498,14 +3498,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 12264-2024</t>
+          <t>A 7730-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45378.46585648148</v>
+        <v>44973.31143518518</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3555,14 +3555,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 12266-2024</t>
+          <t>A 56116-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45378.46766203704</v>
+        <v>44889.66744212963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3612,14 +3612,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 19773-2025</t>
+          <t>A 64784-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45771</v>
+        <v>45282</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3669,14 +3669,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 6354-2025</t>
+          <t>A 36982-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45699.3550462963</v>
+        <v>45539.31283564815</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>19.3</v>
+        <v>3.4</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3726,14 +3726,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 34356-2023</t>
+          <t>A 17567-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45139</v>
+        <v>44299.65976851852</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3783,14 +3783,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 2404-2025</t>
+          <t>A 40864-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45674.35633101852</v>
+        <v>44421</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>9.9</v>
+        <v>2.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3840,14 +3840,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 3399-2024</t>
+          <t>A 13399-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45318.60454861111</v>
+        <v>45387.43239583333</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>4.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3897,14 +3897,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 40682-2025</t>
+          <t>A 35961-2021</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45896.85864583333</v>
+        <v>44385</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3954,14 +3954,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 3886-2025</t>
+          <t>A 370-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45684.36366898148</v>
+        <v>45661.54579861111</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3973,13 +3973,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4016,14 +4011,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 3272-2025</t>
+          <t>A 10879-2021</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45679</v>
+        <v>44259</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4036,7 +4031,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4073,14 +4068,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 53429-2022</t>
+          <t>A 10890-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44879</v>
+        <v>44259</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4093,7 +4088,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4130,14 +4125,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 44708-2023</t>
+          <t>A 44910-2021</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45190.32966435186</v>
+        <v>44438</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4150,7 +4145,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4187,14 +4182,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 25514-2022</t>
+          <t>A 37369-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44732.58395833334</v>
+        <v>45156.50247685185</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4207,7 +4202,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4244,14 +4239,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 15648-2025</t>
+          <t>A 33546-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45748.39800925926</v>
+        <v>44789.37229166667</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4264,7 +4259,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4301,14 +4296,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 12967-2024</t>
+          <t>A 66960-2021</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45385.50491898148</v>
+        <v>44522</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4358,14 +4353,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 24432-2022</t>
+          <t>A 11123-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44726</v>
+        <v>45371.41443287037</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4378,7 +4373,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4415,14 +4410,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 18612-2025</t>
+          <t>A 10768-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45763.4975</v>
+        <v>45369.57269675926</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4435,7 +4430,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4472,14 +4467,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 65254-2021</t>
+          <t>A 10777-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44515</v>
+        <v>45369.59260416667</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4492,7 +4487,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>6.4</v>
+        <v>0.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4529,14 +4524,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 24564-2025</t>
+          <t>A 68454-2021</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45798.46134259259</v>
+        <v>44529.42045138889</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4549,7 +4544,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4586,14 +4581,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 39611-2022</t>
+          <t>A 30773-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44818.63516203704</v>
+        <v>45496.94711805556</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4605,13 +4600,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4648,14 +4638,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 21979-2025</t>
+          <t>A 53429-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45784.65008101852</v>
+        <v>44879</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4668,7 +4658,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.4</v>
+        <v>4.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4712,7 +4702,7 @@
         <v>44810.44122685185</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4762,14 +4752,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 34909-2023</t>
+          <t>A 10150-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45141</v>
+        <v>44622</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4782,7 +4772,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4819,14 +4809,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 15658-2025</t>
+          <t>A 11991-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45748.42075231481</v>
+        <v>44635.69287037037</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4876,14 +4866,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 66960-2021</t>
+          <t>A 7781-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44522</v>
+        <v>44973.41172453704</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4896,7 +4886,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4933,14 +4923,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 40864-2021</t>
+          <t>A 73158-2021</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44421</v>
+        <v>44550.53336805556</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4953,7 +4943,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4990,14 +4980,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 65116-2023</t>
+          <t>A 3074-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45287</v>
+        <v>44946</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5010,7 +5000,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.1</v>
+        <v>6.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5047,14 +5037,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 37305-2022</t>
+          <t>A 23175-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44808.94498842592</v>
+        <v>45075</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5067,7 +5057,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>9.9</v>
+        <v>2.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5104,14 +5094,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 4632-2024</t>
+          <t>A 13119-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45328.40832175926</v>
+        <v>45002</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5124,7 +5114,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5161,14 +5151,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 28224-2023</t>
+          <t>A 38941-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45099</v>
+        <v>45163</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5181,7 +5171,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>4.8</v>
+        <v>1.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5218,14 +5208,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 15704-2023</t>
+          <t>A 16473-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45021</v>
+        <v>45029</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5238,7 +5228,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5275,14 +5265,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 15181-2023</t>
+          <t>A 16475-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45016</v>
+        <v>45029</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5295,7 +5285,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>4.9</v>
+        <v>1.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5332,14 +5322,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 53193-2023</t>
+          <t>A 62378-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45229</v>
+        <v>45266</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5351,8 +5341,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5389,14 +5384,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 24129-2024</t>
+          <t>A 62382-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45456.63239583333</v>
+        <v>45266</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5408,8 +5403,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G84" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5446,14 +5446,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 20955-2025</t>
+          <t>A 34435-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45777.44401620371</v>
+        <v>45525.53689814815</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5503,14 +5503,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 62381-2023</t>
+          <t>A 855-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45266</v>
+        <v>44931.60407407407</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5522,13 +5522,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5565,14 +5560,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 29300-2024</t>
+          <t>A 17126-2022</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45483</v>
+        <v>44677</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5585,7 +5580,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5622,14 +5617,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 22016-2025</t>
+          <t>A 35372-2021</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45784.78254629629</v>
+        <v>44384</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5642,7 +5637,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5679,14 +5674,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 16487-2023</t>
+          <t>A 32527-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45029.58181712963</v>
+        <v>45513.47659722222</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5698,8 +5693,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G89" t="n">
-        <v>0.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5736,14 +5736,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 11123-2024</t>
+          <t>A 42456-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45371.41443287037</v>
+        <v>45565.46021990741</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>8.199999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5793,14 +5793,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 34435-2024</t>
+          <t>A 19048-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45525.53689814815</v>
+        <v>45047</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5813,7 +5813,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.9</v>
+        <v>12.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5850,14 +5850,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 32537-2024</t>
+          <t>A 19781-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45513</v>
+        <v>45771.42873842592</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5869,13 +5869,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>1.6</v>
+        <v>6.1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5912,14 +5907,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 8869-2025</t>
+          <t>A 12967-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45713.369375</v>
+        <v>45385.50491898148</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5932,7 +5927,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5969,14 +5964,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 55033-2023</t>
+          <t>A 57733-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45237.35086805555</v>
+        <v>45246.71253472222</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5989,7 +5984,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6026,14 +6021,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 53401-2022</t>
+          <t>A 45519-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44879.43978009259</v>
+        <v>45194.49783564815</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6046,7 +6041,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6090,7 +6085,7 @@
         <v>45582.64207175926</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6140,14 +6135,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 37562-2024</t>
+          <t>A 53131-2022</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45541.44416666667</v>
+        <v>44876.47059027778</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6160,7 +6155,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6197,14 +6192,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 27652-2022</t>
+          <t>A 49062-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44743</v>
+        <v>45594</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6217,7 +6212,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>9.1</v>
+        <v>1.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6254,14 +6249,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 37369-2023</t>
+          <t>A 7783-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45156.50247685185</v>
+        <v>44973</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6274,7 +6269,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6311,14 +6306,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 37801-2024</t>
+          <t>A 11460-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45543</v>
+        <v>45372.58478009259</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6331,7 +6326,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2</v>
+        <v>5.3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6368,14 +6363,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 7628-2022</t>
+          <t>A 37371-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44607</v>
+        <v>45156.51420138889</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6425,14 +6420,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 57733-2023</t>
+          <t>A 47755-2022</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45246.71253472222</v>
+        <v>44854.67653935185</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6445,7 +6440,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6482,14 +6477,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 11837-2025</t>
+          <t>A 27201-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45728.36346064815</v>
+        <v>45812</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6502,7 +6497,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6539,14 +6534,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 45228-2025</t>
+          <t>A 62299-2022</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45919.58493055555</v>
+        <v>44923.44671296296</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6559,7 +6554,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>10.7</v>
+        <v>0.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6596,14 +6591,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 15645-2024</t>
+          <t>A 49781-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45404.32452546297</v>
+        <v>45597.35331018519</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6616,7 +6611,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.2</v>
+        <v>5.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6653,14 +6648,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 59879-2024</t>
+          <t>A 9821-2022</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45640.716875</v>
+        <v>44620.44008101852</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6673,7 +6668,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6710,14 +6705,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 61805-2024</t>
+          <t>A 14820-2021</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45646</v>
+        <v>44280</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6730,7 +6725,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.8</v>
+        <v>6.4</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6767,14 +6762,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 24559-2025</t>
+          <t>A 35969-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45798.45791666667</v>
+        <v>45533</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6787,7 +6782,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>6.5</v>
+        <v>1.3</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6824,14 +6819,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 11991-2022</t>
+          <t>A 34909-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44635.69287037037</v>
+        <v>45141</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6844,7 +6839,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6881,14 +6876,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 4906-2024</t>
+          <t>A 62377-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45329.47921296296</v>
+        <v>45266</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6900,8 +6895,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -6938,14 +6938,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 47902-2024</t>
+          <t>A 62380-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45589</v>
+        <v>45266</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6957,8 +6957,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G111" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -6995,14 +7000,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 58330-2022</t>
+          <t>A 55033-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44901.56349537037</v>
+        <v>45237.35086805555</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7015,7 +7020,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7052,14 +7057,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 13119-2023</t>
+          <t>A 6354-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45002</v>
+        <v>45699.3550462963</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7072,7 +7077,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.6</v>
+        <v>19.3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7109,14 +7114,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 25413-2021</t>
+          <t>A 21363-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44342.64425925926</v>
+        <v>45063.25231481482</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7129,7 +7134,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7166,14 +7171,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 68454-2021</t>
+          <t>A 7921-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44529.42045138889</v>
+        <v>45350</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7186,7 +7191,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7223,14 +7228,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 49062-2024</t>
+          <t>A 19049-2021</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45594</v>
+        <v>44308</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7243,7 +7248,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7280,14 +7285,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 45519-2023</t>
+          <t>A 40896-2022</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45194.49783564815</v>
+        <v>44825</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7300,7 +7305,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>4.5</v>
+        <v>11.3</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7337,14 +7342,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 57259-2022</t>
+          <t>A 15658-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44895.82489583334</v>
+        <v>45748.42075231481</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7357,7 +7362,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7394,14 +7399,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 27201-2025</t>
+          <t>A 29555-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45812</v>
+        <v>45825.35525462963</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7414,7 +7419,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.1</v>
+        <v>4.3</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7451,14 +7456,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 10777-2024</t>
+          <t>A 15000-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45369.59260416667</v>
+        <v>45015.57863425926</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7471,7 +7476,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7508,14 +7513,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 19820-2021</t>
+          <t>A 65254-2021</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44312</v>
+        <v>44515</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7528,7 +7533,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.9</v>
+        <v>6.4</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7565,14 +7570,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 29555-2025</t>
+          <t>A 46364-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45825.35525462963</v>
+        <v>45582.3631712963</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7585,7 +7590,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>4.3</v>
+        <v>1.4</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7622,14 +7627,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 47507-2023</t>
+          <t>A 6251-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45203.29027777778</v>
+        <v>44965.32954861111</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7642,7 +7647,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.8</v>
+        <v>15.4</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7679,14 +7684,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 2263-2024</t>
+          <t>A 13220-2022</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45310.33078703703</v>
+        <v>44644.57788194445</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7698,13 +7703,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G124" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7741,14 +7741,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 23175-2023</t>
+          <t>A 13515-2022</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45075</v>
+        <v>44648</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7798,14 +7798,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 30486-2025</t>
+          <t>A 2460-2022</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45829.4681712963</v>
+        <v>44579</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.2</v>
+        <v>6.1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7855,14 +7855,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 31464-2025</t>
+          <t>A 24127-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45833</v>
+        <v>45456.63065972222</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7912,14 +7912,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 4307-2025</t>
+          <t>A 68400-2021</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45685.68771990741</v>
+        <v>44529</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7932,7 +7932,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -7969,14 +7969,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 31698-2025</t>
+          <t>A 30486-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45834.40880787037</v>
+        <v>45829.4681712963</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7989,7 +7989,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8026,14 +8026,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 53227-2021</t>
+          <t>A 31464-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44468</v>
+        <v>45833</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8083,14 +8083,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 8273-2024</t>
+          <t>A 23451-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45352</v>
+        <v>45076</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8102,8 +8102,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G131" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8140,14 +8145,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 48788-2025</t>
+          <t>A 3886-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45937.32173611111</v>
+        <v>45684.36366898148</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8159,8 +8164,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G132" t="n">
-        <v>4.5</v>
+        <v>0.6</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8197,14 +8207,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 52688-2024</t>
+          <t>A 75-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45610.39559027777</v>
+        <v>45659</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8217,7 +8227,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.4</v>
+        <v>5.4</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8254,14 +8264,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 48790-2025</t>
+          <t>A 3795-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45937.3239699074</v>
+        <v>45321.62364583334</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8274,7 +8284,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8311,14 +8321,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 44910-2021</t>
+          <t>A 31698-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44438</v>
+        <v>45834.40880787037</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8331,7 +8341,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8368,14 +8378,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 47708-2025</t>
+          <t>A 47507-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45931</v>
+        <v>45203.29027777778</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8388,7 +8398,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>4.9</v>
+        <v>1.8</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8425,14 +8435,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 48787-2025</t>
+          <t>A 25514-2022</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45937.31791666667</v>
+        <v>44732.58395833334</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8445,7 +8455,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8482,14 +8492,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 48791-2025</t>
+          <t>A 43604-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45937.32559027777</v>
+        <v>45569.44895833333</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8502,7 +8512,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8539,14 +8549,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 46529-2024</t>
+          <t>A 10494-2022</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45582.63581018519</v>
+        <v>44623.64945601852</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8559,7 +8569,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>11.7</v>
+        <v>13.3</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8596,14 +8606,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 34671-2025</t>
+          <t>A 41554-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45847</v>
+        <v>45560</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8615,13 +8625,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G140" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8658,14 +8663,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 131-2024</t>
+          <t>A 52688-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45294.42097222222</v>
+        <v>45610.39559027777</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8678,7 +8683,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>7.5</v>
+        <v>1.4</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8715,14 +8720,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 75-2025</t>
+          <t>A 47902-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45659</v>
+        <v>45589</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8735,7 +8740,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>5.4</v>
+        <v>1.8</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8772,14 +8777,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 68400-2021</t>
+          <t>A 51605-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44529</v>
+        <v>45604.67737268518</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8792,7 +8797,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8829,14 +8834,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 223-2025</t>
+          <t>A 32541-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45660.34912037037</v>
+        <v>45513.49285879629</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8848,8 +8853,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G144" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8886,14 +8896,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 10640-2025</t>
+          <t>A 61884-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45721</v>
+        <v>45652.65233796297</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8906,7 +8916,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8943,14 +8953,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 13510-2022</t>
+          <t>A 8099-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44648</v>
+        <v>45351.46194444445</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8963,7 +8973,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>17.6</v>
+        <v>1.3</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9000,14 +9010,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 54087-2021</t>
+          <t>A 45521-2022</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44470</v>
+        <v>44845.45263888889</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9019,13 +9029,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G147" t="n">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9062,14 +9067,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 50209-2025</t>
+          <t>A 28224-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45943</v>
+        <v>45099</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9082,7 +9087,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.5</v>
+        <v>4.8</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9119,14 +9124,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 35465-2022</t>
+          <t>A 2263-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44798</v>
+        <v>45310.33078703703</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9138,8 +9143,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G149" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9176,14 +9186,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 39116-2022</t>
+          <t>A 34671-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44817.44609953704</v>
+        <v>45847</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9195,8 +9205,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G150" t="n">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9233,14 +9248,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 36191-2025</t>
+          <t>A 61046-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45867.42372685186</v>
+        <v>45645.47785879629</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9253,7 +9268,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9290,14 +9305,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 36192-2025</t>
+          <t>A 5927-2022</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45867.42621527778</v>
+        <v>44598.75418981481</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9310,7 +9325,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.4</v>
+        <v>6.6</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9347,14 +9362,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 28884-2025</t>
+          <t>A 33587-2021</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45820.62710648148</v>
+        <v>44378</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9367,7 +9382,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9404,14 +9419,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 50337-2025</t>
+          <t>A 23984-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45944</v>
+        <v>45456.34149305556</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9424,7 +9439,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9461,14 +9476,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 62266-2022</t>
+          <t>A 24129-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44923.3334375</v>
+        <v>45456.63239583333</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9481,7 +9496,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9518,14 +9533,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 10767-2024</t>
+          <t>A 13510-2022</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45369.57115740741</v>
+        <v>44648</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9538,7 +9553,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.5</v>
+        <v>17.6</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9575,14 +9590,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 37340-2025</t>
+          <t>A 10640-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45876.68804398148</v>
+        <v>45721</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9595,7 +9610,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9632,14 +9647,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 60103-2022</t>
+          <t>A 37305-2022</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44909.63206018518</v>
+        <v>44808.94498842592</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9652,7 +9667,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.1</v>
+        <v>9.9</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9689,14 +9704,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 51381-2024</t>
+          <t>A 36191-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45604.39118055555</v>
+        <v>45867.42372685186</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9709,7 +9724,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>3.7</v>
+        <v>0.9</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9746,14 +9761,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 8099-2024</t>
+          <t>A 36192-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45351.46194444445</v>
+        <v>45867.42621527778</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9766,7 +9781,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9803,14 +9818,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 18821-2025</t>
+          <t>A 28884-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45764.37849537037</v>
+        <v>45820.62710648148</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9823,7 +9838,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>6.9</v>
+        <v>3.3</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -9860,14 +9875,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 13515-2022</t>
+          <t>A 35465-2022</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44648</v>
+        <v>44798</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9880,7 +9895,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>3.3</v>
+        <v>1.1</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -9917,14 +9932,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 4077-2025</t>
+          <t>A 65116-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45684.6493287037</v>
+        <v>45287</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9937,7 +9952,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.5</v>
+        <v>0.1</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -9974,14 +9989,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 2402-2024</t>
+          <t>A 4307-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45310.7224537037</v>
+        <v>45685.68771990741</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9994,7 +10009,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10031,14 +10046,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 73158-2021</t>
+          <t>A 62379-2023</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44550.53336805556</v>
+        <v>45266</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10050,8 +10065,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G165" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10088,14 +10108,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 13883-2022</t>
+          <t>A 59625-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44650</v>
+        <v>45254</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10108,7 +10128,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>6.1</v>
+        <v>3</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10145,14 +10165,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 54542-2025</t>
+          <t>A 53193-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45965.64857638889</v>
+        <v>45229</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10165,7 +10185,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10202,14 +10222,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 54526-2025</t>
+          <t>A 37340-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45965.63171296296</v>
+        <v>45876.68804398148</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10222,7 +10242,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10259,14 +10279,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 59625-2023</t>
+          <t>A 39611-2022</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45254</v>
+        <v>44818.63516203704</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10278,8 +10298,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G169" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10316,14 +10341,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 15659-2025</t>
+          <t>A 29300-2024</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45748.42236111111</v>
+        <v>45483</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10336,7 +10361,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10373,14 +10398,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 56523-2025</t>
+          <t>A 43374-2021</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45975.46405092593</v>
+        <v>44432</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10393,7 +10418,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10430,14 +10455,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 57262-2025</t>
+          <t>A 60498-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45979.65866898148</v>
+        <v>45643.66039351852</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10450,7 +10475,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>3.9</v>
+        <v>1.1</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10487,14 +10512,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 16154-2024</t>
+          <t>A 19447-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45406.58298611111</v>
+        <v>45770</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10507,7 +10532,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>0.8</v>
+        <v>4.9</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10544,14 +10569,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 16155-2024</t>
+          <t>A 7628-2022</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45406.58472222222</v>
+        <v>44607</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10564,7 +10589,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10601,14 +10626,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 62377-2023</t>
+          <t>A 131-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45266</v>
+        <v>45294.42097222222</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10620,13 +10645,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G175" t="n">
-        <v>0.8</v>
+        <v>7.5</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10663,14 +10683,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 62380-2023</t>
+          <t>A 54087-2021</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45266</v>
+        <v>44470</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10684,11 +10704,11 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10725,14 +10745,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 57890-2025</t>
+          <t>A 62683-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45981.68027777778</v>
+        <v>45271.48655092593</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10745,7 +10765,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2.2</v>
+        <v>5.3</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10782,14 +10802,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 57886-2025</t>
+          <t>A 3272-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45981.67636574074</v>
+        <v>45679</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10802,7 +10822,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>8</v>
+        <v>2.1</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -10839,14 +10859,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 57891-2025</t>
+          <t>A 7558-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45981.68199074074</v>
+        <v>45705.58423611111</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10859,7 +10879,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -10896,14 +10916,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 35969-2024</t>
+          <t>A 53426-2022</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45533</v>
+        <v>44879</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10916,7 +10936,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.3</v>
+        <v>13.2</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -10953,14 +10973,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 49-2026</t>
+          <t>A 62266-2022</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>46024.41849537037</v>
+        <v>44923.3334375</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10973,7 +10993,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11010,14 +11030,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 60-2026</t>
+          <t>A 39116-2022</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>46024.44394675926</v>
+        <v>44817.44609953704</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11030,7 +11050,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11067,14 +11087,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 41554-2024</t>
+          <t>A 37562-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45560</v>
+        <v>45541.44416666667</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11087,7 +11107,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11124,14 +11144,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 30773-2024</t>
+          <t>A 57918-2022</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45496.94711805556</v>
+        <v>44900.37013888889</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11144,7 +11164,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.9</v>
+        <v>3.2</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11181,14 +11201,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 59252-2025</t>
+          <t>A 27652-2022</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45988.65092592593</v>
+        <v>44743</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11201,7 +11221,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>3.6</v>
+        <v>9.1</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11245,7 +11265,7 @@
         <v>45580.61104166666</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11295,14 +11315,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 1525-2026</t>
+          <t>A 41893-2022</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>46034.36576388889</v>
+        <v>44830</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11314,8 +11334,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G187" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11352,14 +11377,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 32826-2022</t>
+          <t>A 5242-2022</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44784</v>
+        <v>44594.51598379629</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11372,7 +11397,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11409,14 +11434,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 53426-2022</t>
+          <t>A 46529-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44879</v>
+        <v>45582.63581018519</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11429,7 +11454,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>13.2</v>
+        <v>11.7</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11466,14 +11491,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 13220-2022</t>
+          <t>A 16154-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44644.57788194445</v>
+        <v>45406.58298611111</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11486,7 +11511,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11523,14 +11548,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 19447-2025</t>
+          <t>A 16155-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45770</v>
+        <v>45406.58472222222</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11543,7 +11568,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>4.9</v>
+        <v>2.5</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11580,14 +11605,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 14820-2021</t>
+          <t>A 15659-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44280</v>
+        <v>45748.42236111111</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11600,7 +11625,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>6.4</v>
+        <v>0.3</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11637,14 +11662,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 64669-2023</t>
+          <t>A 57259-2022</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45281</v>
+        <v>44895.82489583334</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11657,7 +11682,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11694,14 +11719,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 62378-2023</t>
+          <t>A 223-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45266</v>
+        <v>45660.34912037037</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11713,13 +11738,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G194" t="n">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11756,14 +11776,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 62382-2023</t>
+          <t>A 59879-2024</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45266</v>
+        <v>45640.716875</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11775,13 +11795,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G195" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11818,14 +11833,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 16473-2023</t>
+          <t>A 13131-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45029</v>
+        <v>45386</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11837,8 +11852,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G196" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -11875,14 +11895,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 16475-2023</t>
+          <t>A 32826-2022</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45029</v>
+        <v>44784</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11895,7 +11915,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -11932,14 +11952,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 53131-2022</t>
+          <t>A 53227-2021</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44876.47059027778</v>
+        <v>44468</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11952,7 +11972,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -11989,14 +12009,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 60505-2025</t>
+          <t>A 58330-2022</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45995.62716435185</v>
+        <v>44901.56349537037</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12009,7 +12029,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12046,14 +12066,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 62379-2023</t>
+          <t>A 15704-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45266</v>
+        <v>45021</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12065,13 +12085,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G200" t="n">
-        <v>0.7</v>
+        <v>5</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12108,14 +12123,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 43374-2021</t>
+          <t>A 30796-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44432</v>
+        <v>45497.36230324074</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12128,7 +12143,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.1</v>
+        <v>3.7</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12165,14 +12180,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 64784-2023</t>
+          <t>A 16152-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45282</v>
+        <v>45406.57743055555</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12185,7 +12200,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12222,14 +12237,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 3256-2026</t>
+          <t>A 4906-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>46041.59181712963</v>
+        <v>45329.47921296296</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12242,7 +12257,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>8.1</v>
+        <v>1.2</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12279,14 +12294,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 854-2026</t>
+          <t>A 51381-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>46030</v>
+        <v>45604.39118055555</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12299,7 +12314,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.8</v>
+        <v>3.7</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12336,14 +12351,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 61535-2025</t>
+          <t>A 18821-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>46001</v>
+        <v>45764.37849537037</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12356,7 +12371,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.6</v>
+        <v>6.9</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12393,14 +12408,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 61539-2025</t>
+          <t>A 2404-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>46001</v>
+        <v>45674.35633101852</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12413,7 +12428,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1</v>
+        <v>9.9</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12450,14 +12465,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 18597-2025</t>
+          <t>A 13883-2022</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45763.48828703703</v>
+        <v>44650</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12470,7 +12485,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.5</v>
+        <v>6.1</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12507,14 +12522,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 3044-2022</t>
+          <t>A 53401-2022</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44582.3544675926</v>
+        <v>44879.43978009259</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12527,7 +12542,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12564,14 +12579,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 15000-2023</t>
+          <t>A 15648-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45015.57863425926</v>
+        <v>45748.39800925926</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12584,7 +12599,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12621,14 +12636,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 6251-2023</t>
+          <t>A 15181-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44965.32954861111</v>
+        <v>45016</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12641,7 +12656,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>15.4</v>
+        <v>4.9</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12678,14 +12693,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 10879-2021</t>
+          <t>A 24564-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44259</v>
+        <v>45798.46134259259</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12698,7 +12713,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12735,14 +12750,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 10890-2021</t>
+          <t>A 19773-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44259</v>
+        <v>45771</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12755,7 +12770,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>3.4</v>
+        <v>1.3</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12792,14 +12807,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 17567-2021</t>
+          <t>A 61799-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44299.65976851852</v>
+        <v>45646</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12812,7 +12827,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>6.2</v>
+        <v>0.9</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -12849,14 +12864,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 51605-2024</t>
+          <t>A 21979-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45604.67737268518</v>
+        <v>45784.65008101852</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12869,7 +12884,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -12906,14 +12921,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 19781-2025</t>
+          <t>A 19820-2021</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45771.42873842592</v>
+        <v>44312</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12926,7 +12941,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>6.1</v>
+        <v>2.9</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -12963,14 +12978,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 23451-2023</t>
+          <t>A 61443-2022</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45076</v>
+        <v>44909</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12982,13 +12997,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G216" t="n">
-        <v>0.6</v>
+        <v>3.2</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13025,14 +13035,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 5115-2026</t>
+          <t>A 8273-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>46049.57565972222</v>
+        <v>45352</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13045,7 +13055,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>8.4</v>
+        <v>2.5</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13082,14 +13092,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 62909-2025</t>
+          <t>A 2402-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>46009.36478009259</v>
+        <v>45310.7224537037</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13102,7 +13112,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>4.1</v>
+        <v>0.3</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13139,14 +13149,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 35372-2021</t>
+          <t>A 40682-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44384</v>
+        <v>45896.85864583333</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13159,7 +13169,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13196,14 +13206,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 62915-2025</t>
+          <t>A 3399-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>46009.36930555556</v>
+        <v>45318.60454861111</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13216,7 +13226,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13253,14 +13263,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 60498-2024</t>
+          <t>A 10767-2024</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45643.66039351852</v>
+        <v>45369.57115740741</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13273,7 +13283,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13310,14 +13320,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 5927-2022</t>
+          <t>A 24432-2022</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44598.75418981481</v>
+        <v>44726</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13330,7 +13340,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>6.6</v>
+        <v>1.3</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13367,14 +13377,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 41893-2022</t>
+          <t>A 16487-2023</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44830</v>
+        <v>45029.58181712963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13386,13 +13396,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G223" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13429,14 +13434,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 7783-2023</t>
+          <t>A 64669-2023</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44973</v>
+        <v>45281</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13449,7 +13454,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13486,14 +13491,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 5242-2022</t>
+          <t>A 62381-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44594.51598379629</v>
+        <v>45266</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13505,8 +13510,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G225" t="n">
-        <v>8.800000000000001</v>
+        <v>2.8</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13543,14 +13553,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 57918-2022</t>
+          <t>A 55303-2022</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44900.37013888889</v>
+        <v>44887</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13563,7 +13573,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13600,14 +13610,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 2460-2022</t>
+          <t>A 25413-2021</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>44579</v>
+        <v>44342.64425925926</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13620,7 +13630,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>6.1</v>
+        <v>0</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13657,14 +13667,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 7781-2023</t>
+          <t>A 12329-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>44973.41172453704</v>
+        <v>45378.67270833333</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13677,7 +13687,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13714,14 +13724,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 7921-2024</t>
+          <t>A 4077-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45350</v>
+        <v>45684.6493287037</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13734,7 +13744,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13771,14 +13781,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 45521-2022</t>
+          <t>A 62294-2022</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44845.45263888889</v>
+        <v>44923</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13791,7 +13801,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>4</v>
+        <v>0.6</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -13828,14 +13838,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 17126-2022</t>
+          <t>A 4632-2024</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44677</v>
+        <v>45328.40832175926</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13848,7 +13858,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -13885,14 +13895,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 56116-2022</t>
+          <t>A 45228-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44889.66744212963</v>
+        <v>45919.58493055555</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13905,7 +13915,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>2.2</v>
+        <v>10.7</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -13942,14 +13952,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 40896-2022</t>
+          <t>A 61805-2024</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>44825</v>
+        <v>45646</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13962,7 +13972,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>11.3</v>
+        <v>0.8</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -13999,14 +14009,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 12329-2024</t>
+          <t>A 12264-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45378.67270833333</v>
+        <v>45378.46585648148</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14019,7 +14029,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14056,14 +14066,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 37371-2023</t>
+          <t>A 12266-2024</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45156.51420138889</v>
+        <v>45378.46766203704</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14076,7 +14086,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14113,14 +14123,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 3074-2023</t>
+          <t>A 44708-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>44946</v>
+        <v>45190.32966435186</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14133,7 +14143,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>6.1</v>
+        <v>3.6</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14170,14 +14180,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 7730-2023</t>
+          <t>A 20955-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>44973.31143518518</v>
+        <v>45777.44401620371</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14190,7 +14200,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14227,14 +14237,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 10494-2022</t>
+          <t>A 22016-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>44623.64945601852</v>
+        <v>45784.78254629629</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14247,7 +14257,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>13.3</v>
+        <v>2.1</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14284,14 +14294,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 7655-2026</t>
+          <t>A 47708-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>46062.38829861111</v>
+        <v>45931</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14304,7 +14314,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14341,14 +14351,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 46364-2024</t>
+          <t>A 48790-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45582.3631712963</v>
+        <v>45937.3239699074</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14361,7 +14371,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14398,14 +14408,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 19049-2021</t>
+          <t>A 48791-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>44308</v>
+        <v>45937.32559027777</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14418,7 +14428,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14455,14 +14465,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 32527-2024</t>
+          <t>A 48787-2025</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45513.47659722222</v>
+        <v>45937.31791666667</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14474,13 +14484,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G242" t="n">
-        <v>8.699999999999999</v>
+        <v>3.6</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14517,14 +14522,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 7659-2026</t>
+          <t>A 48788-2025</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>46062.39302083333</v>
+        <v>45937.32173611111</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14537,7 +14542,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>0.9</v>
+        <v>4.5</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14574,14 +14579,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 63884-2025</t>
+          <t>A 50337-2025</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>46020.58894675926</v>
+        <v>45944</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14594,7 +14599,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14631,14 +14636,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 35961-2021</t>
+          <t>A 50209-2025</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>44385</v>
+        <v>45943</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14651,7 +14656,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14688,14 +14693,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 33546-2022</t>
+          <t>A 32537-2024</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>44789.37229166667</v>
+        <v>45513</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14707,8 +14712,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G246" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -14745,14 +14755,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 13131-2024</t>
+          <t>A 8869-2025</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45386</v>
+        <v>45713.369375</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14764,13 +14774,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F247" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G247" t="n">
-        <v>5.9</v>
+        <v>4</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -14807,14 +14812,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 9821-2022</t>
+          <t>A 37801-2024</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>44620.44008101852</v>
+        <v>45543</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14827,7 +14832,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -14864,14 +14869,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 38941-2023</t>
+          <t>A 24559-2025</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45163</v>
+        <v>45798.45791666667</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14884,7 +14889,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>1.7</v>
+        <v>6.5</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -14921,14 +14926,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 13399-2024</t>
+          <t>A 11837-2025</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45387.43239583333</v>
+        <v>45728.36346064815</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14941,7 +14946,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>4.9</v>
+        <v>1.8</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -14978,14 +14983,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 49781-2024</t>
+          <t>A 15645-2024</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45597.35331018519</v>
+        <v>45404.32452546297</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -14998,7 +15003,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>5.7</v>
+        <v>2.2</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15035,14 +15040,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 43604-2024</t>
+          <t>A 54526-2025</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45569.44895833333</v>
+        <v>45965.63171296296</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15055,7 +15060,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15092,14 +15097,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 61046-2024</t>
+          <t>A 54542-2025</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45645.47785879629</v>
+        <v>45965.64857638889</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15112,7 +15117,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15149,14 +15154,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 61799-2024</t>
+          <t>A 56523-2025</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45646</v>
+        <v>45975.46405092593</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15169,7 +15174,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15206,14 +15211,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 3795-2024</t>
+          <t>A 57262-2025</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45321.62364583334</v>
+        <v>45979.65866898148</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15226,7 +15231,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>1.4</v>
+        <v>3.9</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15263,14 +15268,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 42456-2024</t>
+          <t>A 57890-2025</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45565.46021990741</v>
+        <v>45981.68027777778</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15283,7 +15288,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15320,14 +15325,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 30796-2024</t>
+          <t>A 49-2026</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45497.36230324074</v>
+        <v>46024.41849537037</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15340,7 +15345,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15377,14 +15382,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 16152-2024</t>
+          <t>A 60-2026</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45406.57743055555</v>
+        <v>46024.44394675926</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15397,7 +15402,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15434,14 +15439,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 62683-2023</t>
+          <t>A 57886-2025</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45271.48655092593</v>
+        <v>45981.67636574074</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15454,7 +15459,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>5.3</v>
+        <v>8</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15491,14 +15496,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 61443-2022</t>
+          <t>A 57891-2025</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>44909</v>
+        <v>45981.68199074074</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15511,7 +15516,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15548,14 +15553,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 47755-2022</t>
+          <t>A 59252-2025</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>44854.67653935185</v>
+        <v>45988.65092592593</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15568,7 +15573,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15605,14 +15610,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 10768-2024</t>
+          <t>A 1525-2026</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45369.57269675926</v>
+        <v>46034.36576388889</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15625,7 +15630,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -15662,14 +15667,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 62299-2022</t>
+          <t>A 60505-2025</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>44923.44671296296</v>
+        <v>45995.62716435185</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15682,7 +15687,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -15719,14 +15724,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 11460-2024</t>
+          <t>A 3256-2026</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45372.58478009259</v>
+        <v>46041.59181712963</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15739,7 +15744,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>5.3</v>
+        <v>8.1</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -15776,14 +15781,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 32541-2024</t>
+          <t>A 854-2026</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45513.49285879629</v>
+        <v>46030</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15795,13 +15800,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F265" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G265" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -15838,14 +15838,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 55303-2022</t>
+          <t>A 61535-2025</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>44887</v>
+        <v>46001</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15858,7 +15858,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -15895,14 +15895,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 19048-2023</t>
+          <t>A 61539-2025</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45047</v>
+        <v>46001</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -15915,7 +15915,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>12.5</v>
+        <v>1</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -15952,14 +15952,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 36982-2024</t>
+          <t>A 5115-2026</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45539.31283564815</v>
+        <v>46049.57565972222</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -15972,7 +15972,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>3.4</v>
+        <v>8.4</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16009,14 +16009,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 855-2023</t>
+          <t>A 62915-2025</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>44931.60407407407</v>
+        <v>46009.36930555556</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16066,14 +16066,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 21363-2023</t>
+          <t>A 62909-2025</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45063.25231481482</v>
+        <v>46009.36478009259</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16086,7 +16086,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16123,14 +16123,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 61884-2024</t>
+          <t>A 7655-2026</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45652.65233796297</v>
+        <v>46062.38829861111</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16143,7 +16143,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16180,14 +16180,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 370-2025</t>
+          <t>A 7659-2026</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45661.54579861111</v>
+        <v>46062.39302083333</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16200,7 +16200,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16237,14 +16237,14 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 33587-2021</t>
+          <t>A 63884-2025</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>44378</v>
+        <v>46020.58894675926</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16257,7 +16257,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>

--- a/Översikt TROLLHÄTTAN.xlsx
+++ b/Översikt TROLLHÄTTAN.xlsx
@@ -575,7 +575,7 @@
         <v>44529</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44963</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>44274</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>44685</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>44876.47261574074</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
         <v>44322.32700231481</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>44368</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44273.69288194444</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>44300.2812962963</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1208,14 +1208,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 19355-2021</t>
+          <t>A 19167-2021</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44309</v>
+        <v>44308</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1265,14 +1265,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 5234-2022</t>
+          <t>A 19355-2021</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44594.50368055556</v>
+        <v>44309</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1322,14 +1322,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 19167-2021</t>
+          <t>A 5234-2022</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44308</v>
+        <v>44594.50368055556</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1386,7 +1386,7 @@
         <v>44319</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>44280</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>44312.60563657407</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         <v>44286.76164351852</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>44473</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         <v>44572</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>44701.27262731481</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>44887.67539351852</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         <v>44601.65090277778</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>44789.37310185185</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1954,14 +1954,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 30157-2022</t>
+          <t>A 17194-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44757</v>
+        <v>44677</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>4.3</v>
+        <v>2.9</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2011,14 +2011,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 17343-2021</t>
+          <t>A 23083-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44298.72625</v>
+        <v>44330</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2068,14 +2068,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 17194-2022</t>
+          <t>A 34365-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44677</v>
+        <v>44379</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.9</v>
+        <v>5.6</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2125,14 +2125,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 23083-2021</t>
+          <t>A 25427-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44330</v>
+        <v>44342.65056712963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2182,14 +2182,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 25422-2021</t>
+          <t>A 30220-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44342.64869212963</v>
+        <v>44363.67822916667</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2239,14 +2239,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 34365-2021</t>
+          <t>A 51172-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44379</v>
+        <v>44461</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>5.6</v>
+        <v>7.7</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2296,14 +2296,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 25427-2021</t>
+          <t>A 7747-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44342.65056712963</v>
+        <v>44608.39469907407</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2353,14 +2353,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 38000-2022</t>
+          <t>A 10150-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44811.58396990741</v>
+        <v>44622</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2410,14 +2410,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 30220-2021</t>
+          <t>A 17343-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44363.67822916667</v>
+        <v>44298.72625</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2467,14 +2467,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 7747-2022</t>
+          <t>A 25422-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44608.39469907407</v>
+        <v>44342.64869212963</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2524,14 +2524,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 19577-2022</t>
+          <t>A 38000-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44693</v>
+        <v>44811.58396990741</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2588,7 +2588,7 @@
         <v>44686.73731481482</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2638,14 +2638,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 17322-2021</t>
+          <t>A 30157-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44298.63880787037</v>
+        <v>44757</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>5.3</v>
+        <v>4.3</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2695,14 +2695,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 67535-2021</t>
+          <t>A 19577-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44524.54479166667</v>
+        <v>44693</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2714,13 +2714,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G37" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2757,14 +2752,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 51172-2021</t>
+          <t>A 52687-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44461</v>
+        <v>44466.83081018519</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2777,7 +2772,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>7.7</v>
+        <v>0.6</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2814,14 +2809,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 66971-2021</t>
+          <t>A 20173-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44522.59743055556</v>
+        <v>44314</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2834,7 +2829,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.5</v>
+        <v>4.2</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2871,14 +2866,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 52687-2021</t>
+          <t>A 17322-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44466.83081018519</v>
+        <v>44298.63880787037</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2891,7 +2886,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.6</v>
+        <v>5.3</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2928,14 +2923,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 20173-2021</t>
+          <t>A 67535-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44314</v>
+        <v>44524.54479166667</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2947,8 +2942,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G41" t="n">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2985,14 +2985,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 26628-2021</t>
+          <t>A 66971-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44348</v>
+        <v>44522.59743055556</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>9.300000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3042,14 +3042,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 318-2022</t>
+          <t>A 26628-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44565.56469907407</v>
+        <v>44348</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>8.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3099,14 +3099,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 34356-2023</t>
+          <t>A 318-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45139</v>
+        <v>44565.56469907407</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>6.7</v>
+        <v>8.6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3163,7 +3163,7 @@
         <v>44572.68925925926</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>44798</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3270,14 +3270,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 18597-2025</t>
+          <t>A 7558-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45763.48828703703</v>
+        <v>45705.58423611111</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3327,14 +3327,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 18612-2025</t>
+          <t>A 62294-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45763.4975</v>
+        <v>44923</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3384,14 +3384,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 60103-2022</t>
+          <t>A 24127-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44909.63206018518</v>
+        <v>45456.63065972222</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3441,14 +3441,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 3044-2022</t>
+          <t>A 12264-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44582.3544675926</v>
+        <v>45378.46585648148</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3498,14 +3498,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 7730-2023</t>
+          <t>A 12266-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44973.31143518518</v>
+        <v>45378.46766203704</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3555,14 +3555,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 56116-2022</t>
+          <t>A 6354-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44889.66744212963</v>
+        <v>45699.3550462963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.2</v>
+        <v>19.3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3612,14 +3612,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 64784-2023</t>
+          <t>A 23984-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45282</v>
+        <v>45456.34149305556</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3669,14 +3669,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 36982-2024</t>
+          <t>A 34356-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45539.31283564815</v>
+        <v>45139</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3.4</v>
+        <v>6.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3726,14 +3726,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 17567-2021</t>
+          <t>A 3886-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44299.65976851852</v>
+        <v>45684.36366898148</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3745,8 +3745,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>6.2</v>
+        <v>0.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3783,14 +3788,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 40864-2021</t>
+          <t>A 3272-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44421</v>
+        <v>45679</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3803,7 +3808,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3840,14 +3845,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 13399-2024</t>
+          <t>A 39611-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45387.43239583333</v>
+        <v>44818.63516203704</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3859,8 +3864,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>4.9</v>
+        <v>1.3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3897,14 +3907,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 35961-2021</t>
+          <t>A 65254-2021</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44385</v>
+        <v>44515</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3917,7 +3927,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3</v>
+        <v>6.4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3954,14 +3964,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 370-2025</t>
+          <t>A 18612-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45661.54579861111</v>
+        <v>45763.4975</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3974,7 +3984,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4011,14 +4021,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 10879-2021</t>
+          <t>A 34909-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44259</v>
+        <v>45141</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4031,7 +4041,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4068,14 +4078,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 10890-2021</t>
+          <t>A 65116-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44259</v>
+        <v>45287</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4088,7 +4098,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3.4</v>
+        <v>0.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4125,14 +4135,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 44910-2021</t>
+          <t>A 28224-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44438</v>
+        <v>45099</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4145,7 +4155,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.6</v>
+        <v>4.8</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4182,14 +4192,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 37369-2023</t>
+          <t>A 15704-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45156.50247685185</v>
+        <v>45021</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4202,7 +4212,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4239,14 +4249,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 33546-2022</t>
+          <t>A 15181-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44789.37229166667</v>
+        <v>45016</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4259,7 +4269,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.5</v>
+        <v>4.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4296,14 +4306,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 66960-2021</t>
+          <t>A 24129-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44522</v>
+        <v>45456.63239583333</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4316,7 +4326,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4353,14 +4363,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 11123-2024</t>
+          <t>A 29300-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45371.41443287037</v>
+        <v>45483</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4373,7 +4383,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>8.199999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4410,14 +4420,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 10768-2024</t>
+          <t>A 37801-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45369.57269675926</v>
+        <v>45543</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4430,7 +4440,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4467,14 +4477,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 10777-2024</t>
+          <t>A 11837-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45369.59260416667</v>
+        <v>45728.36346064815</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4487,7 +4497,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4524,14 +4534,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 68454-2021</t>
+          <t>A 15645-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44529.42045138889</v>
+        <v>45404.32452546297</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4544,7 +4554,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4581,14 +4591,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 30773-2024</t>
+          <t>A 16487-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45496.94711805556</v>
+        <v>45029.58181712963</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4638,14 +4648,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 53429-2022</t>
+          <t>A 11123-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44879</v>
+        <v>45371.41443287037</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4658,7 +4668,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>4.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4695,14 +4705,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 37658-2022</t>
+          <t>A 24559-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44810.44122685185</v>
+        <v>45798.45791666667</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4715,7 +4725,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.3</v>
+        <v>6.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4752,14 +4762,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 10150-2022</t>
+          <t>A 34435-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44622</v>
+        <v>45525.53689814815</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4772,7 +4782,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4809,14 +4819,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 11991-2022</t>
+          <t>A 7655-2026</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44635.69287037037</v>
+        <v>46062.38829861111</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4829,7 +4839,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4866,14 +4876,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 7781-2023</t>
+          <t>A 55033-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44973.41172453704</v>
+        <v>45237.35086805555</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4886,7 +4896,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4923,14 +4933,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 73158-2021</t>
+          <t>A 53401-2022</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44550.53336805556</v>
+        <v>44879.43978009259</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4943,7 +4953,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4980,14 +4990,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 3074-2023</t>
+          <t>A 46533-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44946</v>
+        <v>45582.64207175926</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5000,7 +5010,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>6.1</v>
+        <v>1.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5037,14 +5047,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 23175-2023</t>
+          <t>A 37562-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45075</v>
+        <v>45541.44416666667</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5057,7 +5067,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5094,14 +5104,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 13119-2023</t>
+          <t>A 27652-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45002</v>
+        <v>44743</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5114,7 +5124,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.6</v>
+        <v>9.1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5151,14 +5161,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 38941-2023</t>
+          <t>A 7659-2026</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45163</v>
+        <v>46062.39302083333</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5171,7 +5181,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5208,14 +5218,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 16473-2023</t>
+          <t>A 63884-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45029</v>
+        <v>46020.58894675926</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5228,7 +5238,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>5.5</v>
+        <v>1.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5265,14 +5275,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 16475-2023</t>
+          <t>A 15648-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45029</v>
+        <v>45748.39800925926</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5285,7 +5295,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5322,14 +5332,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 62378-2023</t>
+          <t>A 37369-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45266</v>
+        <v>45156.50247685185</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5341,13 +5351,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5384,14 +5389,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 62382-2023</t>
+          <t>A 7628-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45266</v>
+        <v>44607</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5403,13 +5408,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5446,14 +5446,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 34435-2024</t>
+          <t>A 57733-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45525.53689814815</v>
+        <v>45246.71253472222</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5503,14 +5503,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 855-2023</t>
+          <t>A 49062-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44931.60407407407</v>
+        <v>45594</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5560,14 +5560,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 17126-2022</t>
+          <t>A 45519-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44677</v>
+        <v>45194.49783564815</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5617,14 +5617,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 35372-2021</t>
+          <t>A 59879-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44384</v>
+        <v>45640.716875</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5637,7 +5637,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5674,14 +5674,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 32527-2024</t>
+          <t>A 61805-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45513.47659722222</v>
+        <v>45646</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5693,13 +5693,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G89" t="n">
-        <v>8.699999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5736,14 +5731,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 42456-2024</t>
+          <t>A 27201-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45565.46021990741</v>
+        <v>45812</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5756,7 +5751,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5793,14 +5788,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 19048-2023</t>
+          <t>A 11991-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45047</v>
+        <v>44635.69287037037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5813,7 +5808,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>12.5</v>
+        <v>0.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5850,14 +5845,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 19781-2025</t>
+          <t>A 24564-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45771.42873842592</v>
+        <v>45798.46134259259</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5870,7 +5865,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>6.1</v>
+        <v>2.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5907,14 +5902,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 12967-2024</t>
+          <t>A 4906-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45385.50491898148</v>
+        <v>45329.47921296296</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5964,14 +5959,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 57733-2023</t>
+          <t>A 47902-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45246.71253472222</v>
+        <v>45589</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5984,7 +5979,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6021,14 +6016,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 45519-2023</t>
+          <t>A 58330-2022</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45194.49783564815</v>
+        <v>44901.56349537037</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6041,7 +6036,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6078,14 +6073,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 46533-2024</t>
+          <t>A 13119-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45582.64207175926</v>
+        <v>45002</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6098,7 +6093,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6135,14 +6130,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 53131-2022</t>
+          <t>A 29555-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44876.47059027778</v>
+        <v>45825.35525462963</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6155,7 +6150,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.8</v>
+        <v>4.3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6192,14 +6187,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 49062-2024</t>
+          <t>A 25413-2021</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45594</v>
+        <v>44342.64425925926</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6212,7 +6207,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6249,14 +6244,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 7783-2023</t>
+          <t>A 21979-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44973</v>
+        <v>45784.65008101852</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6269,7 +6264,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6306,14 +6301,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 11460-2024</t>
+          <t>A 68454-2021</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45372.58478009259</v>
+        <v>44529.42045138889</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6326,7 +6321,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>5.3</v>
+        <v>1.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6363,14 +6358,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 37371-2023</t>
+          <t>A 57259-2022</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45156.51420138889</v>
+        <v>44895.82489583334</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6383,7 +6378,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6420,14 +6415,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 47755-2022</t>
+          <t>A 30486-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44854.67653935185</v>
+        <v>45829.4681712963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6440,7 +6435,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6477,14 +6472,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 27201-2025</t>
+          <t>A 10777-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45812</v>
+        <v>45369.59260416667</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6497,7 +6492,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6534,14 +6529,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 62299-2022</t>
+          <t>A 19820-2021</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44923.44671296296</v>
+        <v>44312</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6554,7 +6549,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6591,14 +6586,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 49781-2024</t>
+          <t>A 31464-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45597.35331018519</v>
+        <v>45833</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6611,7 +6606,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>5.7</v>
+        <v>1.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6648,14 +6643,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 9821-2022</t>
+          <t>A 31698-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44620.44008101852</v>
+        <v>45834.40880787037</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6668,7 +6663,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6705,14 +6700,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 14820-2021</t>
+          <t>A 40682-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44280</v>
+        <v>45896.85864583333</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6725,7 +6720,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>6.4</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6762,14 +6757,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 35969-2024</t>
+          <t>A 47507-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45533</v>
+        <v>45203.29027777778</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6782,7 +6777,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6819,14 +6814,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 34909-2023</t>
+          <t>A 2263-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45141</v>
+        <v>45310.33078703703</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6838,8 +6833,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6876,14 +6876,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 62377-2023</t>
+          <t>A 23175-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45266</v>
+        <v>45075</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6895,13 +6895,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G110" t="n">
-        <v>0.8</v>
+        <v>2.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -6938,14 +6933,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 62380-2023</t>
+          <t>A 34671-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45266</v>
+        <v>45847</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6963,7 +6958,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7000,14 +6995,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 55033-2023</t>
+          <t>A 4307-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45237.35086805555</v>
+        <v>45685.68771990741</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7020,7 +7015,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7057,14 +7052,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 6354-2025</t>
+          <t>A 10640-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45699.3550462963</v>
+        <v>45721</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7077,7 +7072,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>19.3</v>
+        <v>3.1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7114,14 +7109,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 21363-2023</t>
+          <t>A 13510-2022</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45063.25231481482</v>
+        <v>44648</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7134,7 +7129,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>4.2</v>
+        <v>17.6</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7171,14 +7166,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 7921-2024</t>
+          <t>A 53227-2021</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45350</v>
+        <v>44468</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7191,7 +7186,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7228,14 +7223,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 19049-2021</t>
+          <t>A 8273-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44308</v>
+        <v>45352</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7248,7 +7243,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7285,14 +7280,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 40896-2022</t>
+          <t>A 36191-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44825</v>
+        <v>45867.42372685186</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7305,7 +7300,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>11.3</v>
+        <v>0.9</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7342,14 +7337,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 15658-2025</t>
+          <t>A 36192-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45748.42075231481</v>
+        <v>45867.42621527778</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7362,7 +7357,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7399,14 +7394,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 29555-2025</t>
+          <t>A 52688-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45825.35525462963</v>
+        <v>45610.39559027777</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7419,7 +7414,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>4.3</v>
+        <v>1.4</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7456,14 +7451,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 15000-2023</t>
+          <t>A 28884-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45015.57863425926</v>
+        <v>45820.62710648148</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7476,7 +7471,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7513,14 +7508,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 65254-2021</t>
+          <t>A 44910-2021</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44515</v>
+        <v>44438</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7533,7 +7528,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>6.4</v>
+        <v>1.6</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7570,14 +7565,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 46364-2024</t>
+          <t>A 62381-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45582.3631712963</v>
+        <v>45266</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7589,8 +7584,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G122" t="n">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7627,14 +7627,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 6251-2023</t>
+          <t>A 46529-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44965.32954861111</v>
+        <v>45582.63581018519</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7647,7 +7647,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>15.4</v>
+        <v>11.7</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7684,14 +7684,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 13220-2022</t>
+          <t>A 131-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44644.57788194445</v>
+        <v>45294.42097222222</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.3</v>
+        <v>7.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7741,14 +7741,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 13515-2022</t>
+          <t>A 75-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44648</v>
+        <v>45659</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>3.3</v>
+        <v>5.4</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7798,14 +7798,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 2460-2022</t>
+          <t>A 37340-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44579</v>
+        <v>45876.68804398148</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>6.1</v>
+        <v>1.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7855,14 +7855,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 24127-2024</t>
+          <t>A 68400-2021</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45456.63065972222</v>
+        <v>44529</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7912,14 +7912,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 68400-2021</t>
+          <t>A 223-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44529</v>
+        <v>45660.34912037037</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7932,7 +7932,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -7969,14 +7969,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 30486-2025</t>
+          <t>A 54087-2021</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45829.4681712963</v>
+        <v>44470</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7988,8 +7988,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G129" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8026,14 +8031,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 31464-2025</t>
+          <t>A 51381-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45833</v>
+        <v>45604.39118055555</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8046,7 +8051,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.4</v>
+        <v>3.7</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8083,14 +8088,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 23451-2023</t>
+          <t>A 35465-2022</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45076</v>
+        <v>44798</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8102,13 +8107,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G131" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8145,14 +8145,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 3886-2025</t>
+          <t>A 18821-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45684.36366898148</v>
+        <v>45764.37849537037</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8164,13 +8164,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G132" t="n">
-        <v>0.6</v>
+        <v>6.9</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8207,14 +8202,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 75-2025</t>
+          <t>A 39116-2022</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45659</v>
+        <v>44817.44609953704</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8227,7 +8222,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>5.4</v>
+        <v>3.3</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8264,14 +8259,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 3795-2024</t>
+          <t>A 62266-2022</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45321.62364583334</v>
+        <v>44923.3334375</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8284,7 +8279,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8321,14 +8316,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 31698-2025</t>
+          <t>A 45228-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45834.40880787037</v>
+        <v>45919.58493055555</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8341,7 +8336,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1</v>
+        <v>10.7</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8378,14 +8373,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 47507-2023</t>
+          <t>A 10767-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45203.29027777778</v>
+        <v>45369.57115740741</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8398,7 +8393,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8435,14 +8430,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 25514-2022</t>
+          <t>A 60103-2022</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44732.58395833334</v>
+        <v>44909.63206018518</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8455,7 +8450,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8492,14 +8487,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 43604-2024</t>
+          <t>A 8099-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45569.44895833333</v>
+        <v>45351.46194444445</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8512,7 +8507,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8549,14 +8544,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 10494-2022</t>
+          <t>A 13515-2022</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44623.64945601852</v>
+        <v>44648</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8569,7 +8564,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>13.3</v>
+        <v>3.3</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8606,14 +8601,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 41554-2024</t>
+          <t>A 4077-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45560</v>
+        <v>45684.6493287037</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8626,7 +8621,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8663,14 +8658,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 52688-2024</t>
+          <t>A 2402-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45610.39559027777</v>
+        <v>45310.7224537037</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8683,7 +8678,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.4</v>
+        <v>0.3</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8720,14 +8715,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 47902-2024</t>
+          <t>A 48788-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45589</v>
+        <v>45937.32173611111</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8740,7 +8735,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8777,14 +8772,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 51605-2024</t>
+          <t>A 73158-2021</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45604.67737268518</v>
+        <v>44550.53336805556</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8797,7 +8792,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8834,14 +8829,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 32541-2024</t>
+          <t>A 13883-2022</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45513.49285879629</v>
+        <v>44650</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8853,13 +8848,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G144" t="n">
-        <v>0.5</v>
+        <v>6.1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8896,14 +8886,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 61884-2024</t>
+          <t>A 48790-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45652.65233796297</v>
+        <v>45937.3239699074</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8916,7 +8906,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8953,14 +8943,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 8099-2024</t>
+          <t>A 47708-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45351.46194444445</v>
+        <v>45931</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8973,7 +8963,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.3</v>
+        <v>4.9</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9010,14 +9000,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 45521-2022</t>
+          <t>A 48787-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44845.45263888889</v>
+        <v>45937.31791666667</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9030,7 +9020,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9067,14 +9057,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 28224-2023</t>
+          <t>A 48791-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45099</v>
+        <v>45937.32559027777</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9087,7 +9077,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>4.8</v>
+        <v>1.7</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9124,14 +9114,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 2263-2024</t>
+          <t>A 50209-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45310.33078703703</v>
+        <v>45943</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9143,13 +9133,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G149" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9186,14 +9171,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 34671-2025</t>
+          <t>A 59625-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45847</v>
+        <v>45254</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9205,13 +9190,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G150" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9248,14 +9228,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 61046-2024</t>
+          <t>A 50337-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45645.47785879629</v>
+        <v>45944</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9268,7 +9248,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9305,14 +9285,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 5927-2022</t>
+          <t>A 15659-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44598.75418981481</v>
+        <v>45748.42236111111</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9325,7 +9305,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>6.6</v>
+        <v>0.3</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9362,14 +9342,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 33587-2021</t>
+          <t>A 16154-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44378</v>
+        <v>45406.58298611111</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9382,7 +9362,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9419,14 +9399,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 23984-2024</t>
+          <t>A 16155-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45456.34149305556</v>
+        <v>45406.58472222222</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9439,7 +9419,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9476,14 +9456,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 24129-2024</t>
+          <t>A 62377-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45456.63239583333</v>
+        <v>45266</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9495,8 +9475,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G155" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9533,14 +9518,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 13510-2022</t>
+          <t>A 62380-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44648</v>
+        <v>45266</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9552,8 +9537,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G156" t="n">
-        <v>17.6</v>
+        <v>0.9</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9590,14 +9580,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 10640-2025</t>
+          <t>A 35969-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45721</v>
+        <v>45533</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9610,7 +9600,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9647,14 +9637,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 37305-2022</t>
+          <t>A 41554-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44808.94498842592</v>
+        <v>45560</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9667,7 +9657,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>9.9</v>
+        <v>1.7</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9704,14 +9694,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 36191-2025</t>
+          <t>A 30773-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45867.42372685186</v>
+        <v>45496.94711805556</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9761,14 +9751,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 36192-2025</t>
+          <t>A 45983-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45867.42621527778</v>
+        <v>45580.61104166666</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9781,7 +9771,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0.4</v>
+        <v>2.8</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9818,14 +9808,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 28884-2025</t>
+          <t>A 32826-2022</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45820.62710648148</v>
+        <v>44784</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9838,7 +9828,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -9875,14 +9865,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 35465-2022</t>
+          <t>A 53426-2022</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44798</v>
+        <v>44879</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9895,7 +9885,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.1</v>
+        <v>13.2</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -9932,14 +9922,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 65116-2023</t>
+          <t>A 54542-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45287</v>
+        <v>45965.64857638889</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9952,7 +9942,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.1</v>
+        <v>3.1</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -9989,14 +9979,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 4307-2025</t>
+          <t>A 54526-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45685.68771990741</v>
+        <v>45965.63171296296</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10009,7 +9999,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.1</v>
+        <v>4.5</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10046,14 +10036,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 62379-2023</t>
+          <t>A 13220-2022</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45266</v>
+        <v>44644.57788194445</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10065,13 +10055,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G165" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10108,14 +10093,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 59625-2023</t>
+          <t>A 19447-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45254</v>
+        <v>45770</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10128,7 +10113,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>3</v>
+        <v>4.9</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10165,14 +10150,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 53193-2023</t>
+          <t>A 14820-2021</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45229</v>
+        <v>44280</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10185,7 +10170,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.7</v>
+        <v>6.4</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10222,14 +10207,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 37340-2025</t>
+          <t>A 64669-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45876.68804398148</v>
+        <v>45281</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10242,7 +10227,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10279,14 +10264,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 39611-2022</t>
+          <t>A 62378-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44818.63516203704</v>
+        <v>45266</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10300,11 +10285,11 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10341,14 +10326,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 29300-2024</t>
+          <t>A 62382-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45483</v>
+        <v>45266</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10360,8 +10345,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G170" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10398,14 +10388,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 43374-2021</t>
+          <t>A 16473-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44432</v>
+        <v>45029</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10418,7 +10408,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.1</v>
+        <v>5.5</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10455,14 +10445,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 60498-2024</t>
+          <t>A 16475-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45643.66039351852</v>
+        <v>45029</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10512,14 +10502,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 19447-2025</t>
+          <t>A 53131-2022</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45770</v>
+        <v>44876.47059027778</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10532,7 +10522,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>4.9</v>
+        <v>1.8</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10569,14 +10559,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 7628-2022</t>
+          <t>A 62379-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44607</v>
+        <v>45266</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10588,8 +10578,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G174" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10626,14 +10621,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 131-2024</t>
+          <t>A 43374-2021</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45294.42097222222</v>
+        <v>44432</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10646,7 +10641,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>7.5</v>
+        <v>1.1</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10683,14 +10678,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 54087-2021</t>
+          <t>A 64784-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44470</v>
+        <v>45282</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10702,13 +10697,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G176" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10745,14 +10735,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 62683-2023</t>
+          <t>A 56523-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45271.48655092593</v>
+        <v>45975.46405092593</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10765,7 +10755,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>5.3</v>
+        <v>1.9</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10802,14 +10792,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 3272-2025</t>
+          <t>A 18597-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45679</v>
+        <v>45763.48828703703</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10822,7 +10812,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -10859,14 +10849,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 7558-2025</t>
+          <t>A 3044-2022</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45705.58423611111</v>
+        <v>44582.3544675926</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10879,7 +10869,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -10916,14 +10906,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 53426-2022</t>
+          <t>A 15000-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44879</v>
+        <v>45015.57863425926</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10936,7 +10926,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>13.2</v>
+        <v>2.4</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -10973,14 +10963,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 62266-2022</t>
+          <t>A 57262-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44923.3334375</v>
+        <v>45979.65866898148</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10993,7 +10983,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.6</v>
+        <v>3.9</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11030,14 +11020,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 39116-2022</t>
+          <t>A 6251-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44817.44609953704</v>
+        <v>44965.32954861111</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11050,7 +11040,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>3.3</v>
+        <v>15.4</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11087,14 +11077,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 37562-2024</t>
+          <t>A 57890-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45541.44416666667</v>
+        <v>45981.68027777778</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11107,7 +11097,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11144,14 +11134,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 57918-2022</t>
+          <t>A 57886-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44900.37013888889</v>
+        <v>45981.67636574074</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11164,7 +11154,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11201,14 +11191,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 27652-2022</t>
+          <t>A 57891-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44743</v>
+        <v>45981.68199074074</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11221,7 +11211,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>9.1</v>
+        <v>0.8</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11258,14 +11248,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 45983-2024</t>
+          <t>A 10879-2021</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45580.61104166666</v>
+        <v>44259</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11278,7 +11268,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11315,14 +11305,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 41893-2022</t>
+          <t>A 10890-2021</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44830</v>
+        <v>44259</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11334,13 +11324,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G187" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11377,14 +11362,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 5242-2022</t>
+          <t>A 17567-2021</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44594.51598379629</v>
+        <v>44299.65976851852</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11397,7 +11382,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>8.800000000000001</v>
+        <v>6.2</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11434,14 +11419,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 46529-2024</t>
+          <t>A 51605-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45582.63581018519</v>
+        <v>45604.67737268518</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11454,7 +11439,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>11.7</v>
+        <v>1</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11491,14 +11476,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 16154-2024</t>
+          <t>A 49-2026</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45406.58298611111</v>
+        <v>46024.41849537037</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11511,7 +11496,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>0.8</v>
+        <v>2.7</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11548,14 +11533,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 16155-2024</t>
+          <t>A 60-2026</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45406.58472222222</v>
+        <v>46024.44394675926</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11568,7 +11553,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11605,14 +11590,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 15659-2025</t>
+          <t>A 19781-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45748.42236111111</v>
+        <v>45771.42873842592</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11625,7 +11610,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0.3</v>
+        <v>6.1</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11662,14 +11647,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 57259-2022</t>
+          <t>A 23451-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44895.82489583334</v>
+        <v>45076</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11681,8 +11666,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G193" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11719,14 +11709,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 223-2025</t>
+          <t>A 35372-2021</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45660.34912037037</v>
+        <v>44384</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11739,7 +11729,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11776,14 +11766,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 59879-2024</t>
+          <t>A 60498-2024</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45640.716875</v>
+        <v>45643.66039351852</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11796,7 +11786,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11833,14 +11823,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 13131-2024</t>
+          <t>A 5927-2022</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45386</v>
+        <v>44598.75418981481</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11852,13 +11842,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G196" t="n">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -11895,14 +11880,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 32826-2022</t>
+          <t>A 59252-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44784</v>
+        <v>45988.65092592593</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11915,7 +11900,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -11952,14 +11937,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 53227-2021</t>
+          <t>A 1525-2026</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44468</v>
+        <v>46034.36576388889</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11972,7 +11957,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12009,14 +11994,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 58330-2022</t>
+          <t>A 41893-2022</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44901.56349537037</v>
+        <v>44830</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12028,8 +12013,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G199" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12066,14 +12056,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 15704-2023</t>
+          <t>A 7783-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45021</v>
+        <v>44973</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12086,7 +12076,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>5</v>
+        <v>1.2</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12123,14 +12113,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 30796-2024</t>
+          <t>A 5242-2022</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45497.36230324074</v>
+        <v>44594.51598379629</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12143,7 +12133,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>3.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12180,14 +12170,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 16152-2024</t>
+          <t>A 57918-2022</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45406.57743055555</v>
+        <v>44900.37013888889</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12200,7 +12190,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12237,14 +12227,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 4906-2024</t>
+          <t>A 2460-2022</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45329.47921296296</v>
+        <v>44579</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12257,7 +12247,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.2</v>
+        <v>6.1</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12294,14 +12284,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 51381-2024</t>
+          <t>A 7781-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45604.39118055555</v>
+        <v>44973.41172453704</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12314,7 +12304,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>3.7</v>
+        <v>0.5</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12351,14 +12341,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 18821-2025</t>
+          <t>A 7921-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45764.37849537037</v>
+        <v>45350</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12371,7 +12361,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>6.9</v>
+        <v>0.6</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12408,14 +12398,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 2404-2025</t>
+          <t>A 45521-2022</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45674.35633101852</v>
+        <v>44845.45263888889</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12428,7 +12418,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>9.9</v>
+        <v>4</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12465,14 +12455,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 13883-2022</t>
+          <t>A 60505-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44650</v>
+        <v>45995.62716435185</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12485,7 +12475,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>6.1</v>
+        <v>2.5</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12522,14 +12512,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 53401-2022</t>
+          <t>A 17126-2022</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44879.43978009259</v>
+        <v>44677</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12542,7 +12532,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12579,14 +12569,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 15648-2025</t>
+          <t>A 56116-2022</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45748.39800925926</v>
+        <v>44889.66744212963</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12636,14 +12626,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 15181-2023</t>
+          <t>A 3256-2026</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45016</v>
+        <v>46041.59181712963</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12656,7 +12646,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>4.9</v>
+        <v>8.1</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12693,14 +12683,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 24564-2025</t>
+          <t>A 40896-2022</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45798.46134259259</v>
+        <v>44825</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12713,7 +12703,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>2.7</v>
+        <v>11.3</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12750,14 +12740,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 19773-2025</t>
+          <t>A 854-2026</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45771</v>
+        <v>46030</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12770,7 +12760,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12807,14 +12797,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 61799-2024</t>
+          <t>A 61535-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45646</v>
+        <v>46001</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12827,7 +12817,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -12864,14 +12854,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 21979-2025</t>
+          <t>A 61539-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45784.65008101852</v>
+        <v>46001</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12884,7 +12874,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -12921,14 +12911,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 19820-2021</t>
+          <t>A 12329-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44312</v>
+        <v>45378.67270833333</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12941,7 +12931,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -12978,14 +12968,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 61443-2022</t>
+          <t>A 37371-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44909</v>
+        <v>45156.51420138889</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12998,7 +12988,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13035,14 +13025,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 8273-2024</t>
+          <t>A 3074-2023</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45352</v>
+        <v>44946</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13055,7 +13045,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>2.5</v>
+        <v>6.1</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13092,14 +13082,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 2402-2024</t>
+          <t>A 7730-2023</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45310.7224537037</v>
+        <v>44973.31143518518</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13112,7 +13102,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13149,14 +13139,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 40682-2025</t>
+          <t>A 10494-2022</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45896.85864583333</v>
+        <v>44623.64945601852</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13169,7 +13159,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1</v>
+        <v>13.3</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13206,14 +13196,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 3399-2024</t>
+          <t>A 46364-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45318.60454861111</v>
+        <v>45582.3631712963</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13226,7 +13216,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13263,14 +13253,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 10767-2024</t>
+          <t>A 19049-2021</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45369.57115740741</v>
+        <v>44308</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13283,7 +13273,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13320,14 +13310,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 24432-2022</t>
+          <t>A 32527-2024</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44726</v>
+        <v>45513.47659722222</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13339,8 +13329,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G222" t="n">
-        <v>1.3</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13377,14 +13372,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 16487-2023</t>
+          <t>A 5115-2026</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45029.58181712963</v>
+        <v>46049.57565972222</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13397,7 +13392,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>0.9</v>
+        <v>8.4</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13434,14 +13429,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 64669-2023</t>
+          <t>A 62909-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45281</v>
+        <v>46009.36478009259</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13454,7 +13449,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.1</v>
+        <v>4.1</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13491,14 +13486,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 62381-2023</t>
+          <t>A 62915-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45266</v>
+        <v>46009.36930555556</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13510,13 +13505,8 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G225" t="n">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13553,14 +13543,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 55303-2022</t>
+          <t>A 35961-2021</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44887</v>
+        <v>44385</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13573,7 +13563,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13610,14 +13600,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 25413-2021</t>
+          <t>A 33546-2022</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>44342.64425925926</v>
+        <v>44789.37229166667</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13630,7 +13620,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13667,14 +13657,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 12329-2024</t>
+          <t>A 13131-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45378.67270833333</v>
+        <v>45386</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13686,8 +13676,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G228" t="n">
-        <v>0.8</v>
+        <v>5.9</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13724,14 +13719,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 4077-2025</t>
+          <t>A 9821-2022</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45684.6493287037</v>
+        <v>44620.44008101852</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13744,7 +13739,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13781,14 +13776,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 62294-2022</t>
+          <t>A 38941-2023</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44923</v>
+        <v>45163</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13801,7 +13796,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -13838,14 +13833,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 4632-2024</t>
+          <t>A 13399-2024</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45328.40832175926</v>
+        <v>45387.43239583333</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13858,7 +13853,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>2.3</v>
+        <v>4.9</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -13895,14 +13890,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 45228-2025</t>
+          <t>A 49781-2024</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45919.58493055555</v>
+        <v>45597.35331018519</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13915,7 +13910,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>10.7</v>
+        <v>5.7</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -13952,14 +13947,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 61805-2024</t>
+          <t>A 43604-2024</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45646</v>
+        <v>45569.44895833333</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13972,7 +13967,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14009,14 +14004,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 12264-2024</t>
+          <t>A 61046-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45378.46585648148</v>
+        <v>45645.47785879629</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14029,7 +14024,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14066,14 +14061,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 12266-2024</t>
+          <t>A 61799-2024</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45378.46766203704</v>
+        <v>45646</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14086,7 +14081,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14123,14 +14118,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 44708-2023</t>
+          <t>A 3795-2024</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45190.32966435186</v>
+        <v>45321.62364583334</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14143,7 +14138,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14180,14 +14175,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 20955-2025</t>
+          <t>A 42456-2024</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45777.44401620371</v>
+        <v>45565.46021990741</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14200,7 +14195,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14237,14 +14232,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 22016-2025</t>
+          <t>A 30796-2024</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45784.78254629629</v>
+        <v>45497.36230324074</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14257,7 +14252,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>2.1</v>
+        <v>3.7</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14294,14 +14289,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 47708-2025</t>
+          <t>A 16152-2024</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45931</v>
+        <v>45406.57743055555</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14314,7 +14309,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>4.9</v>
+        <v>0.8</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14351,14 +14346,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 48790-2025</t>
+          <t>A 62683-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45937.3239699074</v>
+        <v>45271.48655092593</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14371,7 +14366,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.7</v>
+        <v>5.3</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14408,14 +14403,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 48791-2025</t>
+          <t>A 61443-2022</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45937.32559027777</v>
+        <v>44909</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14428,7 +14423,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14465,14 +14460,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 48787-2025</t>
+          <t>A 47755-2022</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45937.31791666667</v>
+        <v>44854.67653935185</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14485,7 +14480,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14522,14 +14517,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 48788-2025</t>
+          <t>A 10768-2024</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45937.32173611111</v>
+        <v>45369.57269675926</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14542,7 +14537,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14579,14 +14574,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 50337-2025</t>
+          <t>A 62299-2022</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45944</v>
+        <v>44923.44671296296</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14599,7 +14594,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14636,14 +14631,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 50209-2025</t>
+          <t>A 11460-2024</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45943</v>
+        <v>45372.58478009259</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14656,7 +14651,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>2.5</v>
+        <v>5.3</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14693,14 +14688,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 32537-2024</t>
+          <t>A 32541-2024</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45513</v>
+        <v>45513.49285879629</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14718,7 +14713,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -14755,14 +14750,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 8869-2025</t>
+          <t>A 55303-2022</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45713.369375</v>
+        <v>44887</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14775,7 +14770,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -14812,14 +14807,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 37801-2024</t>
+          <t>A 19048-2023</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45543</v>
+        <v>45047</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14832,7 +14827,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>2</v>
+        <v>12.5</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -14869,14 +14864,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 24559-2025</t>
+          <t>A 36982-2024</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45798.45791666667</v>
+        <v>45539.31283564815</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14889,7 +14884,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -14926,14 +14921,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 11837-2025</t>
+          <t>A 855-2023</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45728.36346064815</v>
+        <v>44931.60407407407</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14946,7 +14941,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -14983,14 +14978,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 15645-2024</t>
+          <t>A 21363-2023</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45404.32452546297</v>
+        <v>45063.25231481482</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15003,7 +14998,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15040,14 +15035,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 54526-2025</t>
+          <t>A 61884-2024</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45965.63171296296</v>
+        <v>45652.65233796297</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15060,7 +15055,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15097,14 +15092,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 54542-2025</t>
+          <t>A 370-2025</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45965.64857638889</v>
+        <v>45661.54579861111</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15117,7 +15112,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15154,14 +15149,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 56523-2025</t>
+          <t>A 33587-2021</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45975.46405092593</v>
+        <v>44378</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15174,7 +15169,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15211,14 +15206,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 57262-2025</t>
+          <t>A 19773-2025</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45979.65866898148</v>
+        <v>45771</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15231,7 +15226,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>3.9</v>
+        <v>1.3</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15268,14 +15263,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 57890-2025</t>
+          <t>A 2404-2025</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45981.68027777778</v>
+        <v>45674.35633101852</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15288,7 +15283,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>2.2</v>
+        <v>9.9</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15325,14 +15320,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 49-2026</t>
+          <t>A 3399-2024</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>46024.41849537037</v>
+        <v>45318.60454861111</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15345,7 +15340,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15382,14 +15377,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 60-2026</t>
+          <t>A 53429-2022</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>46024.44394675926</v>
+        <v>44879</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15402,7 +15397,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15439,14 +15434,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 57886-2025</t>
+          <t>A 44708-2023</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45981.67636574074</v>
+        <v>45190.32966435186</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15459,7 +15454,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15496,14 +15491,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 57891-2025</t>
+          <t>A 25514-2022</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45981.68199074074</v>
+        <v>44732.58395833334</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15516,7 +15511,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15553,14 +15548,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 59252-2025</t>
+          <t>A 12967-2024</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45988.65092592593</v>
+        <v>45385.50491898148</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15573,7 +15568,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15610,14 +15605,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 1525-2026</t>
+          <t>A 24432-2022</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>46034.36576388889</v>
+        <v>44726</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15630,7 +15625,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -15667,14 +15662,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 60505-2025</t>
+          <t>A 37658-2022</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45995.62716435185</v>
+        <v>44810.44122685185</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15687,7 +15682,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -15724,14 +15719,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 3256-2026</t>
+          <t>A 15658-2025</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>46041.59181712963</v>
+        <v>45748.42075231481</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15744,7 +15739,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>8.1</v>
+        <v>0.6</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -15781,14 +15776,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 854-2026</t>
+          <t>A 66960-2021</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>46030</v>
+        <v>44522</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15801,7 +15796,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -15838,14 +15833,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 61535-2025</t>
+          <t>A 40864-2021</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>46001</v>
+        <v>44421</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15858,7 +15853,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -15895,14 +15890,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 61539-2025</t>
+          <t>A 37305-2022</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>46001</v>
+        <v>44808.94498842592</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -15915,7 +15910,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>1</v>
+        <v>9.9</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -15952,14 +15947,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 5115-2026</t>
+          <t>A 4632-2024</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>46049.57565972222</v>
+        <v>45328.40832175926</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -15972,7 +15967,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>8.4</v>
+        <v>2.3</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16009,14 +16004,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 62915-2025</t>
+          <t>A 53193-2023</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>46009.36930555556</v>
+        <v>45229</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16029,7 +16024,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16066,14 +16061,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 62909-2025</t>
+          <t>A 20955-2025</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>46009.36478009259</v>
+        <v>45777.44401620371</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16086,7 +16081,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>4.1</v>
+        <v>1.2</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16123,14 +16118,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 7655-2026</t>
+          <t>A 22016-2025</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>46062.38829861111</v>
+        <v>45784.78254629629</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16143,7 +16138,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16180,14 +16175,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 7659-2026</t>
+          <t>A 32537-2024</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>46062.39302083333</v>
+        <v>45513</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16199,8 +16194,13 @@
           <t>TROLLHÄTTAN</t>
         </is>
       </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G272" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16237,14 +16237,14 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 63884-2025</t>
+          <t>A 8869-2025</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>46020.58894675926</v>
+        <v>45713.369375</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16257,7 +16257,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>1.9</v>
+        <v>4</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
